--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba2af144d448b369/Documents/Sandbox/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CD32B16C-7DED-40CD-BACE-1126F2EAFF7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{CD32B16C-7DED-40CD-BACE-1126F2EAFF7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEBDF5E5-E94B-4EC0-AA2B-D98D82A82A51}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14712" windowHeight="8808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14712" windowHeight="8808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="68">
   <si>
     <t>ModelType</t>
   </si>
@@ -210,12 +218,27 @@
   </si>
   <si>
     <t>Wavelet Scalogram 5 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Gaussian SVM </t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>* SDE = subspace discriminat ensemble</t>
+  </si>
+  <si>
+    <t>* CNN = convolutional neural net (GoogleNet)</t>
+  </si>
+  <si>
+    <t>SDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -696,9 +719,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -744,13 +770,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1066,11 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3691,69 +3711,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3798,9 +3819,8 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3845,9 +3865,8 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3892,9 +3911,8 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3939,9 +3957,8 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -3986,9 +4003,8 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4033,9 +4049,8 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4080,9 +4095,8 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -4127,9 +4141,8 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4174,9 +4187,8 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4221,9 +4233,8 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -4252,9 +4263,8 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4283,9 +4293,8 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4316,17 +4325,16 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1">
+        <v>0.49199999999999999</v>
+      </c>
       <c r="P14" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="Q14" s="1">
         <v>0.65300000000000002</v>
       </c>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -4342,16 +4350,15 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1">
+      <c r="N15" s="1">
         <v>0.92900000000000005</v>
       </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4367,16 +4374,15 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1">
+      <c r="N16" s="1">
         <v>0.85099999999999998</v>
       </c>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4392,24 +4398,29 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1">
+      <c r="N17" s="1">
         <v>0.83299999999999996</v>
       </c>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q31" s="1">
-        <f>MAX(B2:Q17)</f>
-        <v>0.92900000000000005</v>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B2:P17">
+    <cfRule type="top10" dxfId="0" priority="3" rank="3"/>
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4417,7 +4428,6 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -3718,7 +3718,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{CD32B16C-7DED-40CD-BACE-1126F2EAFF7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEBDF5E5-E94B-4EC0-AA2B-D98D82A82A51}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{CD32B16C-7DED-40CD-BACE-1126F2EAFF7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A2EABAD4-1F11-4F53-A128-8669F7CACB79}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14712" windowHeight="8808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="69">
   <si>
     <t>ModelType</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>SDE</t>
+  </si>
+  <si>
+    <t>* All comtaminated signals have signal-to-noise of 6 dB</t>
   </si>
 </sst>
 </file>
@@ -1093,14 +1096,14 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1216,10 +1219,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1299,10 +1302,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1370,10 +1373,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1526,10 +1529,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1745,10 +1748,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1964,10 +1967,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2183,10 +2186,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2402,10 +2405,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -2621,10 +2624,10 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -2840,10 +2843,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3059,10 +3062,10 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -3266,10 +3269,10 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -3485,10 +3488,10 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -3715,19 +3718,19 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3820,7 +3823,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3912,7 +3915,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3958,7 +3961,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4004,7 +4007,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4050,7 +4053,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4096,7 +4099,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -4142,7 +4145,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4188,7 +4191,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -4264,7 +4267,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4294,7 +4297,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4334,7 +4337,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -4358,7 +4361,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4382,7 +4385,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4406,13 +4409,18 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>65</v>
       </c>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{CD32B16C-7DED-40CD-BACE-1126F2EAFF7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A2EABAD4-1F11-4F53-A128-8669F7CACB79}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="8805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14712" windowHeight="8808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -1096,14 +1096,14 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1302,10 +1302,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1373,10 +1373,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1529,10 +1529,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1748,10 +1748,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1967,10 +1967,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2186,10 +2186,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2405,10 +2405,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -2624,10 +2624,10 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -2843,10 +2843,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3062,10 +3062,10 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -3269,10 +3269,10 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -3488,10 +3488,10 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -3718,19 +3718,19 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.796875" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4409,18 +4409,18 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>65</v>
       </c>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/ProjectDir2/EnvNoiseDetector/data/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{CD32B16C-7DED-40CD-BACE-1126F2EAFF7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A2EABAD4-1F11-4F53-A128-8669F7CACB79}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14712" windowHeight="8808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9220" yWindow="460" windowWidth="15980" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="74">
   <si>
     <t>ModelType</t>
   </si>
@@ -236,12 +236,27 @@
   </si>
   <si>
     <t>* All comtaminated signals have signal-to-noise of 6 dB</t>
+  </si>
+  <si>
+    <t>Wvl. (CF2, L3) Entropy-Var-Subband T1 [13 Feat]</t>
+  </si>
+  <si>
+    <t>Subspace KNN</t>
+  </si>
+  <si>
+    <t>FinalWaveletFeatures_PCA_SS_coif2_L3.mat</t>
+  </si>
+  <si>
+    <t>FinalWaveletFeatures_PCA_SS_CF2_L5.mat</t>
+  </si>
+  <si>
+    <t>Wvl. (CF2, L4) Entropy-Var-Subband T1 [17 Feat]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -722,12 +737,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1089,21 +1105,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1178,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1207,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1219,10 +1236,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1256,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1285,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1302,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1302,10 +1319,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1339,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1339,7 +1356,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1373,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1373,10 +1390,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +1410,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1427,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1427,7 +1444,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1478,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1478,7 +1495,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +1512,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1512,7 +1529,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1529,10 +1546,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1549,7 +1566,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1583,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1583,7 +1600,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1600,7 +1617,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1617,7 +1634,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1634,7 +1651,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1651,7 +1668,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1668,7 +1685,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1697,7 +1714,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1714,7 +1731,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1731,7 +1748,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1748,10 +1765,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1785,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1802,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1819,7 +1836,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1853,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1870,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +1887,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1887,7 +1904,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1916,7 +1933,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1933,7 +1950,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1950,7 +1967,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1967,10 +1984,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +2004,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2021,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2038,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2055,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2055,7 +2072,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2072,7 +2089,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2089,7 +2106,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2106,7 +2123,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2135,7 +2152,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2152,7 +2169,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2186,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2186,10 +2203,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2223,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2223,7 +2240,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2240,7 +2257,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2257,7 +2274,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2274,7 +2291,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2308,7 +2325,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2354,7 +2371,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2371,7 +2388,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2388,7 +2405,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2405,10 +2422,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2425,7 +2442,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2442,7 +2459,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2459,7 +2476,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +2493,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -2493,7 +2510,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2522,7 +2539,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -2539,7 +2556,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2573,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -2573,7 +2590,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2590,7 +2607,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -2607,7 +2624,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -2624,10 +2641,10 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2661,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2678,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2678,7 +2695,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2695,7 +2712,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2712,7 +2729,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -2741,7 +2758,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -2758,7 +2775,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2775,7 +2792,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -2792,7 +2809,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2809,7 +2826,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2826,7 +2843,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -2843,10 +2860,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -2863,7 +2880,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2880,7 +2897,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2897,7 +2914,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2914,7 +2931,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -2960,7 +2977,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -2977,7 +2994,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2994,7 +3011,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -3028,7 +3045,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3062,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3062,10 +3079,10 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3082,7 +3099,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3099,7 +3116,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3116,7 +3133,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3133,7 +3150,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3150,7 +3167,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3184,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -3184,7 +3201,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -3201,7 +3218,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3218,7 +3235,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -3252,7 +3269,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -3269,10 +3286,10 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3306,7 +3323,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3323,7 +3340,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -3357,7 +3374,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -3391,7 +3408,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -3408,7 +3425,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -3454,7 +3471,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -3471,7 +3488,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -3488,10 +3505,10 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3508,7 +3525,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3525,7 +3542,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3542,7 +3559,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3559,7 +3576,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -3576,7 +3593,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -3593,7 +3610,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -3610,7 +3627,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -3627,7 +3644,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -3661,7 +3678,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -3690,7 +3707,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -3705,6 +3722,448 @@
       </c>
       <c r="E154" s="1">
         <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159" t="s">
+        <v>71</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" t="s">
+        <v>71</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" t="s">
+        <v>69</v>
+      </c>
+      <c r="D161" t="s">
+        <v>71</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" t="s">
+        <v>69</v>
+      </c>
+      <c r="D163" t="s">
+        <v>71</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>31</v>
+      </c>
+      <c r="B164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" t="s">
+        <v>71</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" t="s">
+        <v>71</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" t="s">
+        <v>69</v>
+      </c>
+      <c r="D166" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" t="s">
+        <v>69</v>
+      </c>
+      <c r="D167" t="s">
+        <v>71</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>69</v>
+      </c>
+      <c r="D168" t="s">
+        <v>71</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>69</v>
+      </c>
+      <c r="D169" t="s">
+        <v>71</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>36</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>69</v>
+      </c>
+      <c r="D170" t="s">
+        <v>71</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>70</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>69</v>
+      </c>
+      <c r="D171" t="s">
+        <v>71</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" t="s">
+        <v>72</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>73</v>
+      </c>
+      <c r="D176" t="s">
+        <v>72</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>73</v>
+      </c>
+      <c r="D177" t="s">
+        <v>72</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" t="s">
+        <v>72</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" t="s">
+        <v>72</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>73</v>
+      </c>
+      <c r="D180" t="s">
+        <v>72</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>73</v>
+      </c>
+      <c r="D181" t="s">
+        <v>72</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>33</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>73</v>
+      </c>
+      <c r="D182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D183" t="s">
+        <v>72</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>73</v>
+      </c>
+      <c r="D184" t="s">
+        <v>72</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>35</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>73</v>
+      </c>
+      <c r="D185" t="s">
+        <v>72</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>73</v>
+      </c>
+      <c r="D186" t="s">
+        <v>72</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>70</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>73</v>
+      </c>
+      <c r="D187" t="s">
+        <v>72</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0.92400000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -3714,23 +4173,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3777,7 +4236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3823,7 +4282,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3869,7 +4328,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3915,7 +4374,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3961,7 +4420,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4007,7 +4466,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4053,7 +4512,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4099,7 +4558,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -4145,7 +4604,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4191,7 +4650,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4237,7 +4696,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -4267,7 +4726,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4297,7 +4756,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4796,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -4361,7 +4820,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4385,7 +4844,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4409,18 +4868,18 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>65</v>
       </c>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="76">
   <si>
     <t>ModelType</t>
   </si>
@@ -251,6 +250,12 @@
   </si>
   <si>
     <t>Wvl. (CF2, L4) Entropy-Var-Subband T1 [17 Feat]</t>
+  </si>
+  <si>
+    <t>Wvl. (CF2, L4) Variance Only [4 Feat]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subspace Descriminant </t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4164,6 +4169,188 @@
       </c>
       <c r="E187" s="1">
         <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>15</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>74</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>74</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
+        <v>74</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
+        <v>74</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>74</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>74</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>32</v>
+      </c>
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" t="s">
+        <v>74</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" t="s">
+        <v>74</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" t="s">
+        <v>74</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" t="s">
+        <v>74</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>35</v>
+      </c>
+      <c r="B199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" t="s">
+        <v>74</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>36</v>
+      </c>
+      <c r="B200" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" t="s">
+        <v>74</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" t="s">
+        <v>74</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0.64400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/ProjectDir2/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UW\Project\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137B159A-435A-4D47-861B-9B215CB41435}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="460" windowWidth="15980" windowHeight="13380"/>
+    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="82">
   <si>
     <t>ModelType</t>
   </si>
@@ -256,12 +249,30 @@
   </si>
   <si>
     <t xml:space="preserve">Subspace Descriminant </t>
+  </si>
+  <si>
+    <t>SNR 6 Wavelet Scalogram Bag of Features - 1s</t>
+  </si>
+  <si>
+    <t>FeaturesSNR6WaveletScalogramSURFOneSecv1.mat</t>
+  </si>
+  <si>
+    <t>SNR 6 Wavelet Scalogram Bag of Features - 3s</t>
+  </si>
+  <si>
+    <t>FeaturesSNR6WaveletScalogramSURFThreeSecv1.mat</t>
+  </si>
+  <si>
+    <t>SNR 6 Wavelet Scalogram Bag of Features - 5s</t>
+  </si>
+  <si>
+    <t>FeaturesSNR6WaveletScalogramSURFFiveSecv1.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -794,7 +805,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1110,22 +1133,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159:E171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1206,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1241,10 +1264,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1284,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1307,7 +1330,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1324,10 +1347,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1367,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1361,7 +1384,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1401,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1395,10 +1418,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1438,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1432,7 +1455,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1449,7 +1472,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1466,7 +1489,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1506,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1500,7 +1523,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1517,7 +1540,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1534,7 +1557,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1551,10 +1574,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1594,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1611,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1628,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1645,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1639,7 +1662,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1656,7 +1679,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1673,7 +1696,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1690,7 +1713,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1719,7 +1742,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1736,7 +1759,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1776,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1770,10 +1793,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1790,7 +1813,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +1830,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1824,7 +1847,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1864,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1858,7 +1881,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +1898,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1892,7 +1915,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1932,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1938,7 +1961,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1955,7 +1978,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1972,7 +1995,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1989,10 +2012,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2009,7 +2032,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2026,7 +2049,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2043,7 +2066,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2060,7 +2083,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2077,7 +2100,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2094,7 +2117,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2111,7 +2134,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2128,7 +2151,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2157,7 +2180,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2174,7 +2197,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2191,7 +2214,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2208,10 +2231,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2228,7 +2251,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2245,7 +2268,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2262,7 +2285,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2279,7 +2302,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2296,7 +2319,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2313,7 +2336,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +2353,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2347,7 +2370,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2376,7 +2399,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2393,7 +2416,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2410,7 +2433,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2427,10 +2450,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2447,7 +2470,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2464,7 +2487,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2504,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2498,7 +2521,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -2515,7 +2538,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2544,7 +2567,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -2561,7 +2584,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2578,7 +2601,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -2595,7 +2618,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2612,7 +2635,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -2629,7 +2652,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -2646,10 +2669,10 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2666,7 +2689,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -2683,7 +2706,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2700,7 +2723,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2717,7 +2740,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2734,7 +2757,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -2763,7 +2786,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -2780,7 +2803,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2797,7 +2820,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2837,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2831,7 +2854,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2848,7 +2871,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -2865,10 +2888,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -2885,7 +2908,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2902,7 +2925,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2919,7 +2942,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2936,7 +2959,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2953,7 +2976,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -2982,7 +3005,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -2999,7 +3022,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -3016,7 +3039,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -3033,7 +3056,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -3050,7 +3073,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -3067,7 +3090,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3084,10 +3107,10 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3104,7 +3127,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3121,7 +3144,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3138,7 +3161,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3178,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3172,7 +3195,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -3189,7 +3212,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -3206,7 +3229,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -3223,7 +3246,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3240,7 +3263,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -3257,7 +3280,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -3274,7 +3297,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -3291,10 +3314,10 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3334,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3328,7 +3351,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3345,7 +3368,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -3362,7 +3385,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -3379,7 +3402,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -3396,7 +3419,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -3413,7 +3436,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -3430,7 +3453,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3459,7 +3482,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -3476,7 +3499,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -3493,7 +3516,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -3510,10 +3533,10 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3530,7 +3553,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3547,7 +3570,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3564,7 +3587,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3581,7 +3604,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -3598,7 +3621,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -3615,7 +3638,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3655,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -3649,7 +3672,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -3666,7 +3689,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -3683,7 +3706,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -3712,7 +3735,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -3729,7 +3752,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -3746,7 +3769,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3763,7 +3786,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -3780,7 +3803,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -3797,7 +3820,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>28</v>
       </c>
@@ -3814,7 +3837,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -3831,7 +3854,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -3848,7 +3871,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -3865,7 +3888,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -3882,7 +3905,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -3899,7 +3922,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>35</v>
       </c>
@@ -3916,7 +3939,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -3933,7 +3956,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>70</v>
       </c>
@@ -3950,7 +3973,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -3967,7 +3990,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -3984,7 +4007,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -4001,7 +4024,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -4018,7 +4041,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -4035,7 +4058,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -4052,7 +4075,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -4069,7 +4092,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -4086,7 +4109,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>34</v>
       </c>
@@ -4103,7 +4126,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -4120,7 +4143,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -4137,7 +4160,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -4154,7 +4177,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>70</v>
       </c>
@@ -4171,7 +4194,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4208,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -4199,7 +4222,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -4213,7 +4236,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -4227,7 +4250,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -4241,7 +4264,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>31</v>
       </c>
@@ -4255,7 +4278,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -4269,7 +4292,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -4283,7 +4306,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -4311,7 +4334,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>35</v>
       </c>
@@ -4325,7 +4348,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>36</v>
       </c>
@@ -4339,7 +4362,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>75</v>
       </c>
@@ -4351,6 +4374,654 @@
       </c>
       <c r="E201" s="1">
         <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" t="s">
+        <v>76</v>
+      </c>
+      <c r="D203" t="s">
+        <v>77</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" t="s">
+        <v>76</v>
+      </c>
+      <c r="D204" t="s">
+        <v>77</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" t="s">
+        <v>76</v>
+      </c>
+      <c r="D205" t="s">
+        <v>77</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" t="s">
+        <v>76</v>
+      </c>
+      <c r="D206" t="s">
+        <v>77</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207" t="s">
+        <v>76</v>
+      </c>
+      <c r="D207" t="s">
+        <v>77</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>31</v>
+      </c>
+      <c r="B208" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" t="s">
+        <v>76</v>
+      </c>
+      <c r="D208" t="s">
+        <v>77</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>32</v>
+      </c>
+      <c r="B209" t="s">
+        <v>16</v>
+      </c>
+      <c r="C209" t="s">
+        <v>76</v>
+      </c>
+      <c r="D209" t="s">
+        <v>77</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>33</v>
+      </c>
+      <c r="B210" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210" t="s">
+        <v>76</v>
+      </c>
+      <c r="D210" t="s">
+        <v>77</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" t="s">
+        <v>76</v>
+      </c>
+      <c r="D211" t="s">
+        <v>77</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="F211">
+        <v>1801</v>
+      </c>
+      <c r="G211">
+        <v>217</v>
+      </c>
+      <c r="H211">
+        <v>303</v>
+      </c>
+      <c r="I211">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" t="s">
+        <v>76</v>
+      </c>
+      <c r="D212" t="s">
+        <v>77</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>35</v>
+      </c>
+      <c r="B213" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" t="s">
+        <v>76</v>
+      </c>
+      <c r="D213" t="s">
+        <v>77</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>36</v>
+      </c>
+      <c r="B214" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" t="s">
+        <v>76</v>
+      </c>
+      <c r="D214" t="s">
+        <v>77</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" t="s">
+        <v>78</v>
+      </c>
+      <c r="D216" t="s">
+        <v>79</v>
+      </c>
+      <c r="E216" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" t="s">
+        <v>78</v>
+      </c>
+      <c r="D217" t="s">
+        <v>79</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" t="s">
+        <v>78</v>
+      </c>
+      <c r="D218" t="s">
+        <v>79</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" t="s">
+        <v>78</v>
+      </c>
+      <c r="D219" t="s">
+        <v>79</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220" t="s">
+        <v>16</v>
+      </c>
+      <c r="C220" t="s">
+        <v>78</v>
+      </c>
+      <c r="D220" t="s">
+        <v>79</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221" t="s">
+        <v>16</v>
+      </c>
+      <c r="C221" t="s">
+        <v>78</v>
+      </c>
+      <c r="D221" t="s">
+        <v>79</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>32</v>
+      </c>
+      <c r="B222" t="s">
+        <v>16</v>
+      </c>
+      <c r="C222" t="s">
+        <v>78</v>
+      </c>
+      <c r="D222" t="s">
+        <v>79</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>33</v>
+      </c>
+      <c r="B223" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" t="s">
+        <v>78</v>
+      </c>
+      <c r="D223" t="s">
+        <v>79</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>34</v>
+      </c>
+      <c r="B224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" t="s">
+        <v>78</v>
+      </c>
+      <c r="D224" t="s">
+        <v>79</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F224">
+        <v>589</v>
+      </c>
+      <c r="G224">
+        <v>62</v>
+      </c>
+      <c r="H224">
+        <v>87</v>
+      </c>
+      <c r="I224">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" t="s">
+        <v>78</v>
+      </c>
+      <c r="D225" t="s">
+        <v>79</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>35</v>
+      </c>
+      <c r="B226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" t="s">
+        <v>78</v>
+      </c>
+      <c r="D226" t="s">
+        <v>79</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>36</v>
+      </c>
+      <c r="B227" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" t="s">
+        <v>78</v>
+      </c>
+      <c r="D227" t="s">
+        <v>79</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>15</v>
+      </c>
+      <c r="B229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" t="s">
+        <v>80</v>
+      </c>
+      <c r="D229" t="s">
+        <v>81</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" t="s">
+        <v>80</v>
+      </c>
+      <c r="D230" t="s">
+        <v>81</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" t="s">
+        <v>80</v>
+      </c>
+      <c r="D231" t="s">
+        <v>81</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" t="s">
+        <v>80</v>
+      </c>
+      <c r="D232" t="s">
+        <v>81</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233" t="s">
+        <v>80</v>
+      </c>
+      <c r="D233" t="s">
+        <v>81</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>31</v>
+      </c>
+      <c r="B234" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234" t="s">
+        <v>80</v>
+      </c>
+      <c r="D234" t="s">
+        <v>81</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>32</v>
+      </c>
+      <c r="B235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" t="s">
+        <v>80</v>
+      </c>
+      <c r="D235" t="s">
+        <v>81</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>33</v>
+      </c>
+      <c r="B236" t="s">
+        <v>16</v>
+      </c>
+      <c r="C236" t="s">
+        <v>80</v>
+      </c>
+      <c r="D236" t="s">
+        <v>81</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>34</v>
+      </c>
+      <c r="B237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237" t="s">
+        <v>80</v>
+      </c>
+      <c r="D237" t="s">
+        <v>81</v>
+      </c>
+      <c r="E237" s="3">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F237">
+        <v>294</v>
+      </c>
+      <c r="G237">
+        <v>26</v>
+      </c>
+      <c r="H237">
+        <v>32</v>
+      </c>
+      <c r="I237">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" t="s">
+        <v>16</v>
+      </c>
+      <c r="C238" t="s">
+        <v>80</v>
+      </c>
+      <c r="D238" t="s">
+        <v>81</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>35</v>
+      </c>
+      <c r="B239" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" t="s">
+        <v>80</v>
+      </c>
+      <c r="D239" t="s">
+        <v>81</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>36</v>
+      </c>
+      <c r="B240" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" t="s">
+        <v>80</v>
+      </c>
+      <c r="D240" t="s">
+        <v>81</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0.81599999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -4360,23 +5031,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4422,8 +5093,11 @@
       <c r="P1" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4469,7 +5143,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4515,7 +5189,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4561,7 +5235,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4607,7 +5281,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4653,7 +5327,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4699,7 +5373,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4745,7 +5419,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -4791,7 +5465,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4837,7 +5511,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4883,7 +5557,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -4913,7 +5587,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4943,7 +5617,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4983,22 +5657,46 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="B15" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.755</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.79900000000000004</v>
+      </c>
       <c r="N15" s="1">
         <v>0.92900000000000005</v>
       </c>
@@ -5007,22 +5705,46 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="B16" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.753</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.879</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.81599999999999995</v>
+      </c>
       <c r="N16" s="1">
         <v>0.85099999999999998</v>
       </c>
@@ -5031,22 +5753,46 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="B17" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.81599999999999995</v>
+      </c>
       <c r="N17" s="1">
         <v>0.83299999999999996</v>
       </c>
@@ -5055,26 +5801,180 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.754</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:P17">
-    <cfRule type="top10" dxfId="0" priority="3" rank="3"/>
+  <conditionalFormatting sqref="B2:P14 N15:P15 B16:P17">
+    <cfRule type="top10" dxfId="2" priority="7" rank="3"/>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:M15">
+    <cfRule type="top10" dxfId="1" priority="3" rank="3"/>
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:M20 Q18:Q20">
+    <cfRule type="top10" dxfId="0" priority="9" rank="3"/>
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UW\Project\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/ProjectDir2/EnvNoiseDetector/data/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137B159A-435A-4D47-861B-9B215CB41435}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9220" yWindow="460" windowWidth="15980" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="85">
   <si>
     <t>ModelType</t>
   </si>
@@ -267,12 +266,21 @@
   </si>
   <si>
     <t>FeaturesSNR6WaveletScalogramSURFFiveSecv1.mat</t>
+  </si>
+  <si>
+    <t>Wvl. (DB5, L4) Entropy-Var-Subband T1 [17 Feat]</t>
+  </si>
+  <si>
+    <t>FinalWaveletFeatures_PCA_SS_db5_L5.mat</t>
+  </si>
+  <si>
+    <t>Linear Discriminant Analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1133,22 +1141,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159:E171"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1243,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1264,10 +1272,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1330,7 +1338,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1347,10 +1355,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1367,7 +1375,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1418,10 +1426,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1438,7 +1446,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1565,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1574,10 +1582,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1602,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +1670,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1696,7 +1704,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1721,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1776,7 +1784,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1793,10 +1801,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1821,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1830,7 +1838,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2012,10 +2020,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +2040,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2049,7 +2057,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2066,7 +2074,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2083,7 +2091,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2100,7 +2108,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2117,7 +2125,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2222,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2231,10 +2239,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2259,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2268,7 +2276,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2285,7 +2293,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2336,7 +2344,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2353,7 +2361,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2399,7 +2407,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2416,7 +2424,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2433,7 +2441,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2450,10 +2458,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2470,7 +2478,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +2495,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2504,7 +2512,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2521,7 +2529,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -2635,7 +2643,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -2652,7 +2660,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -2669,10 +2677,10 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2697,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2723,7 +2731,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -2757,7 +2765,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -2786,7 +2794,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -2803,7 +2811,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -2837,7 +2845,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -2854,7 +2862,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2871,7 +2879,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -2888,10 +2896,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -2908,7 +2916,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2942,7 +2950,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2976,7 +2984,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -3005,7 +3013,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -3022,7 +3030,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -3039,7 +3047,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -3073,7 +3081,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -3090,7 +3098,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3107,10 +3115,10 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3161,7 +3169,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3195,7 +3203,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -3229,7 +3237,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -3246,7 +3254,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -3263,7 +3271,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3288,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -3297,7 +3305,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -3314,10 +3322,10 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -3334,7 +3342,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -3351,7 +3359,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +3376,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -3402,7 +3410,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>34</v>
       </c>
@@ -3482,7 +3490,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -3499,7 +3507,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -3533,10 +3541,10 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3570,7 +3578,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3587,7 +3595,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>34</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -3752,7 +3760,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>28</v>
       </c>
@@ -3837,7 +3845,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -3854,7 +3862,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>32</v>
       </c>
@@ -3871,7 +3879,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -3888,7 +3896,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>34</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -3922,7 +3930,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>35</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -3956,7 +3964,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>70</v>
       </c>
@@ -3973,7 +3981,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -3990,7 +3998,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>18</v>
       </c>
@@ -4007,7 +4015,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -4041,7 +4049,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -4058,7 +4066,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4083,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -4109,7 +4117,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>34</v>
       </c>
@@ -4126,7 +4134,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -4160,7 +4168,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -4177,7 +4185,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>70</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -4208,7 +4216,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -4264,7 +4272,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>31</v>
       </c>
@@ -4278,7 +4286,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -4292,7 +4300,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -4334,7 +4342,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>35</v>
       </c>
@@ -4348,7 +4356,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>36</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>75</v>
       </c>
@@ -4376,7 +4384,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -4393,7 +4401,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -4427,7 +4435,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>28</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -4495,7 +4503,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>33</v>
       </c>
@@ -4512,7 +4520,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>35</v>
       </c>
@@ -4575,7 +4583,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4600,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -4609,7 +4617,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>18</v>
       </c>
@@ -4626,7 +4634,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -4643,7 +4651,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>28</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>32</v>
       </c>
@@ -4711,7 +4719,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>33</v>
       </c>
@@ -4728,7 +4736,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -4757,7 +4765,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>35</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>36</v>
       </c>
@@ -4808,7 +4816,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -4825,7 +4833,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>18</v>
       </c>
@@ -4842,7 +4850,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -4859,7 +4867,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -4876,7 +4884,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>28</v>
       </c>
@@ -4893,7 +4901,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>31</v>
       </c>
@@ -4910,7 +4918,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>32</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>33</v>
       </c>
@@ -4944,7 +4952,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>34</v>
       </c>
@@ -4973,7 +4981,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -4990,7 +4998,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>35</v>
       </c>
@@ -5007,7 +5015,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>36</v>
       </c>
@@ -5022,6 +5030,244 @@
       </c>
       <c r="E240" s="3">
         <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" t="s">
+        <v>82</v>
+      </c>
+      <c r="D242" t="s">
+        <v>83</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" t="s">
+        <v>82</v>
+      </c>
+      <c r="D243" t="s">
+        <v>83</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" t="s">
+        <v>82</v>
+      </c>
+      <c r="D244" t="s">
+        <v>83</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" t="s">
+        <v>82</v>
+      </c>
+      <c r="D245" t="s">
+        <v>83</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>28</v>
+      </c>
+      <c r="B246" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" t="s">
+        <v>82</v>
+      </c>
+      <c r="D246" t="s">
+        <v>83</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>31</v>
+      </c>
+      <c r="B247" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247" t="s">
+        <v>82</v>
+      </c>
+      <c r="D247" t="s">
+        <v>83</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>32</v>
+      </c>
+      <c r="B248" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" t="s">
+        <v>82</v>
+      </c>
+      <c r="D248" t="s">
+        <v>83</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249" t="s">
+        <v>82</v>
+      </c>
+      <c r="D249" t="s">
+        <v>83</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>34</v>
+      </c>
+      <c r="B250" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" t="s">
+        <v>82</v>
+      </c>
+      <c r="D250" t="s">
+        <v>83</v>
+      </c>
+      <c r="E250" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" t="s">
+        <v>82</v>
+      </c>
+      <c r="D251" t="s">
+        <v>83</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>35</v>
+      </c>
+      <c r="B252" t="s">
+        <v>16</v>
+      </c>
+      <c r="C252" t="s">
+        <v>82</v>
+      </c>
+      <c r="D252" t="s">
+        <v>83</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253" t="s">
+        <v>82</v>
+      </c>
+      <c r="D253" t="s">
+        <v>83</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>70</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" t="s">
+        <v>82</v>
+      </c>
+      <c r="D254" t="s">
+        <v>83</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>84</v>
+      </c>
+      <c r="B255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" t="s">
+        <v>82</v>
+      </c>
+      <c r="D255" t="s">
+        <v>83</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0.97499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5031,23 +5277,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.85546875" customWidth="1"/>
+    <col min="2" max="16" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5097,7 +5343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5143,7 +5389,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5189,7 +5435,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -5235,7 +5481,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5281,7 +5527,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5327,7 +5573,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5373,7 +5619,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5419,7 +5665,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5465,7 +5711,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5511,7 +5757,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5557,7 +5803,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -5587,7 +5833,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5617,7 +5863,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5657,7 +5903,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -5705,7 +5951,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -5753,7 +5999,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -5801,7 +6047,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -5845,7 +6091,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -5889,7 +6135,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -5933,18 +6179,18 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>65</v>
       </c>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/ProjectDir2/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UW\Project\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D746DD4C-58DF-450E-AA9F-6B55A2A5AFF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="460" windowWidth="15980" windowHeight="13380"/>
+    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="87">
   <si>
     <t>ModelType</t>
   </si>
@@ -275,12 +276,18 @@
   </si>
   <si>
     <t>Linear Discriminant Analysis</t>
+  </si>
+  <si>
+    <t>Neural Net</t>
+  </si>
+  <si>
+    <t>Neural Net (GUI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -813,7 +820,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1141,22 +1160,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1233,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1262,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1272,10 +1291,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1311,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1340,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1357,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1355,10 +1374,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1394,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1428,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1426,10 +1445,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1465,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1463,7 +1482,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1499,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +1516,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1514,7 +1533,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1531,7 +1550,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1548,7 +1567,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1565,7 +1584,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1582,10 +1601,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1621,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1619,7 +1638,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1655,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1653,7 +1672,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1689,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1704,7 +1723,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +1740,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1750,7 +1769,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1786,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1784,7 +1803,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1801,10 +1820,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1821,7 +1840,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1857,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1874,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1872,7 +1891,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1906,7 +1925,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1923,7 +1942,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +1959,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1969,7 +1988,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1986,7 +2005,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2003,7 +2022,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2020,29 +2039,41 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F51">
+        <v>1950</v>
+      </c>
+      <c r="G51">
+        <v>398</v>
+      </c>
+      <c r="H51">
+        <v>164</v>
+      </c>
+      <c r="I51">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>15</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>18</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -2054,12 +2085,12 @@
         <v>40</v>
       </c>
       <c r="E53" s="1">
-        <v>0.81799999999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -2071,12 +2102,12 @@
         <v>40</v>
       </c>
       <c r="E54" s="1">
-        <v>0.78900000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -2088,12 +2119,12 @@
         <v>40</v>
       </c>
       <c r="E55" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -2105,12 +2136,12 @@
         <v>40</v>
       </c>
       <c r="E56" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -2122,12 +2153,12 @@
         <v>40</v>
       </c>
       <c r="E57" s="1">
-        <v>0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -2139,12 +2170,12 @@
         <v>40</v>
       </c>
       <c r="E58" s="1">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -2156,12 +2187,12 @@
         <v>40</v>
       </c>
       <c r="E59" s="1">
-        <v>0.88800000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
@@ -2173,24 +2204,12 @@
         <v>40</v>
       </c>
       <c r="E60" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="F60">
-        <v>2699</v>
-      </c>
-      <c r="G60">
-        <v>410</v>
-      </c>
-      <c r="H60">
-        <v>184</v>
-      </c>
-      <c r="I60">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -2202,12 +2221,24 @@
         <v>40</v>
       </c>
       <c r="E61" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F61">
+        <v>2699</v>
+      </c>
+      <c r="G61">
+        <v>410</v>
+      </c>
+      <c r="H61">
+        <v>184</v>
+      </c>
+      <c r="I61">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -2219,12 +2250,12 @@
         <v>40</v>
       </c>
       <c r="E62" s="1">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -2236,32 +2267,32 @@
         <v>40</v>
       </c>
       <c r="E63" s="1">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="1">
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>15</v>
-      </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>18</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -2273,12 +2304,12 @@
         <v>42</v>
       </c>
       <c r="E66" s="1">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -2290,12 +2321,12 @@
         <v>42</v>
       </c>
       <c r="E67" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -2307,12 +2338,12 @@
         <v>42</v>
       </c>
       <c r="E68" s="1">
-        <v>0.74299999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -2324,12 +2355,12 @@
         <v>42</v>
       </c>
       <c r="E69" s="1">
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -2341,12 +2372,12 @@
         <v>42</v>
       </c>
       <c r="E70" s="1">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -2358,12 +2389,12 @@
         <v>42</v>
       </c>
       <c r="E71" s="1">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -2375,12 +2406,12 @@
         <v>42</v>
       </c>
       <c r="E72" s="1">
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
@@ -2392,24 +2423,12 @@
         <v>42</v>
       </c>
       <c r="E73" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="F73">
-        <v>2007</v>
-      </c>
-      <c r="G73">
-        <v>196</v>
-      </c>
-      <c r="H73">
-        <v>107</v>
-      </c>
-      <c r="I73">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -2421,12 +2440,24 @@
         <v>42</v>
       </c>
       <c r="E74" s="1">
-        <v>0.80900000000000005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F74">
+        <v>2007</v>
+      </c>
+      <c r="G74">
+        <v>196</v>
+      </c>
+      <c r="H74">
+        <v>107</v>
+      </c>
+      <c r="I74">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -2438,12 +2469,12 @@
         <v>42</v>
       </c>
       <c r="E75" s="1">
-        <v>0.90300000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -2455,49 +2486,61 @@
         <v>42</v>
       </c>
       <c r="E76" s="1">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="1">
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F78">
+        <v>1990</v>
+      </c>
+      <c r="G78">
+        <v>195</v>
+      </c>
+      <c r="H78">
+        <v>124</v>
+      </c>
+      <c r="I78">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>15</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0.83699999999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>19</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -2509,12 +2552,12 @@
         <v>44</v>
       </c>
       <c r="E80" s="1">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
@@ -2526,12 +2569,12 @@
         <v>44</v>
       </c>
       <c r="E81" s="1">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
@@ -2543,12 +2586,12 @@
         <v>44</v>
       </c>
       <c r="E82" s="1">
-        <v>0.85099999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -2560,24 +2603,12 @@
         <v>44</v>
       </c>
       <c r="E83" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F83">
-        <v>2625</v>
-      </c>
-      <c r="G83">
-        <v>377</v>
-      </c>
-      <c r="H83">
-        <v>258</v>
-      </c>
-      <c r="I83">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -2589,12 +2620,12 @@
         <v>44</v>
       </c>
       <c r="E84" s="1">
-        <v>0.70299999999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -2606,12 +2637,24 @@
         <v>44</v>
       </c>
       <c r="E85" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.89</v>
+      </c>
+      <c r="F85">
+        <v>2625</v>
+      </c>
+      <c r="G85">
+        <v>377</v>
+      </c>
+      <c r="H85">
+        <v>258</v>
+      </c>
+      <c r="I85">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -2623,12 +2666,12 @@
         <v>44</v>
       </c>
       <c r="E86" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -2640,12 +2683,12 @@
         <v>44</v>
       </c>
       <c r="E87" s="1">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -2657,12 +2700,12 @@
         <v>44</v>
       </c>
       <c r="E88" s="1">
-        <v>0.754</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
@@ -2674,49 +2717,49 @@
         <v>44</v>
       </c>
       <c r="E89" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="1">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>45</v>
-      </c>
-      <c r="D92" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>19</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -2728,12 +2771,12 @@
         <v>46</v>
       </c>
       <c r="E93" s="1">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
@@ -2745,12 +2788,12 @@
         <v>46</v>
       </c>
       <c r="E94" s="1">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -2762,12 +2805,12 @@
         <v>46</v>
       </c>
       <c r="E95" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
@@ -2779,24 +2822,12 @@
         <v>46</v>
       </c>
       <c r="E96" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="F96">
-        <v>1993</v>
-      </c>
-      <c r="G96">
-        <v>220</v>
-      </c>
-      <c r="H96">
-        <v>121</v>
-      </c>
-      <c r="I96">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -2808,12 +2839,12 @@
         <v>46</v>
       </c>
       <c r="E97" s="1">
-        <v>0.71699999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
@@ -2825,12 +2856,24 @@
         <v>46</v>
       </c>
       <c r="E98" s="1">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F98">
+        <v>1993</v>
+      </c>
+      <c r="G98">
+        <v>220</v>
+      </c>
+      <c r="H98">
+        <v>121</v>
+      </c>
+      <c r="I98">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
@@ -2842,12 +2885,12 @@
         <v>46</v>
       </c>
       <c r="E99" s="1">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -2859,12 +2902,12 @@
         <v>46</v>
       </c>
       <c r="E100" s="1">
-        <v>0.76600000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -2876,12 +2919,12 @@
         <v>46</v>
       </c>
       <c r="E101" s="1">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -2893,66 +2936,78 @@
         <v>46</v>
       </c>
       <c r="E102" s="1">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="1">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F105">
+        <v>1926</v>
+      </c>
+      <c r="G105">
+        <v>1015</v>
+      </c>
+      <c r="H105">
+        <v>188</v>
+      </c>
+      <c r="I105">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>15</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>47</v>
-      </c>
-      <c r="D104" t="s">
-        <v>48</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>18</v>
-      </c>
-      <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" t="s">
-        <v>48</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
-        <v>47</v>
-      </c>
-      <c r="D106" t="s">
-        <v>48</v>
-      </c>
-      <c r="E106" s="1">
-        <v>0.79400000000000004</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>20</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
@@ -2964,12 +3019,12 @@
         <v>48</v>
       </c>
       <c r="E107" s="1">
-        <v>0.72699999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
@@ -2981,12 +3036,12 @@
         <v>48</v>
       </c>
       <c r="E108" s="1">
-        <v>0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
@@ -2998,24 +3053,12 @@
         <v>48</v>
       </c>
       <c r="E109" s="1">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="F109">
-        <v>2576</v>
-      </c>
-      <c r="G109">
-        <v>485</v>
-      </c>
-      <c r="H109">
-        <v>307</v>
-      </c>
-      <c r="I109">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
@@ -3027,12 +3070,12 @@
         <v>48</v>
       </c>
       <c r="E110" s="1">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
@@ -3044,12 +3087,12 @@
         <v>48</v>
       </c>
       <c r="E111" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
@@ -3061,12 +3104,24 @@
         <v>48</v>
       </c>
       <c r="E112" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F112">
+        <v>2576</v>
+      </c>
+      <c r="G112">
+        <v>485</v>
+      </c>
+      <c r="H112">
+        <v>307</v>
+      </c>
+      <c r="I112">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -3078,12 +3133,12 @@
         <v>48</v>
       </c>
       <c r="E113" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -3095,12 +3150,12 @@
         <v>48</v>
       </c>
       <c r="E114" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -3112,66 +3167,66 @@
         <v>48</v>
       </c>
       <c r="E115" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="1">
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>15</v>
-      </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>18</v>
-      </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" t="s">
-        <v>50</v>
-      </c>
-      <c r="E118" s="1">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" t="s">
-        <v>50</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>20</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -3183,12 +3238,12 @@
         <v>50</v>
       </c>
       <c r="E120" s="1">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -3200,12 +3255,12 @@
         <v>50</v>
       </c>
       <c r="E121" s="1">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -3217,12 +3272,12 @@
         <v>50</v>
       </c>
       <c r="E122" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -3234,12 +3289,12 @@
         <v>50</v>
       </c>
       <c r="E123" s="1">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -3251,12 +3306,12 @@
         <v>50</v>
       </c>
       <c r="E124" s="1">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -3268,12 +3323,12 @@
         <v>50</v>
       </c>
       <c r="E125" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
@@ -3285,12 +3340,12 @@
         <v>50</v>
       </c>
       <c r="E126" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
@@ -3302,12 +3357,12 @@
         <v>50</v>
       </c>
       <c r="E127" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -3319,83 +3374,95 @@
         <v>50</v>
       </c>
       <c r="E128" s="1">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>36</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" t="s">
+        <v>50</v>
+      </c>
+      <c r="E131" s="1">
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" t="s">
+        <v>50</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F132">
+        <v>1863</v>
+      </c>
+      <c r="G132">
+        <v>703</v>
+      </c>
+      <c r="H132">
+        <v>251</v>
+      </c>
+      <c r="I132">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>15</v>
-      </c>
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>51</v>
-      </c>
-      <c r="D130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E130" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" t="s">
-        <v>51</v>
-      </c>
-      <c r="D131" t="s">
-        <v>52</v>
-      </c>
-      <c r="E131" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>19</v>
-      </c>
-      <c r="B132" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" t="s">
-        <v>51</v>
-      </c>
-      <c r="D132" t="s">
-        <v>52</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" t="s">
-        <v>52</v>
-      </c>
-      <c r="E133" s="1">
-        <v>0.72099999999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>28</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
@@ -3407,12 +3474,12 @@
         <v>52</v>
       </c>
       <c r="E134" s="1">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
@@ -3424,12 +3491,12 @@
         <v>52</v>
       </c>
       <c r="E135" s="1">
-        <v>0.85299999999999998</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
@@ -3441,12 +3508,12 @@
         <v>52</v>
       </c>
       <c r="E136" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
@@ -3458,12 +3525,12 @@
         <v>52</v>
       </c>
       <c r="E137" s="1">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
@@ -3475,24 +3542,12 @@
         <v>52</v>
       </c>
       <c r="E138" s="1">
-        <v>0.874</v>
-      </c>
-      <c r="F138">
-        <v>1917</v>
-      </c>
-      <c r="G138">
-        <v>335</v>
-      </c>
-      <c r="H138">
-        <v>197</v>
-      </c>
-      <c r="I138">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
@@ -3504,12 +3559,12 @@
         <v>52</v>
       </c>
       <c r="E139" s="1">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
@@ -3521,12 +3576,12 @@
         <v>52</v>
       </c>
       <c r="E140" s="1">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
@@ -3538,100 +3593,124 @@
         <v>52</v>
       </c>
       <c r="E141" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.874</v>
+      </c>
+      <c r="F142">
+        <v>1917</v>
+      </c>
+      <c r="G142">
+        <v>335</v>
+      </c>
+      <c r="H142">
+        <v>197</v>
+      </c>
+      <c r="I142">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>35</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" t="s">
+        <v>52</v>
+      </c>
+      <c r="E145" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>51</v>
+      </c>
+      <c r="D146" t="s">
+        <v>52</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F146">
+        <v>1821</v>
+      </c>
+      <c r="G146">
+        <v>659</v>
+      </c>
+      <c r="H146">
+        <v>293</v>
+      </c>
+      <c r="I146">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>15</v>
-      </c>
-      <c r="B143" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" t="s">
-        <v>53</v>
-      </c>
-      <c r="D143" t="s">
-        <v>54</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144" t="s">
-        <v>53</v>
-      </c>
-      <c r="D144" t="s">
-        <v>54</v>
-      </c>
-      <c r="E144" s="1">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>19</v>
-      </c>
-      <c r="B145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" t="s">
-        <v>53</v>
-      </c>
-      <c r="D145" t="s">
-        <v>54</v>
-      </c>
-      <c r="E145" s="1">
-        <v>0.78900000000000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" t="s">
-        <v>53</v>
-      </c>
-      <c r="D146" t="s">
-        <v>54</v>
-      </c>
-      <c r="E146" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>28</v>
-      </c>
-      <c r="B147" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" t="s">
-        <v>53</v>
-      </c>
-      <c r="D147" t="s">
-        <v>54</v>
-      </c>
-      <c r="E147" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>31</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -3643,12 +3722,12 @@
         <v>54</v>
       </c>
       <c r="E148" s="1">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -3660,12 +3739,12 @@
         <v>54</v>
       </c>
       <c r="E149" s="1">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
@@ -3677,12 +3756,12 @@
         <v>54</v>
       </c>
       <c r="E150" s="1">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
@@ -3694,12 +3773,12 @@
         <v>54</v>
       </c>
       <c r="E151" s="1">
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
@@ -3711,12 +3790,12 @@
         <v>54</v>
       </c>
       <c r="E152" s="1">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
@@ -3728,24 +3807,12 @@
         <v>54</v>
       </c>
       <c r="E153" s="1">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="F153">
-        <v>2706</v>
-      </c>
-      <c r="G153">
-        <v>698</v>
-      </c>
-      <c r="H153">
-        <v>177</v>
-      </c>
-      <c r="I153">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
@@ -3757,97 +3824,109 @@
         <v>54</v>
       </c>
       <c r="E154" s="1">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" t="s">
+        <v>54</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>53</v>
+      </c>
+      <c r="D156" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" t="s">
+        <v>54</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" t="s">
+        <v>54</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F158">
+        <v>2706</v>
+      </c>
+      <c r="G158">
+        <v>698</v>
+      </c>
+      <c r="H158">
+        <v>177</v>
+      </c>
+      <c r="I158">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>15</v>
-      </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" t="s">
-        <v>69</v>
-      </c>
-      <c r="D159" t="s">
-        <v>71</v>
-      </c>
-      <c r="E159" s="3">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" t="s">
-        <v>69</v>
-      </c>
-      <c r="D160" t="s">
-        <v>71</v>
-      </c>
-      <c r="E160" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161" t="s">
-        <v>16</v>
-      </c>
-      <c r="C161" t="s">
-        <v>69</v>
-      </c>
-      <c r="D161" t="s">
-        <v>71</v>
-      </c>
-      <c r="E161" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" t="s">
-        <v>16</v>
-      </c>
-      <c r="C162" t="s">
-        <v>69</v>
-      </c>
-      <c r="D162" t="s">
-        <v>71</v>
-      </c>
-      <c r="E162" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>28</v>
-      </c>
-      <c r="B163" t="s">
-        <v>16</v>
-      </c>
-      <c r="C163" t="s">
-        <v>69</v>
-      </c>
-      <c r="D163" t="s">
-        <v>71</v>
-      </c>
-      <c r="E163" s="3">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>31</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
@@ -3859,12 +3938,12 @@
         <v>71</v>
       </c>
       <c r="E164" s="3">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
@@ -3876,12 +3955,12 @@
         <v>71</v>
       </c>
       <c r="E165" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
@@ -3893,12 +3972,12 @@
         <v>71</v>
       </c>
       <c r="E166" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
@@ -3910,12 +3989,12 @@
         <v>71</v>
       </c>
       <c r="E167" s="3">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
@@ -3927,12 +4006,12 @@
         <v>71</v>
       </c>
       <c r="E168" s="3">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
@@ -3944,12 +4023,12 @@
         <v>71</v>
       </c>
       <c r="E169" s="3">
-        <v>0.88200000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
@@ -3961,12 +4040,12 @@
         <v>71</v>
       </c>
       <c r="E170" s="3">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
@@ -3978,97 +4057,97 @@
         <v>71</v>
       </c>
       <c r="E171" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>34</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>69</v>
+      </c>
+      <c r="D172" t="s">
+        <v>71</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>69</v>
+      </c>
+      <c r="D173" t="s">
+        <v>71</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" t="s">
+        <v>71</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>36</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
+        <v>69</v>
+      </c>
+      <c r="D175" t="s">
+        <v>71</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>70</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>69</v>
+      </c>
+      <c r="D176" t="s">
+        <v>71</v>
+      </c>
+      <c r="E176" s="3">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>15</v>
-      </c>
-      <c r="B175" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" t="s">
-        <v>73</v>
-      </c>
-      <c r="D175" t="s">
-        <v>72</v>
-      </c>
-      <c r="E175" s="1">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>18</v>
-      </c>
-      <c r="B176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" t="s">
-        <v>73</v>
-      </c>
-      <c r="D176" t="s">
-        <v>72</v>
-      </c>
-      <c r="E176" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B177" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" t="s">
-        <v>73</v>
-      </c>
-      <c r="D177" t="s">
-        <v>72</v>
-      </c>
-      <c r="E177" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>20</v>
-      </c>
-      <c r="B178" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" t="s">
-        <v>73</v>
-      </c>
-      <c r="D178" t="s">
-        <v>72</v>
-      </c>
-      <c r="E178" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>28</v>
-      </c>
-      <c r="B179" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" t="s">
-        <v>73</v>
-      </c>
-      <c r="D179" t="s">
-        <v>72</v>
-      </c>
-      <c r="E179" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>31</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
@@ -4080,12 +4159,12 @@
         <v>72</v>
       </c>
       <c r="E180" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
@@ -4097,12 +4176,12 @@
         <v>72</v>
       </c>
       <c r="E181" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
@@ -4117,9 +4196,9 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
@@ -4131,12 +4210,12 @@
         <v>72</v>
       </c>
       <c r="E183" s="1">
-        <v>0.96599999999999997</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
@@ -4148,12 +4227,12 @@
         <v>72</v>
       </c>
       <c r="E184" s="1">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
@@ -4165,12 +4244,12 @@
         <v>72</v>
       </c>
       <c r="E185" s="1">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
@@ -4182,12 +4261,12 @@
         <v>72</v>
       </c>
       <c r="E186" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -4199,82 +4278,97 @@
         <v>72</v>
       </c>
       <c r="E187" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>73</v>
+      </c>
+      <c r="D188" t="s">
+        <v>72</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>73</v>
+      </c>
+      <c r="D189" t="s">
+        <v>72</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>73</v>
+      </c>
+      <c r="D190" t="s">
+        <v>72</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
+        <v>73</v>
+      </c>
+      <c r="D191" t="s">
+        <v>72</v>
+      </c>
+      <c r="E191" s="1">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
+        <v>73</v>
+      </c>
+      <c r="D192" t="s">
+        <v>72</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>15</v>
-      </c>
-      <c r="B189" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189" t="s">
-        <v>74</v>
-      </c>
-      <c r="E189" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B190" t="s">
-        <v>16</v>
-      </c>
-      <c r="C190" t="s">
-        <v>74</v>
-      </c>
-      <c r="E190" s="1">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>19</v>
-      </c>
-      <c r="B191" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" t="s">
-        <v>74</v>
-      </c>
-      <c r="E191" s="1">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>20</v>
-      </c>
-      <c r="B192" t="s">
-        <v>16</v>
-      </c>
-      <c r="C192" t="s">
-        <v>74</v>
-      </c>
-      <c r="E192" s="1">
-        <v>0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>28</v>
-      </c>
-      <c r="B193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" t="s">
-        <v>74</v>
-      </c>
-      <c r="E193" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>31</v>
       </c>
       <c r="B194" t="s">
         <v>16</v>
@@ -4283,12 +4377,12 @@
         <v>74</v>
       </c>
       <c r="E194" s="1">
-        <v>0.85599999999999998</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
@@ -4297,12 +4391,12 @@
         <v>74</v>
       </c>
       <c r="E195" s="1">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
@@ -4311,12 +4405,12 @@
         <v>74</v>
       </c>
       <c r="E196" s="1">
-        <v>0.754</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
         <v>16</v>
@@ -4325,12 +4419,12 @@
         <v>74</v>
       </c>
       <c r="E197" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B198" t="s">
         <v>16</v>
@@ -4339,12 +4433,12 @@
         <v>74</v>
       </c>
       <c r="E198" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
@@ -4353,12 +4447,12 @@
         <v>74</v>
       </c>
       <c r="E199" s="1">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
@@ -4367,12 +4461,12 @@
         <v>74</v>
       </c>
       <c r="E200" s="1">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
@@ -4381,97 +4475,82 @@
         <v>74</v>
       </c>
       <c r="E201" s="1">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>34</v>
+      </c>
+      <c r="B202" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" t="s">
+        <v>74</v>
+      </c>
+      <c r="E202" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C203" t="s">
+        <v>74</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>35</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" t="s">
+        <v>74</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>36</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" t="s">
+        <v>74</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>75</v>
+      </c>
+      <c r="B206" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" t="s">
+        <v>74</v>
+      </c>
+      <c r="E206" s="1">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>15</v>
-      </c>
-      <c r="B203" t="s">
-        <v>16</v>
-      </c>
-      <c r="C203" t="s">
-        <v>76</v>
-      </c>
-      <c r="D203" t="s">
-        <v>77</v>
-      </c>
-      <c r="E203" s="3">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>18</v>
-      </c>
-      <c r="B204" t="s">
-        <v>16</v>
-      </c>
-      <c r="C204" t="s">
-        <v>76</v>
-      </c>
-      <c r="D204" t="s">
-        <v>77</v>
-      </c>
-      <c r="E204" s="3">
-        <v>0.755</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" t="s">
-        <v>16</v>
-      </c>
-      <c r="C205" t="s">
-        <v>76</v>
-      </c>
-      <c r="D205" t="s">
-        <v>77</v>
-      </c>
-      <c r="E205" s="3">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>20</v>
-      </c>
-      <c r="B206" t="s">
-        <v>16</v>
-      </c>
-      <c r="C206" t="s">
-        <v>76</v>
-      </c>
-      <c r="D206" t="s">
-        <v>77</v>
-      </c>
-      <c r="E206" s="3">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>28</v>
-      </c>
-      <c r="B207" t="s">
-        <v>16</v>
-      </c>
-      <c r="C207" t="s">
-        <v>76</v>
-      </c>
-      <c r="D207" t="s">
-        <v>77</v>
-      </c>
-      <c r="E207" s="3">
-        <v>0.82099999999999995</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>31</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
@@ -4483,12 +4562,12 @@
         <v>77</v>
       </c>
       <c r="E208" s="3">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B209" t="s">
         <v>16</v>
@@ -4500,12 +4579,12 @@
         <v>77</v>
       </c>
       <c r="E209" s="3">
-        <v>0.83099999999999996</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B210" t="s">
         <v>16</v>
@@ -4517,12 +4596,12 @@
         <v>77</v>
       </c>
       <c r="E210" s="3">
-        <v>0.86399999999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B211" t="s">
         <v>16</v>
@@ -4534,24 +4613,12 @@
         <v>77</v>
       </c>
       <c r="E211" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="F211">
-        <v>1801</v>
-      </c>
-      <c r="G211">
-        <v>217</v>
-      </c>
-      <c r="H211">
-        <v>303</v>
-      </c>
-      <c r="I211">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B212" t="s">
         <v>16</v>
@@ -4563,12 +4630,12 @@
         <v>77</v>
       </c>
       <c r="E212" s="3">
-        <v>0.60499999999999998</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B213" t="s">
         <v>16</v>
@@ -4580,12 +4647,12 @@
         <v>77</v>
       </c>
       <c r="E213" s="3">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
@@ -4597,97 +4664,109 @@
         <v>77</v>
       </c>
       <c r="E214" s="3">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>33</v>
+      </c>
+      <c r="B215" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" t="s">
+        <v>76</v>
+      </c>
+      <c r="D215" t="s">
+        <v>77</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>34</v>
+      </c>
+      <c r="B216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" t="s">
+        <v>76</v>
+      </c>
+      <c r="D216" t="s">
+        <v>77</v>
+      </c>
+      <c r="E216" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="F216">
+        <v>1801</v>
+      </c>
+      <c r="G216">
+        <v>217</v>
+      </c>
+      <c r="H216">
+        <v>303</v>
+      </c>
+      <c r="I216">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" t="s">
+        <v>76</v>
+      </c>
+      <c r="D217" t="s">
+        <v>77</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>35</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" t="s">
+        <v>76</v>
+      </c>
+      <c r="D218" t="s">
+        <v>77</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219" t="s">
+        <v>16</v>
+      </c>
+      <c r="C219" t="s">
+        <v>76</v>
+      </c>
+      <c r="D219" t="s">
+        <v>77</v>
+      </c>
+      <c r="E219" s="3">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>15</v>
-      </c>
-      <c r="B216" t="s">
-        <v>16</v>
-      </c>
-      <c r="C216" t="s">
-        <v>78</v>
-      </c>
-      <c r="D216" t="s">
-        <v>79</v>
-      </c>
-      <c r="E216" s="3">
-        <v>0.80700000000000005</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>18</v>
-      </c>
-      <c r="B217" t="s">
-        <v>16</v>
-      </c>
-      <c r="C217" t="s">
-        <v>78</v>
-      </c>
-      <c r="D217" t="s">
-        <v>79</v>
-      </c>
-      <c r="E217" s="3">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>19</v>
-      </c>
-      <c r="B218" t="s">
-        <v>16</v>
-      </c>
-      <c r="C218" t="s">
-        <v>78</v>
-      </c>
-      <c r="D218" t="s">
-        <v>79</v>
-      </c>
-      <c r="E218" s="3">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>20</v>
-      </c>
-      <c r="B219" t="s">
-        <v>16</v>
-      </c>
-      <c r="C219" t="s">
-        <v>78</v>
-      </c>
-      <c r="D219" t="s">
-        <v>79</v>
-      </c>
-      <c r="E219" s="3">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>28</v>
-      </c>
-      <c r="B220" t="s">
-        <v>16</v>
-      </c>
-      <c r="C220" t="s">
-        <v>78</v>
-      </c>
-      <c r="D220" t="s">
-        <v>79</v>
-      </c>
-      <c r="E220" s="3">
-        <v>0.84799999999999998</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>31</v>
       </c>
       <c r="B221" t="s">
         <v>16</v>
@@ -4699,12 +4778,12 @@
         <v>79</v>
       </c>
       <c r="E221" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B222" t="s">
         <v>16</v>
@@ -4716,12 +4795,12 @@
         <v>79</v>
       </c>
       <c r="E222" s="3">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B223" t="s">
         <v>16</v>
@@ -4733,12 +4812,12 @@
         <v>79</v>
       </c>
       <c r="E223" s="3">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B224" t="s">
         <v>16</v>
@@ -4750,24 +4829,12 @@
         <v>79</v>
       </c>
       <c r="E224" s="3">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="F224">
-        <v>589</v>
-      </c>
-      <c r="G224">
-        <v>62</v>
-      </c>
-      <c r="H224">
-        <v>87</v>
-      </c>
-      <c r="I224">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B225" t="s">
         <v>16</v>
@@ -4779,12 +4846,12 @@
         <v>79</v>
       </c>
       <c r="E225" s="3">
-        <v>0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
@@ -4796,12 +4863,12 @@
         <v>79</v>
       </c>
       <c r="E226" s="3">
-        <v>0.879</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
@@ -4813,97 +4880,109 @@
         <v>79</v>
       </c>
       <c r="E227" s="3">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>33</v>
+      </c>
+      <c r="B228" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" t="s">
+        <v>78</v>
+      </c>
+      <c r="D228" t="s">
+        <v>79</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>34</v>
+      </c>
+      <c r="B229" t="s">
+        <v>16</v>
+      </c>
+      <c r="C229" t="s">
+        <v>78</v>
+      </c>
+      <c r="D229" t="s">
+        <v>79</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F229">
+        <v>589</v>
+      </c>
+      <c r="G229">
+        <v>62</v>
+      </c>
+      <c r="H229">
+        <v>87</v>
+      </c>
+      <c r="I229">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" t="s">
+        <v>78</v>
+      </c>
+      <c r="D230" t="s">
+        <v>79</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>35</v>
+      </c>
+      <c r="B231" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" t="s">
+        <v>78</v>
+      </c>
+      <c r="D231" t="s">
+        <v>79</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>36</v>
+      </c>
+      <c r="B232" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" t="s">
+        <v>78</v>
+      </c>
+      <c r="D232" t="s">
+        <v>79</v>
+      </c>
+      <c r="E232" s="3">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>15</v>
-      </c>
-      <c r="B229" t="s">
-        <v>16</v>
-      </c>
-      <c r="C229" t="s">
-        <v>80</v>
-      </c>
-      <c r="D229" t="s">
-        <v>81</v>
-      </c>
-      <c r="E229" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>18</v>
-      </c>
-      <c r="B230" t="s">
-        <v>16</v>
-      </c>
-      <c r="C230" t="s">
-        <v>80</v>
-      </c>
-      <c r="D230" t="s">
-        <v>81</v>
-      </c>
-      <c r="E230" s="3">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>19</v>
-      </c>
-      <c r="B231" t="s">
-        <v>16</v>
-      </c>
-      <c r="C231" t="s">
-        <v>80</v>
-      </c>
-      <c r="D231" t="s">
-        <v>81</v>
-      </c>
-      <c r="E231" s="3">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>20</v>
-      </c>
-      <c r="B232" t="s">
-        <v>16</v>
-      </c>
-      <c r="C232" t="s">
-        <v>80</v>
-      </c>
-      <c r="D232" t="s">
-        <v>81</v>
-      </c>
-      <c r="E232" s="3">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>28</v>
-      </c>
-      <c r="B233" t="s">
-        <v>16</v>
-      </c>
-      <c r="C233" t="s">
-        <v>80</v>
-      </c>
-      <c r="D233" t="s">
-        <v>81</v>
-      </c>
-      <c r="E233" s="3">
-        <v>0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>31</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
@@ -4915,12 +4994,12 @@
         <v>81</v>
       </c>
       <c r="E234" s="3">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
@@ -4932,12 +5011,12 @@
         <v>81</v>
       </c>
       <c r="E235" s="3">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
@@ -4949,12 +5028,12 @@
         <v>81</v>
       </c>
       <c r="E236" s="3">
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
@@ -4966,24 +5045,12 @@
         <v>81</v>
       </c>
       <c r="E237" s="3">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="F237">
-        <v>294</v>
-      </c>
-      <c r="G237">
-        <v>26</v>
-      </c>
-      <c r="H237">
-        <v>32</v>
-      </c>
-      <c r="I237">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B238" t="s">
         <v>16</v>
@@ -4995,12 +5062,12 @@
         <v>81</v>
       </c>
       <c r="E238" s="3">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B239" t="s">
         <v>16</v>
@@ -5012,12 +5079,12 @@
         <v>81</v>
       </c>
       <c r="E239" s="3">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B240" t="s">
         <v>16</v>
@@ -5029,97 +5096,109 @@
         <v>81</v>
       </c>
       <c r="E240" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>33</v>
+      </c>
+      <c r="B241" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" t="s">
+        <v>80</v>
+      </c>
+      <c r="D241" t="s">
+        <v>81</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>34</v>
+      </c>
+      <c r="B242" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" t="s">
+        <v>80</v>
+      </c>
+      <c r="D242" t="s">
+        <v>81</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F242">
+        <v>294</v>
+      </c>
+      <c r="G242">
+        <v>26</v>
+      </c>
+      <c r="H242">
+        <v>32</v>
+      </c>
+      <c r="I242">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" t="s">
+        <v>80</v>
+      </c>
+      <c r="D243" t="s">
+        <v>81</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>35</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" t="s">
+        <v>80</v>
+      </c>
+      <c r="D244" t="s">
+        <v>81</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>36</v>
+      </c>
+      <c r="B245" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" t="s">
+        <v>80</v>
+      </c>
+      <c r="D245" t="s">
+        <v>81</v>
+      </c>
+      <c r="E245" s="3">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>15</v>
-      </c>
-      <c r="B242" t="s">
-        <v>16</v>
-      </c>
-      <c r="C242" t="s">
-        <v>82</v>
-      </c>
-      <c r="D242" t="s">
-        <v>83</v>
-      </c>
-      <c r="E242" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>18</v>
-      </c>
-      <c r="B243" t="s">
-        <v>16</v>
-      </c>
-      <c r="C243" t="s">
-        <v>82</v>
-      </c>
-      <c r="D243" t="s">
-        <v>83</v>
-      </c>
-      <c r="E243" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>19</v>
-      </c>
-      <c r="B244" t="s">
-        <v>16</v>
-      </c>
-      <c r="C244" t="s">
-        <v>82</v>
-      </c>
-      <c r="D244" t="s">
-        <v>83</v>
-      </c>
-      <c r="E244" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>20</v>
-      </c>
-      <c r="B245" t="s">
-        <v>16</v>
-      </c>
-      <c r="C245" t="s">
-        <v>82</v>
-      </c>
-      <c r="D245" t="s">
-        <v>83</v>
-      </c>
-      <c r="E245" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>28</v>
-      </c>
-      <c r="B246" t="s">
-        <v>16</v>
-      </c>
-      <c r="C246" t="s">
-        <v>82</v>
-      </c>
-      <c r="D246" t="s">
-        <v>83</v>
-      </c>
-      <c r="E246" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>31</v>
       </c>
       <c r="B247" t="s">
         <v>16</v>
@@ -5131,12 +5210,12 @@
         <v>83</v>
       </c>
       <c r="E247" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B248" t="s">
         <v>16</v>
@@ -5148,12 +5227,12 @@
         <v>83</v>
       </c>
       <c r="E248" s="1">
-        <v>0.94910000000000005</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B249" t="s">
         <v>16</v>
@@ -5165,12 +5244,12 @@
         <v>83</v>
       </c>
       <c r="E249" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B250" t="s">
         <v>16</v>
@@ -5182,12 +5261,12 @@
         <v>83</v>
       </c>
       <c r="E250" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B251" t="s">
         <v>16</v>
@@ -5199,12 +5278,12 @@
         <v>83</v>
       </c>
       <c r="E251" s="1">
-        <v>0.83099999999999996</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B252" t="s">
         <v>16</v>
@@ -5216,12 +5295,12 @@
         <v>83</v>
       </c>
       <c r="E252" s="1">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B253" t="s">
         <v>16</v>
@@ -5233,12 +5312,12 @@
         <v>83</v>
       </c>
       <c r="E253" s="1">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B254" t="s">
         <v>16</v>
@@ -5253,9 +5332,9 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B255" t="s">
         <v>16</v>
@@ -5267,6 +5346,91 @@
         <v>83</v>
       </c>
       <c r="E255" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" t="s">
+        <v>82</v>
+      </c>
+      <c r="D256" t="s">
+        <v>83</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>35</v>
+      </c>
+      <c r="B257" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" t="s">
+        <v>82</v>
+      </c>
+      <c r="D257" t="s">
+        <v>83</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" t="s">
+        <v>82</v>
+      </c>
+      <c r="D258" t="s">
+        <v>83</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>70</v>
+      </c>
+      <c r="B259" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" t="s">
+        <v>82</v>
+      </c>
+      <c r="D259" t="s">
+        <v>83</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>84</v>
+      </c>
+      <c r="B260" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" t="s">
+        <v>82</v>
+      </c>
+      <c r="D260" t="s">
+        <v>83</v>
+      </c>
+      <c r="E260" s="1">
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -5277,23 +5441,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.83203125" customWidth="1"/>
+    <col min="2" max="16" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5342,8 +5506,11 @@
       <c r="Q1" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5389,7 +5556,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5433,9 +5600,11 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R3" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -5481,7 +5650,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5525,9 +5694,11 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R5" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5573,7 +5744,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5617,9 +5788,11 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R7" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5665,7 +5838,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5709,9 +5882,11 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5757,7 +5932,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5801,9 +5976,11 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R11" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -5833,7 +6010,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5863,7 +6040,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5903,7 +6080,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -5951,7 +6128,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -5999,7 +6176,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -6047,7 +6224,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -6091,7 +6268,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -6135,7 +6312,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -6179,25 +6356,36 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:P14 N15:P15 B16:P17">
-    <cfRule type="top10" dxfId="2" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="11" rank="3"/>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:M15">
+    <cfRule type="top10" dxfId="3" priority="7" rank="3"/>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6207,7 +6395,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:M15">
+  <conditionalFormatting sqref="B18:M20 Q18:Q20">
+    <cfRule type="top10" dxfId="2" priority="13" rank="3"/>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R9">
     <cfRule type="top10" dxfId="1" priority="3" rank="3"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -6218,9 +6417,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:M20 Q18:Q20">
-    <cfRule type="top10" dxfId="0" priority="9" rank="3"/>
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="R11">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/ProjectDir2/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="460" windowWidth="15980" windowHeight="13380"/>
+    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="90">
   <si>
     <t>ModelType</t>
   </si>
@@ -275,12 +275,27 @@
   </si>
   <si>
     <t>Linear Discriminant Analysis</t>
+  </si>
+  <si>
+    <t>LSTM NN</t>
+  </si>
+  <si>
+    <t>* LSTM NN = long stort term memory neural net (extremely senstive to hyperparameters and initial trainig set selection)</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>*Highly sensitive to hyperparamters and initial training set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -761,13 +776,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -813,23 +829,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <i/>
       </font>
     </dxf>
   </dxfs>
@@ -1142,21 +1146,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1272,10 +1276,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1355,10 +1359,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1426,10 +1430,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1582,10 +1586,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1801,10 +1805,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2020,10 +2024,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2239,10 +2243,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2458,29 +2462,32 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>15</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>18</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -2492,12 +2499,12 @@
         <v>44</v>
       </c>
       <c r="E79" s="1">
-        <v>0.83699999999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -2509,12 +2516,12 @@
         <v>44</v>
       </c>
       <c r="E80" s="1">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
@@ -2526,12 +2533,12 @@
         <v>44</v>
       </c>
       <c r="E81" s="1">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
@@ -2543,12 +2550,12 @@
         <v>44</v>
       </c>
       <c r="E82" s="1">
-        <v>0.85099999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -2560,24 +2567,12 @@
         <v>44</v>
       </c>
       <c r="E83" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="F83">
-        <v>2625</v>
-      </c>
-      <c r="G83">
-        <v>377</v>
-      </c>
-      <c r="H83">
-        <v>258</v>
-      </c>
-      <c r="I83">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -2589,12 +2584,24 @@
         <v>44</v>
       </c>
       <c r="E84" s="1">
-        <v>0.70299999999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.89</v>
+      </c>
+      <c r="F84">
+        <v>2625</v>
+      </c>
+      <c r="G84">
+        <v>377</v>
+      </c>
+      <c r="H84">
+        <v>258</v>
+      </c>
+      <c r="I84">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -2606,12 +2613,12 @@
         <v>44</v>
       </c>
       <c r="E85" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -2623,12 +2630,12 @@
         <v>44</v>
       </c>
       <c r="E86" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
@@ -2640,12 +2647,12 @@
         <v>44</v>
       </c>
       <c r="E87" s="1">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
@@ -2657,12 +2664,12 @@
         <v>44</v>
       </c>
       <c r="E88" s="1">
-        <v>0.754</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
@@ -2674,32 +2681,32 @@
         <v>44</v>
       </c>
       <c r="E89" s="1">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="1">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>18</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
@@ -2711,12 +2718,12 @@
         <v>46</v>
       </c>
       <c r="E92" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -2728,12 +2735,12 @@
         <v>46</v>
       </c>
       <c r="E93" s="1">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
@@ -2745,12 +2752,12 @@
         <v>46</v>
       </c>
       <c r="E94" s="1">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -2762,12 +2769,12 @@
         <v>46</v>
       </c>
       <c r="E95" s="1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
@@ -2779,24 +2786,12 @@
         <v>46</v>
       </c>
       <c r="E96" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="F96">
-        <v>1993</v>
-      </c>
-      <c r="G96">
-        <v>220</v>
-      </c>
-      <c r="H96">
-        <v>121</v>
-      </c>
-      <c r="I96">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -2808,12 +2803,24 @@
         <v>46</v>
       </c>
       <c r="E97" s="1">
-        <v>0.71699999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F97">
+        <v>1993</v>
+      </c>
+      <c r="G97">
+        <v>220</v>
+      </c>
+      <c r="H97">
+        <v>121</v>
+      </c>
+      <c r="I97">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
@@ -2825,12 +2832,12 @@
         <v>46</v>
       </c>
       <c r="E98" s="1">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
@@ -2842,12 +2849,12 @@
         <v>46</v>
       </c>
       <c r="E99" s="1">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -2859,12 +2866,12 @@
         <v>46</v>
       </c>
       <c r="E100" s="1">
-        <v>0.76600000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
@@ -2876,12 +2883,12 @@
         <v>46</v>
       </c>
       <c r="E101" s="1">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -2893,32 +2900,32 @@
         <v>46</v>
       </c>
       <c r="E102" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="1">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>15</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>47</v>
-      </c>
-      <c r="D104" t="s">
-        <v>48</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>18</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -2930,12 +2937,12 @@
         <v>48</v>
       </c>
       <c r="E105" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -2947,12 +2954,12 @@
         <v>48</v>
       </c>
       <c r="E106" s="1">
-        <v>0.79400000000000004</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
@@ -2964,12 +2971,12 @@
         <v>48</v>
       </c>
       <c r="E107" s="1">
-        <v>0.72699999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
@@ -2981,12 +2988,12 @@
         <v>48</v>
       </c>
       <c r="E108" s="1">
-        <v>0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
@@ -2998,24 +3005,12 @@
         <v>48</v>
       </c>
       <c r="E109" s="1">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="F109">
-        <v>2576</v>
-      </c>
-      <c r="G109">
-        <v>485</v>
-      </c>
-      <c r="H109">
-        <v>307</v>
-      </c>
-      <c r="I109">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
@@ -3027,12 +3022,24 @@
         <v>48</v>
       </c>
       <c r="E110" s="1">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F110">
+        <v>2576</v>
+      </c>
+      <c r="G110">
+        <v>485</v>
+      </c>
+      <c r="H110">
+        <v>307</v>
+      </c>
+      <c r="I110">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
@@ -3044,12 +3051,12 @@
         <v>48</v>
       </c>
       <c r="E111" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
@@ -3061,12 +3068,12 @@
         <v>48</v>
       </c>
       <c r="E112" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -3078,12 +3085,12 @@
         <v>48</v>
       </c>
       <c r="E113" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
@@ -3095,12 +3102,12 @@
         <v>48</v>
       </c>
       <c r="E114" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -3112,32 +3119,32 @@
         <v>48</v>
       </c>
       <c r="E115" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="1">
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>15</v>
-      </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0.67800000000000005</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>18</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
@@ -3149,12 +3156,12 @@
         <v>50</v>
       </c>
       <c r="E118" s="1">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
@@ -3166,12 +3173,12 @@
         <v>50</v>
       </c>
       <c r="E119" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -3183,12 +3190,12 @@
         <v>50</v>
       </c>
       <c r="E120" s="1">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -3200,12 +3207,12 @@
         <v>50</v>
       </c>
       <c r="E121" s="1">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -3217,12 +3224,12 @@
         <v>50</v>
       </c>
       <c r="E122" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -3234,12 +3241,12 @@
         <v>50</v>
       </c>
       <c r="E123" s="1">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -3251,12 +3258,12 @@
         <v>50</v>
       </c>
       <c r="E124" s="1">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -3268,12 +3275,12 @@
         <v>50</v>
       </c>
       <c r="E125" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
@@ -3285,12 +3292,12 @@
         <v>50</v>
       </c>
       <c r="E126" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
@@ -3302,12 +3309,12 @@
         <v>50</v>
       </c>
       <c r="E127" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -3319,32 +3326,32 @@
         <v>50</v>
       </c>
       <c r="E128" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" s="1">
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>15</v>
-      </c>
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>51</v>
-      </c>
-      <c r="D130" t="s">
-        <v>52</v>
-      </c>
-      <c r="E130" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>18</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -3356,12 +3363,12 @@
         <v>52</v>
       </c>
       <c r="E131" s="1">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
@@ -3373,12 +3380,12 @@
         <v>52</v>
       </c>
       <c r="E132" s="1">
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -3390,12 +3397,12 @@
         <v>52</v>
       </c>
       <c r="E133" s="1">
-        <v>0.72099999999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
@@ -3407,12 +3414,12 @@
         <v>52</v>
       </c>
       <c r="E134" s="1">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
@@ -3424,12 +3431,12 @@
         <v>52</v>
       </c>
       <c r="E135" s="1">
-        <v>0.85299999999999998</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
@@ -3441,12 +3448,12 @@
         <v>52</v>
       </c>
       <c r="E136" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
@@ -3458,12 +3465,12 @@
         <v>52</v>
       </c>
       <c r="E137" s="1">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
@@ -3475,24 +3482,12 @@
         <v>52</v>
       </c>
       <c r="E138" s="1">
-        <v>0.874</v>
-      </c>
-      <c r="F138">
-        <v>1917</v>
-      </c>
-      <c r="G138">
-        <v>335</v>
-      </c>
-      <c r="H138">
-        <v>197</v>
-      </c>
-      <c r="I138">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
@@ -3504,12 +3499,24 @@
         <v>52</v>
       </c>
       <c r="E139" s="1">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.874</v>
+      </c>
+      <c r="F139">
+        <v>1917</v>
+      </c>
+      <c r="G139">
+        <v>335</v>
+      </c>
+      <c r="H139">
+        <v>197</v>
+      </c>
+      <c r="I139">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
@@ -3521,12 +3528,12 @@
         <v>52</v>
       </c>
       <c r="E140" s="1">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
@@ -3538,32 +3545,32 @@
         <v>52</v>
       </c>
       <c r="E141" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>15</v>
-      </c>
-      <c r="B143" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" t="s">
-        <v>53</v>
-      </c>
-      <c r="D143" t="s">
-        <v>54</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>18</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
@@ -3575,12 +3582,12 @@
         <v>54</v>
       </c>
       <c r="E144" s="1">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
@@ -3592,12 +3599,12 @@
         <v>54</v>
       </c>
       <c r="E145" s="1">
-        <v>0.78900000000000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
@@ -3609,12 +3616,12 @@
         <v>54</v>
       </c>
       <c r="E146" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
@@ -3626,12 +3633,12 @@
         <v>54</v>
       </c>
       <c r="E147" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -3643,12 +3650,12 @@
         <v>54</v>
       </c>
       <c r="E148" s="1">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
@@ -3660,12 +3667,12 @@
         <v>54</v>
       </c>
       <c r="E149" s="1">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
@@ -3677,12 +3684,12 @@
         <v>54</v>
       </c>
       <c r="E150" s="1">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
@@ -3694,12 +3701,12 @@
         <v>54</v>
       </c>
       <c r="E151" s="1">
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
@@ -3711,12 +3718,12 @@
         <v>54</v>
       </c>
       <c r="E152" s="1">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
@@ -3728,24 +3735,12 @@
         <v>54</v>
       </c>
       <c r="E153" s="1">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="F153">
-        <v>2706</v>
-      </c>
-      <c r="G153">
-        <v>698</v>
-      </c>
-      <c r="H153">
-        <v>177</v>
-      </c>
-      <c r="I153">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
@@ -3757,12 +3752,75 @@
         <v>54</v>
       </c>
       <c r="E154" s="1">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F154">
+        <v>2706</v>
+      </c>
+      <c r="G154">
+        <v>698</v>
+      </c>
+      <c r="H154">
+        <v>177</v>
+      </c>
+      <c r="I154">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" t="s">
+        <v>54</v>
+      </c>
+      <c r="E155" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" t="s">
+        <v>71</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>69</v>
+      </c>
+      <c r="D158" t="s">
+        <v>71</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
@@ -3774,12 +3832,12 @@
         <v>71</v>
       </c>
       <c r="E159" s="3">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
@@ -3794,9 +3852,9 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
@@ -3808,12 +3866,12 @@
         <v>71</v>
       </c>
       <c r="E161" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
@@ -3825,12 +3883,12 @@
         <v>71</v>
       </c>
       <c r="E162" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
@@ -3842,12 +3900,12 @@
         <v>71</v>
       </c>
       <c r="E163" s="3">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
@@ -3859,12 +3917,12 @@
         <v>71</v>
       </c>
       <c r="E164" s="3">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
@@ -3876,12 +3934,12 @@
         <v>71</v>
       </c>
       <c r="E165" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
@@ -3893,12 +3951,12 @@
         <v>71</v>
       </c>
       <c r="E166" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
@@ -3910,12 +3968,12 @@
         <v>71</v>
       </c>
       <c r="E167" s="3">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
@@ -3927,12 +3985,12 @@
         <v>71</v>
       </c>
       <c r="E168" s="3">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
@@ -3944,46 +4002,80 @@
         <v>71</v>
       </c>
       <c r="E169" s="3">
-        <v>0.88200000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>36</v>
-      </c>
-      <c r="B170" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" t="s">
-        <v>69</v>
-      </c>
-      <c r="D170" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="3">
-        <v>0.71199999999999997</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D171" t="s">
-        <v>71</v>
-      </c>
-      <c r="E171" s="3">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>73</v>
+      </c>
+      <c r="D172" t="s">
+        <v>72</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>73</v>
+      </c>
+      <c r="D173" t="s">
+        <v>72</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>73</v>
+      </c>
+      <c r="D174" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B175" t="s">
         <v>16</v>
@@ -3995,12 +4087,12 @@
         <v>72</v>
       </c>
       <c r="E175" s="1">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B176" t="s">
         <v>16</v>
@@ -4012,12 +4104,12 @@
         <v>72</v>
       </c>
       <c r="E176" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
@@ -4029,12 +4121,12 @@
         <v>72</v>
       </c>
       <c r="E177" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
@@ -4049,9 +4141,9 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
         <v>16</v>
@@ -4063,12 +4155,12 @@
         <v>72</v>
       </c>
       <c r="E179" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
@@ -4080,12 +4172,12 @@
         <v>72</v>
       </c>
       <c r="E180" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
@@ -4097,12 +4189,12 @@
         <v>72</v>
       </c>
       <c r="E181" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
@@ -4114,12 +4206,12 @@
         <v>72</v>
       </c>
       <c r="E182" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
@@ -4131,80 +4223,68 @@
         <v>72</v>
       </c>
       <c r="E183" s="1">
-        <v>0.96599999999999997</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" t="s">
-        <v>73</v>
-      </c>
-      <c r="D184" t="s">
-        <v>72</v>
-      </c>
-      <c r="E184" s="1">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>73</v>
-      </c>
-      <c r="D185" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E185" s="1">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>73</v>
-      </c>
-      <c r="D186" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E186" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>73</v>
-      </c>
-      <c r="D187" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E187" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>20</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>74</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -4213,12 +4293,12 @@
         <v>74</v>
       </c>
       <c r="E189" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -4227,12 +4307,12 @@
         <v>74</v>
       </c>
       <c r="E190" s="1">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B191" t="s">
         <v>16</v>
@@ -4241,12 +4321,12 @@
         <v>74</v>
       </c>
       <c r="E191" s="1">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
         <v>16</v>
@@ -4255,12 +4335,12 @@
         <v>74</v>
       </c>
       <c r="E192" s="1">
-        <v>0.82199999999999995</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
@@ -4269,12 +4349,12 @@
         <v>74</v>
       </c>
       <c r="E193" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B194" t="s">
         <v>16</v>
@@ -4283,12 +4363,12 @@
         <v>74</v>
       </c>
       <c r="E194" s="1">
-        <v>0.85599999999999998</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
@@ -4297,12 +4377,12 @@
         <v>74</v>
       </c>
       <c r="E195" s="1">
-        <v>0.80500000000000005</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
@@ -4311,12 +4391,12 @@
         <v>74</v>
       </c>
       <c r="E196" s="1">
-        <v>0.754</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B197" t="s">
         <v>16</v>
@@ -4325,68 +4405,80 @@
         <v>74</v>
       </c>
       <c r="E197" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>23</v>
-      </c>
-      <c r="B198" t="s">
-        <v>16</v>
-      </c>
-      <c r="C198" t="s">
-        <v>74</v>
-      </c>
-      <c r="E198" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>74</v>
-      </c>
-      <c r="E199" s="1">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="D199" t="s">
+        <v>77</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>74</v>
-      </c>
-      <c r="E200" s="1">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="D200" t="s">
+        <v>77</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>74</v>
-      </c>
-      <c r="E201" s="1">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="D201" t="s">
+        <v>77</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" t="s">
+        <v>76</v>
+      </c>
+      <c r="D202" t="s">
+        <v>77</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
@@ -4398,12 +4490,12 @@
         <v>77</v>
       </c>
       <c r="E203" s="3">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B204" t="s">
         <v>16</v>
@@ -4415,12 +4507,12 @@
         <v>77</v>
       </c>
       <c r="E204" s="3">
-        <v>0.755</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
@@ -4432,12 +4524,12 @@
         <v>77</v>
       </c>
       <c r="E205" s="3">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B206" t="s">
         <v>16</v>
@@ -4449,12 +4541,12 @@
         <v>77</v>
       </c>
       <c r="E206" s="3">
-        <v>0.73299999999999998</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
@@ -4466,12 +4558,24 @@
         <v>77</v>
       </c>
       <c r="E207" s="3">
-        <v>0.82099999999999995</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.871</v>
+      </c>
+      <c r="F207">
+        <v>1801</v>
+      </c>
+      <c r="G207">
+        <v>217</v>
+      </c>
+      <c r="H207">
+        <v>303</v>
+      </c>
+      <c r="I207">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
@@ -4483,12 +4587,12 @@
         <v>77</v>
       </c>
       <c r="E208" s="3">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B209" t="s">
         <v>16</v>
@@ -4500,12 +4604,12 @@
         <v>77</v>
       </c>
       <c r="E209" s="3">
-        <v>0.83099999999999996</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B210" t="s">
         <v>16</v>
@@ -4517,92 +4621,80 @@
         <v>77</v>
       </c>
       <c r="E210" s="3">
-        <v>0.86399999999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>34</v>
-      </c>
-      <c r="B211" t="s">
-        <v>16</v>
-      </c>
-      <c r="C211" t="s">
-        <v>76</v>
-      </c>
-      <c r="D211" t="s">
-        <v>77</v>
-      </c>
-      <c r="E211" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="F211">
-        <v>1801</v>
-      </c>
-      <c r="G211">
-        <v>217</v>
-      </c>
-      <c r="H211">
-        <v>303</v>
-      </c>
-      <c r="I211">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B212" t="s">
         <v>16</v>
       </c>
       <c r="C212" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D212" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E212" s="3">
-        <v>0.60499999999999998</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B213" t="s">
         <v>16</v>
       </c>
       <c r="C213" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D213" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E213" s="3">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D214" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E214" s="3">
-        <v>0.79900000000000004</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" t="s">
+        <v>78</v>
+      </c>
+      <c r="D215" t="s">
+        <v>79</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B216" t="s">
         <v>16</v>
@@ -4614,12 +4706,12 @@
         <v>79</v>
       </c>
       <c r="E216" s="3">
-        <v>0.80700000000000005</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B217" t="s">
         <v>16</v>
@@ -4631,12 +4723,12 @@
         <v>79</v>
       </c>
       <c r="E217" s="3">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B218" t="s">
         <v>16</v>
@@ -4648,12 +4740,12 @@
         <v>79</v>
       </c>
       <c r="E218" s="3">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B219" t="s">
         <v>16</v>
@@ -4665,12 +4757,12 @@
         <v>79</v>
       </c>
       <c r="E219" s="3">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B220" t="s">
         <v>16</v>
@@ -4682,12 +4774,24 @@
         <v>79</v>
       </c>
       <c r="E220" s="3">
-        <v>0.84799999999999998</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F220">
+        <v>589</v>
+      </c>
+      <c r="G220">
+        <v>62</v>
+      </c>
+      <c r="H220">
+        <v>87</v>
+      </c>
+      <c r="I220">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B221" t="s">
         <v>16</v>
@@ -4699,12 +4803,12 @@
         <v>79</v>
       </c>
       <c r="E221" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B222" t="s">
         <v>16</v>
@@ -4716,12 +4820,12 @@
         <v>79</v>
       </c>
       <c r="E222" s="3">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B223" t="s">
         <v>16</v>
@@ -4733,92 +4837,80 @@
         <v>79</v>
       </c>
       <c r="E223" s="3">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>34</v>
-      </c>
-      <c r="B224" t="s">
-        <v>16</v>
-      </c>
-      <c r="C224" t="s">
-        <v>78</v>
-      </c>
-      <c r="D224" t="s">
-        <v>79</v>
-      </c>
-      <c r="E224" s="3">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="F224">
-        <v>589</v>
-      </c>
-      <c r="G224">
-        <v>62</v>
-      </c>
-      <c r="H224">
-        <v>87</v>
-      </c>
-      <c r="I224">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B225" t="s">
         <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D225" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E225" s="3">
-        <v>0.59099999999999997</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D226" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E226" s="3">
-        <v>0.879</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D227" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E227" s="3">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" t="s">
+        <v>16</v>
+      </c>
+      <c r="C228" t="s">
+        <v>80</v>
+      </c>
+      <c r="D228" t="s">
+        <v>81</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B229" t="s">
         <v>16</v>
@@ -4830,12 +4922,12 @@
         <v>81</v>
       </c>
       <c r="E229" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B230" t="s">
         <v>16</v>
@@ -4847,12 +4939,12 @@
         <v>81</v>
       </c>
       <c r="E230" s="3">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B231" t="s">
         <v>16</v>
@@ -4864,12 +4956,12 @@
         <v>81</v>
       </c>
       <c r="E231" s="3">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B232" t="s">
         <v>16</v>
@@ -4881,12 +4973,12 @@
         <v>81</v>
       </c>
       <c r="E232" s="3">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B233" t="s">
         <v>16</v>
@@ -4898,12 +4990,24 @@
         <v>81</v>
       </c>
       <c r="E233" s="3">
-        <v>0.82299999999999995</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F233">
+        <v>294</v>
+      </c>
+      <c r="G233">
+        <v>26</v>
+      </c>
+      <c r="H233">
+        <v>32</v>
+      </c>
+      <c r="I233">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
@@ -4915,12 +5019,12 @@
         <v>81</v>
       </c>
       <c r="E234" s="3">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
@@ -4932,12 +5036,12 @@
         <v>81</v>
       </c>
       <c r="E235" s="3">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
@@ -4949,92 +5053,80 @@
         <v>81</v>
       </c>
       <c r="E236" s="3">
-        <v>0.89400000000000002</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>34</v>
-      </c>
-      <c r="B237" t="s">
-        <v>16</v>
-      </c>
-      <c r="C237" t="s">
-        <v>80</v>
-      </c>
-      <c r="D237" t="s">
-        <v>81</v>
-      </c>
-      <c r="E237" s="3">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="F237">
-        <v>294</v>
-      </c>
-      <c r="G237">
-        <v>26</v>
-      </c>
-      <c r="H237">
-        <v>32</v>
-      </c>
-      <c r="I237">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B238" t="s">
         <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D238" t="s">
-        <v>81</v>
-      </c>
-      <c r="E238" s="3">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B239" t="s">
         <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D239" t="s">
-        <v>81</v>
-      </c>
-      <c r="E239" s="3">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B240" t="s">
         <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D240" t="s">
-        <v>81</v>
-      </c>
-      <c r="E240" s="3">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" t="s">
+        <v>82</v>
+      </c>
+      <c r="D241" t="s">
+        <v>83</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B242" t="s">
         <v>16</v>
@@ -5046,12 +5138,12 @@
         <v>83</v>
       </c>
       <c r="E242" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B243" t="s">
         <v>16</v>
@@ -5063,12 +5155,12 @@
         <v>83</v>
       </c>
       <c r="E243" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B244" t="s">
         <v>16</v>
@@ -5080,12 +5172,12 @@
         <v>83</v>
       </c>
       <c r="E244" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B245" t="s">
         <v>16</v>
@@ -5097,12 +5189,12 @@
         <v>83</v>
       </c>
       <c r="E245" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B246" t="s">
         <v>16</v>
@@ -5114,12 +5206,12 @@
         <v>83</v>
       </c>
       <c r="E246" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B247" t="s">
         <v>16</v>
@@ -5131,12 +5223,12 @@
         <v>83</v>
       </c>
       <c r="E247" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B248" t="s">
         <v>16</v>
@@ -5148,12 +5240,12 @@
         <v>83</v>
       </c>
       <c r="E248" s="1">
-        <v>0.94910000000000005</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B249" t="s">
         <v>16</v>
@@ -5165,12 +5257,12 @@
         <v>83</v>
       </c>
       <c r="E249" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B250" t="s">
         <v>16</v>
@@ -5185,9 +5277,9 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B251" t="s">
         <v>16</v>
@@ -5199,74 +5291,6 @@
         <v>83</v>
       </c>
       <c r="E251" s="1">
-        <v>0.83099999999999996</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>35</v>
-      </c>
-      <c r="B252" t="s">
-        <v>16</v>
-      </c>
-      <c r="C252" t="s">
-        <v>82</v>
-      </c>
-      <c r="D252" t="s">
-        <v>83</v>
-      </c>
-      <c r="E252" s="1">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>36</v>
-      </c>
-      <c r="B253" t="s">
-        <v>16</v>
-      </c>
-      <c r="C253" t="s">
-        <v>82</v>
-      </c>
-      <c r="D253" t="s">
-        <v>83</v>
-      </c>
-      <c r="E253" s="1">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>70</v>
-      </c>
-      <c r="B254" t="s">
-        <v>16</v>
-      </c>
-      <c r="C254" t="s">
-        <v>82</v>
-      </c>
-      <c r="D254" t="s">
-        <v>83</v>
-      </c>
-      <c r="E254" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>84</v>
-      </c>
-      <c r="B255" t="s">
-        <v>16</v>
-      </c>
-      <c r="C255" t="s">
-        <v>82</v>
-      </c>
-      <c r="D255" t="s">
-        <v>83</v>
-      </c>
-      <c r="E255" s="1">
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -5278,22 +5302,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.83203125" customWidth="1"/>
+    <col min="2" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5337,890 +5361,1121 @@
         <v>26</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>0.83099999999999996</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>0.75600000000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>0.85</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>0.86799999999999999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>0.873</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>0.85699999999999998</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>0.88</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>0.80400000000000005</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0.78300000000000003</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>0.76300000000000001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>0.86299999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <v>0.79</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>0.89500000000000002</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>0.91900000000000004</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>0.88600000000000001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>0.89300000000000002</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.80500000000000005</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>0.78</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.81799999999999995</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0.75600000000000001</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>0.85</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>0.85499999999999998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>0.79</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>0.88800000000000001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>0.89700000000000002</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>0.76300000000000001</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>0.88100000000000001</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.79700000000000004</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0.74299999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>0.85899999999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>0.88300000000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>0.80400000000000005</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>0.90700000000000003</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>0.92800000000000005</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>0.80900000000000005</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>0.90300000000000002</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.79700000000000004</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>0.70699999999999996</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>0.83699999999999997</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0.753</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>0.89</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>0.77500000000000002</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>0.71899999999999997</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>0.754</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>0.72799999999999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>0.875</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>0.77300000000000002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0.875</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>0.71699999999999997</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>0.79700000000000004</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>0.83799999999999997</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>0.71499999999999997</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>0.82</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>0.79400000000000004</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>0.82199999999999995</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>0.86299999999999999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>0.66600000000000004</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>0.76400000000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>0.8</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>0.78</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>0.75600000000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.66800000000000004</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>0.67800000000000005</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>0.84699999999999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>0.89</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <v>0.66500000000000004</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>0.77</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>0.81100000000000005</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>0.76800000000000002</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>0.76300000000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>0.82</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>0.78200000000000003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>0.83499999999999996</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0.85299999999999998</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>0.76800000000000002</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>0.85199999999999998</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>0.874</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>0.83799999999999997</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>0.87</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>0.77</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>0.74099999999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>0.68799999999999994</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>0.82899999999999996</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>0.753</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>0.83</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>0.84599999999999997</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>0.80500000000000005</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>0.84799999999999998</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0.76400000000000001</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>0.61299999999999999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.7</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>0.68300000000000005</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>0.74</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.755</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.753</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.879</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.755</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.753</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.879</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.877</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B20" s="4">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C20" s="4">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F20" s="4">
         <v>0.49199999999999999</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
         <v>0.746</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>0.61899999999999999</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K20" s="4">
         <v>0.69499999999999995</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4">
         <v>0.49199999999999999</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4">
         <v>0.65300000000000002</v>
       </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.755</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.754</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K24" s="4">
         <v>0.83099999999999996</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.753</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.877</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.879</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.73</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.877</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.754</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="L24" s="4">
         <v>0.94099999999999995</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="M24" s="4">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
         <v>0.93200000000000005</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="S24" s="4">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:P14 N15:P15 B16:P17">
-    <cfRule type="top10" dxfId="2" priority="7" rank="3"/>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:M15">
-    <cfRule type="top10" dxfId="1" priority="3" rank="3"/>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:M20 Q18:Q20">
-    <cfRule type="top10" dxfId="0" priority="9" rank="3"/>
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="B2:S24">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UW\Project\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE6AB1-9C9D-4209-A9FA-3336A6314F1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="92">
   <si>
     <t>ModelType</t>
   </si>
@@ -290,12 +291,18 @@
   </si>
   <si>
     <t>*Highly sensitive to hyperparamters and initial training set</t>
+  </si>
+  <si>
+    <t>Neural Net (GUI)</t>
+  </si>
+  <si>
+    <t>Neural Net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -829,7 +836,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1145,11 +1164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257:I257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5107,7 +5126,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -5124,7 +5143,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -5141,7 +5160,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>31</v>
       </c>
@@ -5158,7 +5177,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -5175,7 +5194,7 @@
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>33</v>
       </c>
@@ -5192,7 +5211,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>34</v>
       </c>
@@ -5209,7 +5228,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -5226,7 +5245,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>35</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>36</v>
       </c>
@@ -5260,7 +5279,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>70</v>
       </c>
@@ -5277,7 +5296,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>84</v>
       </c>
@@ -5292,6 +5311,151 @@
       </c>
       <c r="E251" s="1">
         <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>91</v>
+      </c>
+      <c r="B253" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253" t="s">
+        <v>37</v>
+      </c>
+      <c r="D253" t="s">
+        <v>38</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F253">
+        <v>1950</v>
+      </c>
+      <c r="G253">
+        <v>398</v>
+      </c>
+      <c r="H253">
+        <v>164</v>
+      </c>
+      <c r="I253">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>91</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C254" t="s">
+        <v>41</v>
+      </c>
+      <c r="D254" t="s">
+        <v>42</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F254">
+        <v>1990</v>
+      </c>
+      <c r="G254">
+        <v>195</v>
+      </c>
+      <c r="H254">
+        <v>124</v>
+      </c>
+      <c r="I254">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>91</v>
+      </c>
+      <c r="B255" t="s">
+        <v>16</v>
+      </c>
+      <c r="C255" t="s">
+        <v>45</v>
+      </c>
+      <c r="D255" t="s">
+        <v>46</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F255">
+        <v>1926</v>
+      </c>
+      <c r="G255">
+        <v>1015</v>
+      </c>
+      <c r="H255">
+        <v>188</v>
+      </c>
+      <c r="I255">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" t="s">
+        <v>49</v>
+      </c>
+      <c r="D256" t="s">
+        <v>50</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F256">
+        <v>1863</v>
+      </c>
+      <c r="G256">
+        <v>703</v>
+      </c>
+      <c r="H256">
+        <v>251</v>
+      </c>
+      <c r="I256">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>91</v>
+      </c>
+      <c r="B257" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" t="s">
+        <v>51</v>
+      </c>
+      <c r="D257" t="s">
+        <v>52</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F257">
+        <v>1821</v>
+      </c>
+      <c r="G257">
+        <v>659</v>
+      </c>
+      <c r="H257">
+        <v>293</v>
+      </c>
+      <c r="I257">
+        <v>1455</v>
       </c>
     </row>
   </sheetData>
@@ -5301,14 +5465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5317,7 +5481,7 @@
     <col min="2" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5372,8 +5536,11 @@
       <c r="S1" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5419,8 +5586,9 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5466,8 +5634,11 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -5513,8 +5684,9 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5562,8 +5734,11 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5609,8 +5784,9 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5656,8 +5832,11 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5703,8 +5882,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5750,8 +5930,11 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5797,8 +5980,9 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -5844,8 +6028,11 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -5876,7 +6063,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5907,7 +6094,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -5956,7 +6143,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -6005,7 +6192,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -6474,7 +6661,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:S24">
-    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="5" rank="5"/>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T9">
+    <cfRule type="top10" dxfId="1" priority="3" rank="3"/>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UW\Project\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE6AB1-9C9D-4209-A9FA-3336A6314F1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,19 +1167,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A257" sqref="A257:I257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1295,10 +1295,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1378,10 +1378,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1449,10 +1449,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1605,10 +1605,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1824,10 +1824,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2043,10 +2043,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2262,10 +2262,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -2501,10 +2501,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -2720,10 +2720,10 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -2939,10 +2939,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -3158,10 +3158,10 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -3365,10 +3365,10 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>28</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -3584,10 +3584,10 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>35</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>70</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>28</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>34</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>35</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>75</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>34</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>35</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>33</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>28</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>31</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>33</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>34</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>35</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>36</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>31</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>33</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>34</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>35</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>36</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>70</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>84</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -5475,13 +5475,13 @@
       <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="10.7109375" customWidth="1"/>
+    <col min="2" max="19" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -5686,7 +5686,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5982,7 +5982,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -6192,7 +6192,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -6288,7 +6288,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -6621,28 +6621,28 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>66</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1681C8F5-270A-4E10-B34D-EA6C48AE115A}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9228" yWindow="468" windowWidth="15972" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="93">
   <si>
     <t>ModelType</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Neural Net</t>
+  </si>
+  <si>
+    <t>FeaturesWavelets_coif2_Lvl4.mat</t>
   </si>
 </sst>
 </file>
@@ -1165,21 +1168,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257:I257"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1295,10 +1298,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1378,10 +1381,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1449,10 +1452,10 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1605,10 +1608,10 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1824,10 +1827,10 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2043,10 +2046,10 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2262,10 +2265,10 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -2501,10 +2504,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -2720,10 +2723,10 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -2808,7 +2811,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -2939,10 +2942,10 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -2959,7 +2962,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2993,7 +2996,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -3158,10 +3161,10 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -3263,7 +3266,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -3365,10 +3368,10 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>28</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>34</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -3584,10 +3587,10 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>35</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>32</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>33</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>0.71199999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>70</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>18</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>28</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>34</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>18</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>31</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>34</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>35</v>
       </c>
@@ -4399,7 +4402,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>0.54200000000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>75</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>34</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +4612,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>35</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -4660,7 +4663,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>33</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>28</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>31</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>33</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>34</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>35</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>36</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>31</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>33</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>34</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>35</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>36</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>70</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>84</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -5342,7 +5345,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -5456,6 +5459,23 @@
       </c>
       <c r="I257">
         <v>1455</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>87</v>
+      </c>
+      <c r="B259" t="s">
+        <v>88</v>
+      </c>
+      <c r="C259" t="s">
+        <v>73</v>
+      </c>
+      <c r="D259" t="s">
+        <v>92</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0.69899999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -5475,13 +5495,13 @@
       <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="10.73046875" customWidth="1"/>
+    <col min="2" max="19" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5540,7 +5560,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5588,7 +5608,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -5638,7 +5658,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -5686,7 +5706,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5738,7 +5758,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5786,7 +5806,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5836,7 +5856,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5884,7 +5904,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5934,7 +5954,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5982,7 +6002,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -6032,7 +6052,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -6063,7 +6083,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -6094,7 +6114,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -6143,7 +6163,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -6192,7 +6212,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -6241,7 +6261,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -6288,7 +6308,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -6335,7 +6355,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -6382,7 +6402,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -6423,7 +6443,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -6472,7 +6492,7 @@
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -6521,7 +6541,7 @@
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -6570,7 +6590,7 @@
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -6621,28 +6641,28 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>66</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1681C8F5-270A-4E10-B34D-EA6C48AE115A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8B7880BB-40AB-42A6-BAF3-002927FB6E77}"/>
   <bookViews>
-    <workbookView xWindow="9228" yWindow="468" windowWidth="15972" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9228" yWindow="468" windowWidth="15972" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,7 +2498,7 @@
         <v>42</v>
       </c>
       <c r="E77" s="1">
-        <v>0.60199999999999998</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="J77" t="s">
         <v>89</v>
@@ -5488,11 +5488,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5749,7 +5749,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4">
-        <v>0.60199999999999998</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8B7880BB-40AB-42A6-BAF3-002927FB6E77}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{40556311-E00F-497E-9927-3154AB3C6D68}"/>
   <bookViews>
     <workbookView xWindow="9228" yWindow="468" windowWidth="15972" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5475,7 +5475,7 @@
         <v>92</v>
       </c>
       <c r="E259" s="1">
-        <v>0.69899999999999995</v>
+        <v>0.76400000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5492,7 +5492,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6534,7 +6534,9 @@
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="P22" s="4">
+        <v>0.76400000000000001</v>
+      </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4">
         <v>0.92400000000000004</v>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{40556311-E00F-497E-9927-3154AB3C6D68}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3E01BEA6-5159-4FF1-9757-F2959F8DEB2F}"/>
   <bookViews>
     <workbookView xWindow="9228" yWindow="468" windowWidth="15972" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5492,7 +5522,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6682,38 +6712,16 @@
       <c r="P46" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:S24">
-    <cfRule type="top10" dxfId="2" priority="5" rank="5"/>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T9">
-    <cfRule type="top10" dxfId="1" priority="3" rank="3"/>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T11">
-    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  <conditionalFormatting sqref="C2:T24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3E01BEA6-5159-4FF1-9757-F2959F8DEB2F}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1FB9E97A-8D6F-4FF2-B92A-6C4B4BEBCF51}"/>
   <bookViews>
     <workbookView xWindow="9228" yWindow="468" windowWidth="15972" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -855,31 +855,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -5519,10 +5495,10 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6712,7 +6688,7 @@
       <c r="P46" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:T24">
+  <conditionalFormatting sqref="B2:T24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{908C5637-F109-4089-B767-D90D758A3145}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EE4441CE-8ED3-447F-8A44-1FB5890D87E5}"/>
   <bookViews>
     <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="90">
   <si>
     <t>ModelType</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Fine Gaussian SVM</t>
-  </si>
-  <si>
-    <t>Coarse KNN</t>
   </si>
   <si>
     <t>Boosted trees ensemble</t>
@@ -941,19 +938,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1409,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1426,7 +1411,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1455,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1472,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1489,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1506,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1523,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1540,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1557,10 +1542,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="1">
         <v>0.75800000000000001</v>
@@ -1574,10 +1559,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
       </c>
       <c r="E17" s="1">
         <v>0.83099999999999996</v>
@@ -1591,10 +1576,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18" s="1">
         <v>0.81100000000000005</v>
@@ -1608,10 +1593,10 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
       </c>
       <c r="E19" s="1">
         <v>0.75600000000000001</v>
@@ -1619,16 +1604,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
       </c>
       <c r="E20" s="1">
         <v>0.85</v>
@@ -1636,16 +1621,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21" s="1">
         <v>0.86799999999999999</v>
@@ -1653,16 +1638,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
         <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
       </c>
       <c r="E22" s="1">
         <v>0.77200000000000002</v>
@@ -1670,16 +1655,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
       </c>
       <c r="E23" s="1">
         <v>0.873</v>
@@ -1687,16 +1672,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
         <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
       </c>
       <c r="E24" s="1">
         <v>0.89100000000000001</v>
@@ -1722,10 +1707,10 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
       </c>
       <c r="E25" s="1">
         <v>0.85699999999999998</v>
@@ -1733,16 +1718,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
       </c>
       <c r="E26" s="1">
         <v>0.88</v>
@@ -1750,16 +1735,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
         <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
       </c>
       <c r="E27" s="1">
         <v>0.80400000000000005</v>
@@ -1773,10 +1758,10 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
         <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
       </c>
       <c r="E29" s="1">
         <v>0.78300000000000003</v>
@@ -1790,10 +1775,10 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
         <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
       </c>
       <c r="E30" s="1">
         <v>0.85199999999999998</v>
@@ -1807,10 +1792,10 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
         <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
       </c>
       <c r="E31" s="1">
         <v>0.82499999999999996</v>
@@ -1824,10 +1809,10 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
         <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
       </c>
       <c r="E32" s="1">
         <v>0.76300000000000001</v>
@@ -1835,16 +1820,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
         <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
       </c>
       <c r="E33" s="1">
         <v>0.86299999999999999</v>
@@ -1852,16 +1837,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
         <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
       </c>
       <c r="E34" s="1">
         <v>0.88200000000000001</v>
@@ -1869,16 +1854,16 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
         <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
       </c>
       <c r="E35" s="1">
         <v>0.79</v>
@@ -1886,16 +1871,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
         <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
       </c>
       <c r="E36" s="1">
         <v>0.89500000000000002</v>
@@ -1903,16 +1888,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
         <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
       </c>
       <c r="E37" s="1">
         <v>0.91900000000000004</v>
@@ -1938,10 +1923,10 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
         <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
       </c>
       <c r="E38" s="1">
         <v>0.88600000000000001</v>
@@ -1949,16 +1934,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
         <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
       </c>
       <c r="E39" s="1">
         <v>0.89300000000000002</v>
@@ -1966,16 +1951,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
       </c>
       <c r="E40" s="1">
         <v>0.80500000000000005</v>
@@ -1989,10 +1974,10 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
         <v>35</v>
-      </c>
-      <c r="D42" t="s">
-        <v>36</v>
       </c>
       <c r="E42" s="1">
         <v>0.78</v>
@@ -2006,10 +1991,10 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
         <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
       </c>
       <c r="E43" s="1">
         <v>0.81799999999999995</v>
@@ -2023,10 +2008,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
         <v>35</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
       </c>
       <c r="E44" s="1">
         <v>0.78900000000000003</v>
@@ -2040,10 +2025,10 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
         <v>35</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
       </c>
       <c r="E45" s="1">
         <v>0.75600000000000001</v>
@@ -2051,16 +2036,16 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
         <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
       </c>
       <c r="E46" s="1">
         <v>0.85</v>
@@ -2068,16 +2053,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
         <v>35</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
       </c>
       <c r="E47" s="1">
         <v>0.85499999999999998</v>
@@ -2085,16 +2070,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
         <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
       </c>
       <c r="E48" s="1">
         <v>0.79</v>
@@ -2102,16 +2087,16 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
         <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>36</v>
       </c>
       <c r="E49" s="1">
         <v>0.88800000000000001</v>
@@ -2119,16 +2104,16 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
         <v>35</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
       </c>
       <c r="E50" s="1">
         <v>0.89700000000000002</v>
@@ -2154,10 +2139,10 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
         <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>36</v>
       </c>
       <c r="E51" s="1">
         <v>0.76300000000000001</v>
@@ -2165,16 +2150,16 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
         <v>35</v>
-      </c>
-      <c r="D52" t="s">
-        <v>36</v>
       </c>
       <c r="E52" s="1">
         <v>0.88100000000000001</v>
@@ -2182,16 +2167,16 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
         <v>35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>36</v>
       </c>
       <c r="E53" s="1">
         <v>0.79700000000000004</v>
@@ -2205,10 +2190,10 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
         <v>37</v>
-      </c>
-      <c r="D55" t="s">
-        <v>38</v>
       </c>
       <c r="E55" s="1">
         <v>0.80200000000000005</v>
@@ -2222,10 +2207,10 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
         <v>37</v>
-      </c>
-      <c r="D56" t="s">
-        <v>38</v>
       </c>
       <c r="E56" s="1">
         <v>0.85199999999999998</v>
@@ -2239,10 +2224,10 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
         <v>37</v>
-      </c>
-      <c r="D57" t="s">
-        <v>38</v>
       </c>
       <c r="E57" s="1">
         <v>0.81399999999999995</v>
@@ -2256,10 +2241,10 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
         <v>37</v>
-      </c>
-      <c r="D58" t="s">
-        <v>38</v>
       </c>
       <c r="E58" s="1">
         <v>0.74299999999999999</v>
@@ -2267,16 +2252,16 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
         <v>37</v>
-      </c>
-      <c r="D59" t="s">
-        <v>38</v>
       </c>
       <c r="E59" s="1">
         <v>0.85899999999999999</v>
@@ -2284,16 +2269,16 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
         <v>37</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
       </c>
       <c r="E60" s="1">
         <v>0.88300000000000001</v>
@@ -2301,16 +2286,16 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
         <v>37</v>
-      </c>
-      <c r="D61" t="s">
-        <v>38</v>
       </c>
       <c r="E61" s="1">
         <v>0.80400000000000005</v>
@@ -2318,16 +2303,16 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
         <v>37</v>
-      </c>
-      <c r="D62" t="s">
-        <v>38</v>
       </c>
       <c r="E62" s="1">
         <v>0.90700000000000003</v>
@@ -2335,16 +2320,16 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
         <v>37</v>
-      </c>
-      <c r="D63" t="s">
-        <v>38</v>
       </c>
       <c r="E63" s="1">
         <v>0.92800000000000005</v>
@@ -2370,10 +2355,10 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
         <v>37</v>
-      </c>
-      <c r="D64" t="s">
-        <v>38</v>
       </c>
       <c r="E64" s="1">
         <v>0.80900000000000005</v>
@@ -2381,16 +2366,16 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
         <v>37</v>
-      </c>
-      <c r="D65" t="s">
-        <v>38</v>
       </c>
       <c r="E65" s="1">
         <v>0.90300000000000002</v>
@@ -2398,16 +2383,16 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
         <v>37</v>
-      </c>
-      <c r="D66" t="s">
-        <v>38</v>
       </c>
       <c r="E66" s="1">
         <v>0.79700000000000004</v>
@@ -2415,22 +2400,22 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
       <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
         <v>37</v>
-      </c>
-      <c r="D67" t="s">
-        <v>38</v>
       </c>
       <c r="E67" s="1">
         <v>0.61799999999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2441,10 +2426,10 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
         <v>39</v>
-      </c>
-      <c r="D69" t="s">
-        <v>40</v>
       </c>
       <c r="E69" s="1">
         <v>0.70699999999999996</v>
@@ -2458,10 +2443,10 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
         <v>39</v>
-      </c>
-      <c r="D70" t="s">
-        <v>40</v>
       </c>
       <c r="E70" s="1">
         <v>0.83699999999999997</v>
@@ -2475,10 +2460,10 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s">
         <v>39</v>
-      </c>
-      <c r="D71" t="s">
-        <v>40</v>
       </c>
       <c r="E71" s="1">
         <v>0.80200000000000005</v>
@@ -2492,10 +2477,10 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
         <v>39</v>
-      </c>
-      <c r="D72" t="s">
-        <v>40</v>
       </c>
       <c r="E72" s="1">
         <v>0.753</v>
@@ -2503,16 +2488,16 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
         <v>39</v>
-      </c>
-      <c r="D73" t="s">
-        <v>40</v>
       </c>
       <c r="E73" s="1">
         <v>0.85099999999999998</v>
@@ -2520,16 +2505,16 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
         <v>39</v>
-      </c>
-      <c r="D74" t="s">
-        <v>40</v>
       </c>
       <c r="E74" s="1">
         <v>0.89</v>
@@ -2549,16 +2534,16 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
         <v>39</v>
-      </c>
-      <c r="D75" t="s">
-        <v>40</v>
       </c>
       <c r="E75" s="1">
         <v>0.70299999999999996</v>
@@ -2566,16 +2551,16 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
         <v>39</v>
-      </c>
-      <c r="D76" t="s">
-        <v>40</v>
       </c>
       <c r="E76" s="1">
         <v>0.77500000000000002</v>
@@ -2583,16 +2568,16 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s">
         <v>39</v>
-      </c>
-      <c r="D77" t="s">
-        <v>40</v>
       </c>
       <c r="E77" s="1">
         <v>0.81200000000000006</v>
@@ -2606,10 +2591,10 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
         <v>39</v>
-      </c>
-      <c r="D78" t="s">
-        <v>40</v>
       </c>
       <c r="E78" s="1">
         <v>0.71899999999999997</v>
@@ -2617,16 +2602,16 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s">
         <v>39</v>
-      </c>
-      <c r="D79" t="s">
-        <v>40</v>
       </c>
       <c r="E79" s="1">
         <v>0.754</v>
@@ -2634,16 +2619,16 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s">
         <v>39</v>
-      </c>
-      <c r="D80" t="s">
-        <v>40</v>
       </c>
       <c r="E80" s="1">
         <v>0.70099999999999996</v>
@@ -2657,10 +2642,10 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
         <v>41</v>
-      </c>
-      <c r="D82" t="s">
-        <v>42</v>
       </c>
       <c r="E82" s="1">
         <v>0.72799999999999998</v>
@@ -2674,10 +2659,10 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="s">
         <v>41</v>
-      </c>
-      <c r="D83" t="s">
-        <v>42</v>
       </c>
       <c r="E83" s="1">
         <v>0.875</v>
@@ -2691,10 +2676,10 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
         <v>41</v>
-      </c>
-      <c r="D84" t="s">
-        <v>42</v>
       </c>
       <c r="E84" s="1">
         <v>0.82799999999999996</v>
@@ -2708,10 +2693,10 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
         <v>41</v>
-      </c>
-      <c r="D85" t="s">
-        <v>42</v>
       </c>
       <c r="E85" s="1">
         <v>0.77300000000000002</v>
@@ -2719,16 +2704,16 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
         <v>41</v>
-      </c>
-      <c r="D86" t="s">
-        <v>42</v>
       </c>
       <c r="E86" s="1">
         <v>0.875</v>
@@ -2736,16 +2721,16 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
         <v>41</v>
-      </c>
-      <c r="D87" t="s">
-        <v>42</v>
       </c>
       <c r="E87" s="1">
         <v>0.91900000000000004</v>
@@ -2765,16 +2750,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" t="s">
         <v>41</v>
-      </c>
-      <c r="D88" t="s">
-        <v>42</v>
       </c>
       <c r="E88" s="1">
         <v>0.71699999999999997</v>
@@ -2782,16 +2767,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
         <v>41</v>
-      </c>
-      <c r="D89" t="s">
-        <v>42</v>
       </c>
       <c r="E89" s="1">
         <v>0.79700000000000004</v>
@@ -2799,16 +2784,16 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" t="s">
         <v>41</v>
-      </c>
-      <c r="D90" t="s">
-        <v>42</v>
       </c>
       <c r="E90" s="1">
         <v>0.83799999999999997</v>
@@ -2822,10 +2807,10 @@
         <v>16</v>
       </c>
       <c r="C91" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
         <v>41</v>
-      </c>
-      <c r="D91" t="s">
-        <v>42</v>
       </c>
       <c r="E91" s="1">
         <v>0.76600000000000001</v>
@@ -2833,16 +2818,16 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" t="s">
         <v>41</v>
-      </c>
-      <c r="D92" t="s">
-        <v>42</v>
       </c>
       <c r="E92" s="1">
         <v>0.76500000000000001</v>
@@ -2850,16 +2835,16 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" t="s">
         <v>41</v>
-      </c>
-      <c r="D93" t="s">
-        <v>42</v>
       </c>
       <c r="E93" s="1">
         <v>0.71499999999999997</v>
@@ -2873,10 +2858,10 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
         <v>43</v>
-      </c>
-      <c r="D95" t="s">
-        <v>44</v>
       </c>
       <c r="E95" s="1">
         <v>0.67300000000000004</v>
@@ -2890,10 +2875,10 @@
         <v>16</v>
       </c>
       <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
         <v>43</v>
-      </c>
-      <c r="D96" t="s">
-        <v>44</v>
       </c>
       <c r="E96" s="1">
         <v>0.82</v>
@@ -2907,10 +2892,10 @@
         <v>16</v>
       </c>
       <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
         <v>43</v>
-      </c>
-      <c r="D97" t="s">
-        <v>44</v>
       </c>
       <c r="E97" s="1">
         <v>0.79400000000000004</v>
@@ -2924,10 +2909,10 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" t="s">
         <v>43</v>
-      </c>
-      <c r="D98" t="s">
-        <v>44</v>
       </c>
       <c r="E98" s="1">
         <v>0.72699999999999998</v>
@@ -2935,16 +2920,16 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" t="s">
         <v>43</v>
-      </c>
-      <c r="D99" t="s">
-        <v>44</v>
       </c>
       <c r="E99" s="1">
         <v>0.82199999999999995</v>
@@ -2952,16 +2937,16 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" t="s">
         <v>43</v>
-      </c>
-      <c r="D100" t="s">
-        <v>44</v>
       </c>
       <c r="E100" s="1">
         <v>0.86299999999999999</v>
@@ -2981,16 +2966,16 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" t="s">
         <v>43</v>
-      </c>
-      <c r="D101" t="s">
-        <v>44</v>
       </c>
       <c r="E101" s="1">
         <v>0.66600000000000004</v>
@@ -2998,16 +2983,16 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" t="s">
         <v>43</v>
-      </c>
-      <c r="D102" t="s">
-        <v>44</v>
       </c>
       <c r="E102" s="1">
         <v>0.76400000000000001</v>
@@ -3015,16 +3000,16 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" t="s">
         <v>43</v>
-      </c>
-      <c r="D103" t="s">
-        <v>44</v>
       </c>
       <c r="E103" s="1">
         <v>0.8</v>
@@ -3038,10 +3023,10 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" t="s">
         <v>43</v>
-      </c>
-      <c r="D104" t="s">
-        <v>44</v>
       </c>
       <c r="E104" s="1">
         <v>0.78</v>
@@ -3049,16 +3034,16 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" t="s">
         <v>43</v>
-      </c>
-      <c r="D105" t="s">
-        <v>44</v>
       </c>
       <c r="E105" s="1">
         <v>0.75600000000000001</v>
@@ -3066,16 +3051,16 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s">
         <v>43</v>
-      </c>
-      <c r="D106" t="s">
-        <v>44</v>
       </c>
       <c r="E106" s="1">
         <v>0.66800000000000004</v>
@@ -3089,10 +3074,10 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" t="s">
         <v>45</v>
-      </c>
-      <c r="D108" t="s">
-        <v>46</v>
       </c>
       <c r="E108" s="1">
         <v>0.67800000000000005</v>
@@ -3106,10 +3091,10 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" t="s">
         <v>45</v>
-      </c>
-      <c r="D109" t="s">
-        <v>46</v>
       </c>
       <c r="E109" s="1">
         <v>0.84699999999999998</v>
@@ -3123,10 +3108,10 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" t="s">
         <v>45</v>
-      </c>
-      <c r="D110" t="s">
-        <v>46</v>
       </c>
       <c r="E110" s="1">
         <v>0.80600000000000005</v>
@@ -3140,10 +3125,10 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" t="s">
         <v>45</v>
-      </c>
-      <c r="D111" t="s">
-        <v>46</v>
       </c>
       <c r="E111" s="1">
         <v>0.73699999999999999</v>
@@ -3151,16 +3136,16 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" t="s">
         <v>45</v>
-      </c>
-      <c r="D112" t="s">
-        <v>46</v>
       </c>
       <c r="E112" s="1">
         <v>0.84199999999999997</v>
@@ -3168,16 +3153,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" t="s">
         <v>45</v>
-      </c>
-      <c r="D113" t="s">
-        <v>46</v>
       </c>
       <c r="E113" s="1">
         <v>0.89</v>
@@ -3185,16 +3170,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" t="s">
         <v>45</v>
-      </c>
-      <c r="D114" t="s">
-        <v>46</v>
       </c>
       <c r="E114" s="1">
         <v>0.66500000000000004</v>
@@ -3202,16 +3187,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" t="s">
         <v>45</v>
-      </c>
-      <c r="D115" t="s">
-        <v>46</v>
       </c>
       <c r="E115" s="1">
         <v>0.77</v>
@@ -3219,16 +3204,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
         <v>45</v>
-      </c>
-      <c r="D116" t="s">
-        <v>46</v>
       </c>
       <c r="E116" s="1">
         <v>0.81200000000000006</v>
@@ -3242,10 +3227,10 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" t="s">
         <v>45</v>
-      </c>
-      <c r="D117" t="s">
-        <v>46</v>
       </c>
       <c r="E117" s="1">
         <v>0.81100000000000005</v>
@@ -3253,16 +3238,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
         <v>45</v>
-      </c>
-      <c r="D118" t="s">
-        <v>46</v>
       </c>
       <c r="E118" s="1">
         <v>0.76800000000000002</v>
@@ -3270,16 +3255,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" t="s">
         <v>45</v>
-      </c>
-      <c r="D119" t="s">
-        <v>46</v>
       </c>
       <c r="E119" s="1">
         <v>0.66900000000000004</v>
@@ -3293,10 +3278,10 @@
         <v>16</v>
       </c>
       <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
         <v>47</v>
-      </c>
-      <c r="D121" t="s">
-        <v>48</v>
       </c>
       <c r="E121" s="1">
         <v>0.76300000000000001</v>
@@ -3310,10 +3295,10 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
+        <v>46</v>
+      </c>
+      <c r="D122" t="s">
         <v>47</v>
-      </c>
-      <c r="D122" t="s">
-        <v>48</v>
       </c>
       <c r="E122" s="1">
         <v>0.82</v>
@@ -3327,10 +3312,10 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" t="s">
         <v>47</v>
-      </c>
-      <c r="D123" t="s">
-        <v>48</v>
       </c>
       <c r="E123" s="1">
         <v>0.78200000000000003</v>
@@ -3344,10 +3329,10 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" t="s">
         <v>47</v>
-      </c>
-      <c r="D124" t="s">
-        <v>48</v>
       </c>
       <c r="E124" s="1">
         <v>0.72099999999999997</v>
@@ -3355,16 +3340,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
+        <v>46</v>
+      </c>
+      <c r="D125" t="s">
         <v>47</v>
-      </c>
-      <c r="D125" t="s">
-        <v>48</v>
       </c>
       <c r="E125" s="1">
         <v>0.83499999999999996</v>
@@ -3372,16 +3357,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" t="s">
         <v>47</v>
-      </c>
-      <c r="D126" t="s">
-        <v>48</v>
       </c>
       <c r="E126" s="1">
         <v>0.85299999999999998</v>
@@ -3389,16 +3374,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
+        <v>46</v>
+      </c>
+      <c r="D127" t="s">
         <v>47</v>
-      </c>
-      <c r="D127" t="s">
-        <v>48</v>
       </c>
       <c r="E127" s="1">
         <v>0.76800000000000002</v>
@@ -3406,16 +3391,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" t="s">
         <v>47</v>
-      </c>
-      <c r="D128" t="s">
-        <v>48</v>
       </c>
       <c r="E128" s="1">
         <v>0.85199999999999998</v>
@@ -3423,16 +3408,16 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
         <v>47</v>
-      </c>
-      <c r="D129" t="s">
-        <v>48</v>
       </c>
       <c r="E129" s="1">
         <v>0.874</v>
@@ -3458,10 +3443,10 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" t="s">
         <v>47</v>
-      </c>
-      <c r="D130" t="s">
-        <v>48</v>
       </c>
       <c r="E130" s="1">
         <v>0.83799999999999997</v>
@@ -3469,16 +3454,16 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" t="s">
         <v>47</v>
-      </c>
-      <c r="D131" t="s">
-        <v>48</v>
       </c>
       <c r="E131" s="1">
         <v>0.87</v>
@@ -3486,16 +3471,16 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" t="s">
         <v>47</v>
-      </c>
-      <c r="D132" t="s">
-        <v>48</v>
       </c>
       <c r="E132" s="1">
         <v>0.77</v>
@@ -3509,10 +3494,10 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" t="s">
         <v>49</v>
-      </c>
-      <c r="D134" t="s">
-        <v>50</v>
       </c>
       <c r="E134" s="1">
         <v>0.74099999999999999</v>
@@ -3526,10 +3511,10 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" t="s">
         <v>49</v>
-      </c>
-      <c r="D135" t="s">
-        <v>50</v>
       </c>
       <c r="E135" s="1">
         <v>0.80400000000000005</v>
@@ -3543,10 +3528,10 @@
         <v>16</v>
       </c>
       <c r="C136" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" t="s">
         <v>49</v>
-      </c>
-      <c r="D136" t="s">
-        <v>50</v>
       </c>
       <c r="E136" s="1">
         <v>0.78900000000000003</v>
@@ -3560,10 +3545,10 @@
         <v>16</v>
       </c>
       <c r="C137" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" t="s">
         <v>49</v>
-      </c>
-      <c r="D137" t="s">
-        <v>50</v>
       </c>
       <c r="E137" s="1">
         <v>0.68799999999999994</v>
@@ -3571,16 +3556,16 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" t="s">
         <v>49</v>
-      </c>
-      <c r="D138" t="s">
-        <v>50</v>
       </c>
       <c r="E138" s="1">
         <v>0.81599999999999995</v>
@@ -3588,16 +3573,16 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" t="s">
         <v>49</v>
-      </c>
-      <c r="D139" t="s">
-        <v>50</v>
       </c>
       <c r="E139" s="1">
         <v>0.82899999999999996</v>
@@ -3605,16 +3590,16 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" t="s">
         <v>49</v>
-      </c>
-      <c r="D140" t="s">
-        <v>50</v>
       </c>
       <c r="E140" s="1">
         <v>0.753</v>
@@ -3622,16 +3607,16 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" t="s">
         <v>49</v>
-      </c>
-      <c r="D141" t="s">
-        <v>50</v>
       </c>
       <c r="E141" s="1">
         <v>0.83</v>
@@ -3639,16 +3624,16 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" t="s">
         <v>49</v>
-      </c>
-      <c r="D142" t="s">
-        <v>50</v>
       </c>
       <c r="E142" s="1">
         <v>0.84599999999999997</v>
@@ -3662,10 +3647,10 @@
         <v>16</v>
       </c>
       <c r="C143" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" t="s">
         <v>49</v>
-      </c>
-      <c r="D143" t="s">
-        <v>50</v>
       </c>
       <c r="E143" s="1">
         <v>0.80500000000000005</v>
@@ -3673,16 +3658,16 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" t="s">
         <v>49</v>
-      </c>
-      <c r="D144" t="s">
-        <v>50</v>
       </c>
       <c r="E144" s="1">
         <v>0.84799999999999998</v>
@@ -3702,16 +3687,16 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" t="s">
         <v>49</v>
-      </c>
-      <c r="D145" t="s">
-        <v>50</v>
       </c>
       <c r="E145" s="1">
         <v>0.76400000000000001</v>
@@ -3725,10 +3710,10 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
         <v>64</v>
-      </c>
-      <c r="D147" t="s">
-        <v>65</v>
       </c>
       <c r="E147" s="1">
         <v>0.81</v>
@@ -3742,10 +3727,10 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
         <v>64</v>
-      </c>
-      <c r="D148" t="s">
-        <v>65</v>
       </c>
       <c r="E148" s="1">
         <v>0.755</v>
@@ -3759,10 +3744,10 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
         <v>64</v>
-      </c>
-      <c r="D149" t="s">
-        <v>65</v>
       </c>
       <c r="E149" s="1">
         <v>0.74199999999999999</v>
@@ -3776,10 +3761,10 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
         <v>64</v>
-      </c>
-      <c r="D150" t="s">
-        <v>65</v>
       </c>
       <c r="E150" s="1">
         <v>0.73299999999999998</v>
@@ -3787,16 +3772,16 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
         <v>64</v>
-      </c>
-      <c r="D151" t="s">
-        <v>65</v>
       </c>
       <c r="E151" s="1">
         <v>0.82099999999999995</v>
@@ -3804,16 +3789,16 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
         <v>64</v>
-      </c>
-      <c r="D152" t="s">
-        <v>65</v>
       </c>
       <c r="E152" s="1">
         <v>0.82</v>
@@ -3821,16 +3806,16 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
         <v>64</v>
-      </c>
-      <c r="D153" t="s">
-        <v>65</v>
       </c>
       <c r="E153" s="1">
         <v>0.83099999999999996</v>
@@ -3838,16 +3823,16 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
         <v>64</v>
-      </c>
-      <c r="D154" t="s">
-        <v>65</v>
       </c>
       <c r="E154" s="1">
         <v>0.86399999999999999</v>
@@ -3855,16 +3840,16 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
         <v>64</v>
-      </c>
-      <c r="D155" t="s">
-        <v>65</v>
       </c>
       <c r="E155" s="1">
         <v>0.871</v>
@@ -3890,10 +3875,10 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
         <v>64</v>
-      </c>
-      <c r="D156" t="s">
-        <v>65</v>
       </c>
       <c r="E156" s="1">
         <v>0.60499999999999998</v>
@@ -3901,16 +3886,16 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
       </c>
       <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
         <v>64</v>
-      </c>
-      <c r="D157" t="s">
-        <v>65</v>
       </c>
       <c r="E157" s="1">
         <v>0.86099999999999999</v>
@@ -3918,16 +3903,16 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
       </c>
       <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
         <v>64</v>
-      </c>
-      <c r="D158" t="s">
-        <v>65</v>
       </c>
       <c r="E158" s="1">
         <v>0.79900000000000004</v>
@@ -3941,10 +3926,10 @@
         <v>16</v>
       </c>
       <c r="C160" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" t="s">
         <v>66</v>
-      </c>
-      <c r="D160" t="s">
-        <v>67</v>
       </c>
       <c r="E160" s="1">
         <v>0.80700000000000005</v>
@@ -3958,10 +3943,10 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" t="s">
         <v>66</v>
-      </c>
-      <c r="D161" t="s">
-        <v>67</v>
       </c>
       <c r="E161" s="1">
         <v>0.73199999999999998</v>
@@ -3975,10 +3960,10 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162" t="s">
         <v>66</v>
-      </c>
-      <c r="D162" t="s">
-        <v>67</v>
       </c>
       <c r="E162" s="1">
         <v>0.73699999999999999</v>
@@ -3992,10 +3977,10 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" t="s">
         <v>66</v>
-      </c>
-      <c r="D163" t="s">
-        <v>67</v>
       </c>
       <c r="E163" s="1">
         <v>0.753</v>
@@ -4003,16 +3988,16 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" t="s">
         <v>66</v>
-      </c>
-      <c r="D164" t="s">
-        <v>67</v>
       </c>
       <c r="E164" s="1">
         <v>0.84799999999999998</v>
@@ -4020,16 +4005,16 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" t="s">
         <v>66</v>
-      </c>
-      <c r="D165" t="s">
-        <v>67</v>
       </c>
       <c r="E165" s="1">
         <v>0.82699999999999996</v>
@@ -4037,16 +4022,16 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" t="s">
         <v>66</v>
-      </c>
-      <c r="D166" t="s">
-        <v>67</v>
       </c>
       <c r="E166" s="1">
         <v>0.86699999999999999</v>
@@ -4054,16 +4039,16 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" t="s">
         <v>66</v>
-      </c>
-      <c r="D167" t="s">
-        <v>67</v>
       </c>
       <c r="E167" s="1">
         <v>0.877</v>
@@ -4071,16 +4056,16 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
+        <v>65</v>
+      </c>
+      <c r="D168" t="s">
         <v>66</v>
-      </c>
-      <c r="D168" t="s">
-        <v>67</v>
       </c>
       <c r="E168" s="1">
         <v>0.88600000000000001</v>
@@ -4106,10 +4091,10 @@
         <v>16</v>
       </c>
       <c r="C169" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169" t="s">
         <v>66</v>
-      </c>
-      <c r="D169" t="s">
-        <v>67</v>
       </c>
       <c r="E169" s="1">
         <v>0.59099999999999997</v>
@@ -4117,16 +4102,16 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" t="s">
         <v>66</v>
-      </c>
-      <c r="D170" t="s">
-        <v>67</v>
       </c>
       <c r="E170" s="1">
         <v>0.879</v>
@@ -4134,16 +4119,16 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171" t="s">
         <v>66</v>
-      </c>
-      <c r="D171" t="s">
-        <v>67</v>
       </c>
       <c r="E171" s="1">
         <v>0.81599999999999995</v>
@@ -4157,10 +4142,10 @@
         <v>16</v>
       </c>
       <c r="C173" t="s">
+        <v>67</v>
+      </c>
+      <c r="D173" t="s">
         <v>68</v>
-      </c>
-      <c r="D173" t="s">
-        <v>69</v>
       </c>
       <c r="E173" s="1">
         <v>0.55000000000000004</v>
@@ -4174,10 +4159,10 @@
         <v>16</v>
       </c>
       <c r="C174" t="s">
+        <v>67</v>
+      </c>
+      <c r="D174" t="s">
         <v>68</v>
-      </c>
-      <c r="D174" t="s">
-        <v>69</v>
       </c>
       <c r="E174" s="1">
         <v>0.73</v>
@@ -4191,10 +4176,10 @@
         <v>16</v>
       </c>
       <c r="C175" t="s">
+        <v>67</v>
+      </c>
+      <c r="D175" t="s">
         <v>68</v>
-      </c>
-      <c r="D175" t="s">
-        <v>69</v>
       </c>
       <c r="E175" s="1">
         <v>0.74099999999999999</v>
@@ -4208,10 +4193,10 @@
         <v>16</v>
       </c>
       <c r="C176" t="s">
+        <v>67</v>
+      </c>
+      <c r="D176" t="s">
         <v>68</v>
-      </c>
-      <c r="D176" t="s">
-        <v>69</v>
       </c>
       <c r="E176" s="1">
         <v>0.70599999999999996</v>
@@ -4219,16 +4204,16 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
       </c>
       <c r="C177" t="s">
+        <v>67</v>
+      </c>
+      <c r="D177" t="s">
         <v>68</v>
-      </c>
-      <c r="D177" t="s">
-        <v>69</v>
       </c>
       <c r="E177" s="1">
         <v>0.82299999999999995</v>
@@ -4236,16 +4221,16 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
       <c r="C178" t="s">
+        <v>67</v>
+      </c>
+      <c r="D178" t="s">
         <v>68</v>
-      </c>
-      <c r="D178" t="s">
-        <v>69</v>
       </c>
       <c r="E178" s="1">
         <v>0.81699999999999995</v>
@@ -4253,16 +4238,16 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B179" t="s">
         <v>16</v>
       </c>
       <c r="C179" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" t="s">
         <v>68</v>
-      </c>
-      <c r="D179" t="s">
-        <v>69</v>
       </c>
       <c r="E179" s="1">
         <v>0.88</v>
@@ -4270,16 +4255,16 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
       </c>
       <c r="C180" t="s">
+        <v>67</v>
+      </c>
+      <c r="D180" t="s">
         <v>68</v>
-      </c>
-      <c r="D180" t="s">
-        <v>69</v>
       </c>
       <c r="E180" s="1">
         <v>0.89400000000000002</v>
@@ -4287,16 +4272,16 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
       <c r="C181" t="s">
+        <v>67</v>
+      </c>
+      <c r="D181" t="s">
         <v>68</v>
-      </c>
-      <c r="D181" t="s">
-        <v>69</v>
       </c>
       <c r="E181" s="1">
         <v>0.90900000000000003</v>
@@ -4322,10 +4307,10 @@
         <v>16</v>
       </c>
       <c r="C182" t="s">
+        <v>67</v>
+      </c>
+      <c r="D182" t="s">
         <v>68</v>
-      </c>
-      <c r="D182" t="s">
-        <v>69</v>
       </c>
       <c r="E182" s="1">
         <v>0.60199999999999998</v>
@@ -4333,16 +4318,16 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
+        <v>67</v>
+      </c>
+      <c r="D183" t="s">
         <v>68</v>
-      </c>
-      <c r="D183" t="s">
-        <v>69</v>
       </c>
       <c r="E183" s="1">
         <v>0.877</v>
@@ -4350,16 +4335,16 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
       </c>
       <c r="C184" t="s">
+        <v>67</v>
+      </c>
+      <c r="D184" t="s">
         <v>68</v>
-      </c>
-      <c r="D184" t="s">
-        <v>69</v>
       </c>
       <c r="E184" s="1">
         <v>0.81599999999999995</v>
@@ -4367,16 +4352,16 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
       <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" t="s">
         <v>33</v>
-      </c>
-      <c r="D186" t="s">
-        <v>34</v>
       </c>
       <c r="E186" s="1">
         <v>0.86699999999999999</v>
@@ -4396,16 +4381,16 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" t="s">
         <v>37</v>
-      </c>
-      <c r="D187" t="s">
-        <v>38</v>
       </c>
       <c r="E187" s="1">
         <v>0.92500000000000004</v>
@@ -4425,16 +4410,16 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" t="s">
         <v>41</v>
-      </c>
-      <c r="D188" t="s">
-        <v>42</v>
       </c>
       <c r="E188" s="1">
         <v>0.71499999999999997</v>
@@ -4454,16 +4439,16 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
       </c>
       <c r="C189" t="s">
+        <v>44</v>
+      </c>
+      <c r="D189" t="s">
         <v>45</v>
-      </c>
-      <c r="D189" t="s">
-        <v>46</v>
       </c>
       <c r="E189" s="1">
         <v>0.77400000000000002</v>
@@ -4483,16 +4468,16 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
       </c>
       <c r="C190" t="s">
+        <v>46</v>
+      </c>
+      <c r="D190" t="s">
         <v>47</v>
-      </c>
-      <c r="D190" t="s">
-        <v>48</v>
       </c>
       <c r="E190" s="1">
         <v>0.77500000000000002</v>
@@ -4512,16 +4497,16 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" t="s">
         <v>72</v>
       </c>
-      <c r="B192" t="s">
-        <v>73</v>
-      </c>
       <c r="C192" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D192" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E192" s="1">
         <v>0.76400000000000001</v>
@@ -4529,7 +4514,7 @@
     </row>
     <row r="194" spans="1:5" ht="15.75">
       <c r="A194" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4540,10 +4525,10 @@
         <v>16</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D195" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E195" s="1">
         <v>0.64100000000000001</v>
@@ -4557,10 +4542,10 @@
         <v>16</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D196" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E196" s="1">
         <v>0.90300000000000002</v>
@@ -4574,10 +4559,10 @@
         <v>16</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D197" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E197" s="1">
         <v>0.86499999999999999</v>
@@ -4591,10 +4576,10 @@
         <v>16</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D198" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E198" s="1">
         <v>0.81299999999999994</v>
@@ -4602,16 +4587,16 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D199" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E199" s="1">
         <v>0.89500000000000002</v>
@@ -4619,16 +4604,16 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D200" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E200" s="1">
         <v>0.91900000000000004</v>
@@ -4636,16 +4621,16 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D201" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E201" s="1">
         <v>0.77100000000000002</v>
@@ -4653,16 +4638,16 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B202" t="s">
         <v>16</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D202" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E202" s="1">
         <v>0.81100000000000005</v>
@@ -4670,16 +4655,16 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D203" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E203" s="1">
         <v>0.51600000000000001</v>
@@ -4693,10 +4678,10 @@
         <v>16</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D204" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E204" s="1">
         <v>0.81200000000000006</v>
@@ -4704,16 +4689,16 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D205" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E205" s="1">
         <v>0.77600000000000002</v>
@@ -4721,16 +4706,16 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B206" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D206" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E206" s="1">
         <v>0.66100000000000003</v>
@@ -4738,16 +4723,16 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D207" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E207" s="1">
         <v>0.70699999999999996</v>
@@ -4758,7 +4743,7 @@
     </row>
     <row r="209" spans="1:5" ht="15.75">
       <c r="A209" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4769,10 +4754,10 @@
         <v>16</v>
       </c>
       <c r="C210" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D210" t="s">
         <v>81</v>
-      </c>
-      <c r="D210" t="s">
-        <v>82</v>
       </c>
       <c r="E210" s="1">
         <v>0.64400000000000002</v>
@@ -4786,10 +4771,10 @@
         <v>16</v>
       </c>
       <c r="C211" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D211" t="s">
         <v>81</v>
-      </c>
-      <c r="D211" t="s">
-        <v>82</v>
       </c>
       <c r="E211" s="1">
         <v>0.90100000000000002</v>
@@ -4803,10 +4788,10 @@
         <v>16</v>
       </c>
       <c r="C212" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D212" t="s">
         <v>81</v>
-      </c>
-      <c r="D212" t="s">
-        <v>82</v>
       </c>
       <c r="E212" s="1">
         <v>0.86</v>
@@ -4820,10 +4805,10 @@
         <v>16</v>
       </c>
       <c r="C213" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D213" t="s">
         <v>81</v>
-      </c>
-      <c r="D213" t="s">
-        <v>82</v>
       </c>
       <c r="E213" s="1">
         <v>0.81100000000000005</v>
@@ -4831,16 +4816,16 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
       </c>
       <c r="C214" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D214" t="s">
         <v>81</v>
-      </c>
-      <c r="D214" t="s">
-        <v>82</v>
       </c>
       <c r="E214" s="1">
         <v>0.88900000000000001</v>
@@ -4848,16 +4833,16 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B215" t="s">
         <v>16</v>
       </c>
       <c r="C215" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215" t="s">
         <v>81</v>
-      </c>
-      <c r="D215" t="s">
-        <v>82</v>
       </c>
       <c r="E215" s="1">
         <v>0.91600000000000004</v>
@@ -4865,16 +4850,16 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B216" t="s">
         <v>16</v>
       </c>
       <c r="C216" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D216" t="s">
         <v>81</v>
-      </c>
-      <c r="D216" t="s">
-        <v>82</v>
       </c>
       <c r="E216" s="1">
         <v>0.77200000000000002</v>
@@ -4882,16 +4867,16 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B217" t="s">
         <v>16</v>
       </c>
       <c r="C217" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" t="s">
         <v>81</v>
-      </c>
-      <c r="D217" t="s">
-        <v>82</v>
       </c>
       <c r="E217" s="1">
         <v>0.80600000000000005</v>
@@ -4899,16 +4884,16 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B218" t="s">
         <v>16</v>
       </c>
       <c r="C218" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D218" t="s">
         <v>81</v>
-      </c>
-      <c r="D218" t="s">
-        <v>82</v>
       </c>
       <c r="E218" s="1">
         <v>0.51400000000000001</v>
@@ -4922,10 +4907,10 @@
         <v>16</v>
       </c>
       <c r="C219" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D219" t="s">
         <v>81</v>
-      </c>
-      <c r="D219" t="s">
-        <v>82</v>
       </c>
       <c r="E219" s="1">
         <v>0.81499999999999995</v>
@@ -4933,16 +4918,16 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B220" t="s">
         <v>16</v>
       </c>
       <c r="C220" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D220" t="s">
         <v>81</v>
-      </c>
-      <c r="D220" t="s">
-        <v>82</v>
       </c>
       <c r="E220" s="1">
         <v>0.77600000000000002</v>
@@ -4950,16 +4935,16 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B221" t="s">
         <v>16</v>
       </c>
       <c r="C221" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D221" t="s">
         <v>81</v>
-      </c>
-      <c r="D221" t="s">
-        <v>82</v>
       </c>
       <c r="E221" s="1">
         <v>0.66100000000000003</v>
@@ -4967,16 +4952,16 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B222" t="s">
         <v>16</v>
       </c>
       <c r="C222" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" t="s">
         <v>81</v>
-      </c>
-      <c r="D222" t="s">
-        <v>82</v>
       </c>
       <c r="E222" s="1">
         <v>0.71099999999999997</v>
@@ -4987,7 +4972,7 @@
     </row>
     <row r="224" spans="1:5" ht="15.75">
       <c r="A224" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4998,10 +4983,10 @@
         <v>16</v>
       </c>
       <c r="C225" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D225" t="s">
         <v>84</v>
-      </c>
-      <c r="D225" t="s">
-        <v>85</v>
       </c>
       <c r="E225" s="1">
         <v>0.71599999999999997</v>
@@ -5015,10 +5000,10 @@
         <v>16</v>
       </c>
       <c r="C226" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D226" t="s">
         <v>84</v>
-      </c>
-      <c r="D226" t="s">
-        <v>85</v>
       </c>
       <c r="E226" s="1">
         <v>0.90600000000000003</v>
@@ -5032,10 +5017,10 @@
         <v>16</v>
       </c>
       <c r="C227" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D227" t="s">
         <v>84</v>
-      </c>
-      <c r="D227" t="s">
-        <v>85</v>
       </c>
       <c r="E227" s="1">
         <v>0.85699999999999998</v>
@@ -5049,10 +5034,10 @@
         <v>16</v>
       </c>
       <c r="C228" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D228" t="s">
         <v>84</v>
-      </c>
-      <c r="D228" t="s">
-        <v>85</v>
       </c>
       <c r="E228" s="1">
         <v>0.81599999999999995</v>
@@ -5060,16 +5045,16 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B229" t="s">
         <v>16</v>
       </c>
       <c r="C229" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D229" t="s">
         <v>84</v>
-      </c>
-      <c r="D229" t="s">
-        <v>85</v>
       </c>
       <c r="E229" s="1">
         <v>0.88300000000000001</v>
@@ -5077,16 +5062,16 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B230" t="s">
         <v>16</v>
       </c>
       <c r="C230" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D230" t="s">
         <v>84</v>
-      </c>
-      <c r="D230" t="s">
-        <v>85</v>
       </c>
       <c r="E230" s="1">
         <v>0.92100000000000004</v>
@@ -5094,16 +5079,16 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B231" t="s">
         <v>16</v>
       </c>
       <c r="C231" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D231" t="s">
         <v>84</v>
-      </c>
-      <c r="D231" t="s">
-        <v>85</v>
       </c>
       <c r="E231" s="1">
         <v>0.79200000000000004</v>
@@ -5111,16 +5096,16 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B232" t="s">
         <v>16</v>
       </c>
       <c r="C232" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D232" t="s">
         <v>84</v>
-      </c>
-      <c r="D232" t="s">
-        <v>85</v>
       </c>
       <c r="E232" s="1">
         <v>0.57099999999999995</v>
@@ -5128,16 +5113,16 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B233" t="s">
         <v>16</v>
       </c>
       <c r="C233" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D233" t="s">
         <v>84</v>
-      </c>
-      <c r="D233" t="s">
-        <v>85</v>
       </c>
       <c r="E233" s="1">
         <v>0.499</v>
@@ -5151,10 +5136,10 @@
         <v>16</v>
       </c>
       <c r="C234" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D234" t="s">
         <v>84</v>
-      </c>
-      <c r="D234" t="s">
-        <v>85</v>
       </c>
       <c r="E234" s="1">
         <v>0.76300000000000001</v>
@@ -5162,16 +5147,16 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
       </c>
       <c r="C235" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D235" t="s">
         <v>84</v>
-      </c>
-      <c r="D235" t="s">
-        <v>85</v>
       </c>
       <c r="E235" s="1">
         <v>0.67900000000000005</v>
@@ -5179,16 +5164,16 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
       </c>
       <c r="C236" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D236" t="s">
         <v>84</v>
-      </c>
-      <c r="D236" t="s">
-        <v>85</v>
       </c>
       <c r="E236" s="1">
         <v>0.61</v>
@@ -5196,16 +5181,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
       </c>
       <c r="C237" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D237" t="s">
         <v>84</v>
-      </c>
-      <c r="D237" t="s">
-        <v>85</v>
       </c>
       <c r="E237" s="1">
         <v>0.54100000000000004</v>
@@ -5213,12 +5198,12 @@
     </row>
     <row r="239" spans="1:5" ht="15.75">
       <c r="A239" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75">
       <c r="A240" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5229,22 +5214,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="10.796875" customWidth="1"/>
+    <col min="2" max="16" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="42.75">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="42.75">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5258,48 +5243,45 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>0.75800000000000001</v>
@@ -5340,12 +5322,11 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4">
         <v>0.78300000000000003</v>
@@ -5386,14 +5367,13 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="1">
+      <c r="Q3" s="1">
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4">
         <v>0.78</v>
@@ -5434,12 +5414,11 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4">
         <v>0.80200000000000005</v>
@@ -5479,17 +5458,16 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
+      <c r="P5" s="4">
         <v>0.61799999999999999</v>
       </c>
-      <c r="R5" s="1">
+      <c r="Q5" s="1">
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4">
         <v>0.70699999999999996</v>
@@ -5530,12 +5508,11 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4">
         <v>0.72799999999999998</v>
@@ -5576,14 +5553,13 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="1">
+      <c r="Q7" s="1">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4">
         <v>0.67300000000000004</v>
@@ -5624,12 +5600,11 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4">
         <v>0.67800000000000005</v>
@@ -5670,14 +5645,13 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="1">
+      <c r="Q9" s="1">
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4">
         <v>0.76300000000000001</v>
@@ -5718,12 +5692,11 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4">
         <v>0.74099999999999999</v>
@@ -5764,14 +5737,13 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="1">
+      <c r="Q11" s="1">
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4">
         <v>0.61299999999999999</v>
@@ -5796,11 +5768,10 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:18">
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4">
         <v>0.68300000000000005</v>
@@ -5825,11 +5796,10 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4">
         <v>0.81</v>
@@ -5872,11 +5842,10 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4">
         <v>0.80700000000000005</v>
@@ -5919,11 +5888,10 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4">
         <v>0.55000000000000004</v>
@@ -5966,11 +5934,10 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4">
         <v>0.81</v>
@@ -6011,11 +5978,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4">
         <v>0.80700000000000005</v>
@@ -6056,11 +6022,10 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="4">
         <v>0.55000000000000004</v>
@@ -6101,11 +6066,10 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3">
         <v>0.64100000000000001</v>
@@ -6146,13 +6110,13 @@
       <c r="N20" s="3">
         <v>0.70699999999999996</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="P20" s="4">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:16">
       <c r="A21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="3">
         <v>0.64400000000000002</v>
@@ -6194,9 +6158,9 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:16">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3">
         <v>0.71599999999999997</v>
@@ -6238,24 +6202,24 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:16">
       <c r="B28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="B29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:14">
@@ -6272,31 +6236,31 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
         <v>27</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>28</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>29</v>
-      </c>
-      <c r="J33" t="s">
-        <v>30</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
       </c>
       <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
         <v>31</v>
       </c>
-      <c r="M33" t="s">
-        <v>32</v>
-      </c>
       <c r="N33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:14">
@@ -6315,9 +6279,9 @@
       <c r="N34" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:R22">
-    <cfRule type="top10" dxfId="0" priority="3" percent="1" rank="3"/>
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B2:Q22">
+    <cfRule type="top10" dxfId="0" priority="5" percent="1" rank="3"/>
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -5220,7 +5220,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EE4441CE-8ED3-447F-8A44-1FB5890D87E5}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEF709F7-E9C7-45AA-8236-44175288FEC7}"/>
   <bookViews>
     <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="89">
   <si>
     <t>ModelType</t>
   </si>
@@ -270,32 +270,6 @@
   </si>
   <si>
     <t>Coiflet2 Wavelet w/4 levels, T2 second, Variance, Subbands, but no entropy</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WaveletsV2 (Debauchies4,  4 Level, T 2s, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>no entr.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>FeaturesWavelets_coif2_Lvl4_T2.mat</t>
@@ -344,7 +318,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">WaveletsV2 (Debauchies4,  4 Level, T 2s, </t>
+      <t xml:space="preserve">WaveletsV2 (Coiflet2,  4 Level, T 2s, </t>
     </r>
     <r>
       <rPr>
@@ -365,7 +339,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) Var, Sub</t>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -1257,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J240"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -4983,10 +4957,10 @@
         <v>16</v>
       </c>
       <c r="C225" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D225" t="s">
         <v>83</v>
-      </c>
-      <c r="D225" t="s">
-        <v>84</v>
       </c>
       <c r="E225" s="1">
         <v>0.71599999999999997</v>
@@ -5000,10 +4974,10 @@
         <v>16</v>
       </c>
       <c r="C226" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D226" t="s">
         <v>83</v>
-      </c>
-      <c r="D226" t="s">
-        <v>84</v>
       </c>
       <c r="E226" s="1">
         <v>0.90600000000000003</v>
@@ -5017,10 +4991,10 @@
         <v>16</v>
       </c>
       <c r="C227" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D227" t="s">
         <v>83</v>
-      </c>
-      <c r="D227" t="s">
-        <v>84</v>
       </c>
       <c r="E227" s="1">
         <v>0.85699999999999998</v>
@@ -5034,10 +5008,10 @@
         <v>16</v>
       </c>
       <c r="C228" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D228" t="s">
         <v>83</v>
-      </c>
-      <c r="D228" t="s">
-        <v>84</v>
       </c>
       <c r="E228" s="1">
         <v>0.81599999999999995</v>
@@ -5051,10 +5025,10 @@
         <v>16</v>
       </c>
       <c r="C229" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D229" t="s">
         <v>83</v>
-      </c>
-      <c r="D229" t="s">
-        <v>84</v>
       </c>
       <c r="E229" s="1">
         <v>0.88300000000000001</v>
@@ -5068,10 +5042,10 @@
         <v>16</v>
       </c>
       <c r="C230" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D230" t="s">
         <v>83</v>
-      </c>
-      <c r="D230" t="s">
-        <v>84</v>
       </c>
       <c r="E230" s="1">
         <v>0.92100000000000004</v>
@@ -5085,10 +5059,10 @@
         <v>16</v>
       </c>
       <c r="C231" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D231" t="s">
         <v>83</v>
-      </c>
-      <c r="D231" t="s">
-        <v>84</v>
       </c>
       <c r="E231" s="1">
         <v>0.79200000000000004</v>
@@ -5102,10 +5076,10 @@
         <v>16</v>
       </c>
       <c r="C232" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D232" t="s">
         <v>83</v>
-      </c>
-      <c r="D232" t="s">
-        <v>84</v>
       </c>
       <c r="E232" s="1">
         <v>0.57099999999999995</v>
@@ -5119,10 +5093,10 @@
         <v>16</v>
       </c>
       <c r="C233" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D233" t="s">
         <v>83</v>
-      </c>
-      <c r="D233" t="s">
-        <v>84</v>
       </c>
       <c r="E233" s="1">
         <v>0.499</v>
@@ -5136,10 +5110,10 @@
         <v>16</v>
       </c>
       <c r="C234" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D234" t="s">
         <v>83</v>
-      </c>
-      <c r="D234" t="s">
-        <v>84</v>
       </c>
       <c r="E234" s="1">
         <v>0.76300000000000001</v>
@@ -5153,10 +5127,10 @@
         <v>16</v>
       </c>
       <c r="C235" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D235" t="s">
         <v>83</v>
-      </c>
-      <c r="D235" t="s">
-        <v>84</v>
       </c>
       <c r="E235" s="1">
         <v>0.67900000000000005</v>
@@ -5170,10 +5144,10 @@
         <v>16</v>
       </c>
       <c r="C236" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D236" t="s">
         <v>83</v>
-      </c>
-      <c r="D236" t="s">
-        <v>84</v>
       </c>
       <c r="E236" s="1">
         <v>0.61</v>
@@ -5187,10 +5161,10 @@
         <v>16</v>
       </c>
       <c r="C237" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D237" t="s">
         <v>83</v>
-      </c>
-      <c r="D237" t="s">
-        <v>84</v>
       </c>
       <c r="E237" s="1">
         <v>0.54100000000000004</v>
@@ -5198,12 +5172,12 @@
     </row>
     <row r="239" spans="1:5" ht="15.75">
       <c r="A239" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75">
       <c r="A240" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5220,7 +5194,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
@@ -5768,6 +5742,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
@@ -5796,6 +5771,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
@@ -5842,6 +5818,7 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="P14" s="4"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
@@ -5888,6 +5865,7 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="P15" s="4"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
@@ -5934,8 +5912,9 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -5978,8 +5957,9 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -6022,8 +6002,9 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -6066,158 +6047,167 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="3">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1">
         <v>0.64100000000000001</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>0.90300000000000002</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>0.86499999999999999</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>0.81299999999999994</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>0.77100000000000002</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>0.51600000000000001</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>0.70699999999999996</v>
       </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="4">
         <v>0.76400000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="3">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0.71099999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>0.71599999999999997</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>0.92100000000000004</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>0.57099999999999995</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>0.499</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>0.76300000000000001</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>0.67900000000000005</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>0.61</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="B28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="B29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="B31" t="s">
         <v>70</v>
       </c>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/ProjectDir/EnvNoiseDetector/data/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="114_{CCE046F7-4B59-4875-AA44-F1D86BAF471B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEF709F7-E9C7-45AA-8236-44175288FEC7}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="465" windowWidth="15975" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="22000" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="88">
   <si>
     <t>ModelType</t>
   </si>
@@ -273,42 +272,6 @@
   </si>
   <si>
     <t>FeaturesWavelets_coif2_Lvl4_T2.mat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didn't have time to do the latter one with all features, MATLAB crashed and takes 2 hours </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Takeaway: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve">This method for feature extraction works better as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t>tblock</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)_x0000_"/>
-      </rPr>
-      <t xml:space="preserve"> increases</t>
-    </r>
   </si>
   <si>
     <t>WaveletsV2 (Coiflet2,  4 Level, T 1s) Var, Sub, Entr</t>
@@ -342,15 +305,18 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Coiflet2 Wavelet w/4 levels, T2 second, Variance, Subbands, and entropy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,19 +467,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)_x0000_"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1228,23 +1181,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.59765625" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" style="1"/>
-    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1255,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1284,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1330,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1406,7 +1359,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +1376,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1393,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1457,7 +1410,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1474,7 +1427,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1491,7 +1444,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1461,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1478,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1542,7 +1495,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1559,7 +1512,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1576,7 +1529,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1593,7 +1546,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1610,7 +1563,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1627,7 +1580,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1644,7 +1597,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1673,7 +1626,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1643,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1707,7 +1660,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1724,7 +1677,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1741,7 +1694,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1758,7 +1711,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1728,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1792,7 +1745,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1809,7 +1762,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1826,7 +1779,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1843,7 +1796,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1860,7 +1813,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +1842,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1906,7 +1859,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1923,7 +1876,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1940,7 +1893,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +1910,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1974,7 +1927,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1991,7 +1944,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +1961,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2025,7 +1978,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2042,7 +1995,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2059,7 +2012,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2076,7 +2029,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2105,7 +2058,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2122,7 +2075,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2139,7 +2092,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2156,7 +2109,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2126,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2143,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2160,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2224,7 +2177,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2241,7 +2194,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2258,7 +2211,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2275,7 +2228,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2292,7 +2245,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2321,7 +2274,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2338,7 +2291,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2355,7 +2308,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2372,7 +2325,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2392,7 +2345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2362,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2426,7 +2379,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2443,7 +2396,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2413,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2477,7 +2430,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2506,7 +2459,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2523,7 +2476,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2540,7 +2493,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2557,7 +2510,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2574,7 +2527,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2591,7 +2544,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2608,7 +2561,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2625,7 +2578,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2642,7 +2595,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2659,7 +2612,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2676,7 +2629,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +2646,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2722,7 +2675,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2739,7 +2692,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2756,7 +2709,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2773,7 +2726,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2790,7 +2743,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2807,7 +2760,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2824,7 +2777,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2841,7 +2794,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2858,7 +2811,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2875,7 +2828,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2892,7 +2845,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2909,7 +2862,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2938,7 +2891,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2955,7 +2908,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -2972,7 +2925,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -2989,7 +2942,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3006,7 +2959,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3023,7 +2976,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3040,7 +2993,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3057,7 +3010,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3074,7 +3027,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3091,7 +3044,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3108,7 +3061,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3125,7 +3078,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3142,7 +3095,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3159,7 +3112,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3176,7 +3129,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3193,7 +3146,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3210,7 +3163,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3227,7 +3180,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3244,7 +3197,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3261,7 +3214,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3278,7 +3231,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3295,7 +3248,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3312,7 +3265,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3329,7 +3282,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3346,7 +3299,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3363,7 +3316,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3380,7 +3333,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3409,7 +3362,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3426,7 +3379,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3443,7 +3396,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3460,7 +3413,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3430,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +3447,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3511,7 +3464,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3528,7 +3481,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3545,7 +3498,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3562,7 +3515,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3579,7 +3532,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3596,7 +3549,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3613,7 +3566,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3630,7 +3583,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3659,7 +3612,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3676,7 +3629,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3693,7 +3646,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3710,7 +3663,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3727,7 +3680,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3744,7 +3697,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3761,7 +3714,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3778,7 +3731,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3795,7 +3748,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3812,7 +3765,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3841,7 +3794,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +3811,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3875,7 +3828,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3892,7 +3845,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -3909,7 +3862,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -3926,7 +3879,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3943,7 +3896,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -3960,7 +3913,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -3977,7 +3930,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +3947,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4011,7 +3964,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4028,7 +3981,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4057,7 +4010,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4074,7 +4027,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4091,7 +4044,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4108,7 +4061,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4125,7 +4078,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4142,7 +4095,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4159,7 +4112,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4176,7 +4129,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4193,7 +4146,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4210,7 +4163,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4227,7 +4180,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4244,7 +4197,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4273,7 +4226,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4290,7 +4243,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4307,7 +4260,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4324,7 +4277,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>75</v>
       </c>
@@ -4353,7 +4306,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>75</v>
       </c>
@@ -4382,7 +4335,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>75</v>
       </c>
@@ -4411,7 +4364,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>75</v>
       </c>
@@ -4440,7 +4393,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>75</v>
       </c>
@@ -4469,7 +4422,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>71</v>
       </c>
@@ -4486,12 +4439,12 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75">
+    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4508,7 +4461,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4525,7 +4478,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4542,7 +4495,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4559,7 +4512,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4576,7 +4529,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4593,7 +4546,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4610,7 +4563,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4627,7 +4580,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4644,7 +4597,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4661,7 +4614,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4678,7 +4631,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4695,7 +4648,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -4712,15 +4665,15 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75">
+    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4737,7 +4690,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4754,7 +4707,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4771,7 +4724,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4788,7 +4741,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4805,7 +4758,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4822,7 +4775,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -4839,7 +4792,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -4856,7 +4809,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4873,7 +4826,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -4890,7 +4843,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -4907,7 +4860,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -4924,7 +4877,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>61</v>
       </c>
@@ -4941,15 +4894,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:5" ht="15.75">
+    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -4957,7 +4910,7 @@
         <v>16</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D225" t="s">
         <v>83</v>
@@ -4966,7 +4919,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -4974,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D226" t="s">
         <v>83</v>
@@ -4983,7 +4936,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -4991,7 +4944,7 @@
         <v>16</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D227" t="s">
         <v>83</v>
@@ -5000,7 +4953,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -5008,7 +4961,7 @@
         <v>16</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D228" t="s">
         <v>83</v>
@@ -5017,7 +4970,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -5025,7 +4978,7 @@
         <v>16</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D229" t="s">
         <v>83</v>
@@ -5034,7 +4987,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5042,7 +4995,7 @@
         <v>16</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D230" t="s">
         <v>83</v>
@@ -5051,7 +5004,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5059,7 +5012,7 @@
         <v>16</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D231" t="s">
         <v>83</v>
@@ -5068,7 +5021,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5076,7 +5029,7 @@
         <v>16</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D232" t="s">
         <v>83</v>
@@ -5085,7 +5038,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5093,7 +5046,7 @@
         <v>16</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D233" t="s">
         <v>83</v>
@@ -5102,7 +5055,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5110,7 +5063,7 @@
         <v>16</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D234" t="s">
         <v>83</v>
@@ -5119,7 +5072,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5127,7 +5080,7 @@
         <v>16</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D235" t="s">
         <v>83</v>
@@ -5136,7 +5089,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5144,7 +5097,7 @@
         <v>16</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D236" t="s">
         <v>83</v>
@@ -5153,7 +5106,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -5161,7 +5114,7 @@
         <v>16</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D237" t="s">
         <v>83</v>
@@ -5170,14 +5123,230 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75">
+    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15.75">
-      <c r="A240" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>15</v>
+      </c>
+      <c r="B240" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D240" t="s">
+        <v>83</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D241" t="s">
+        <v>83</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D242" t="s">
+        <v>83</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D243" t="s">
+        <v>83</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D244" t="s">
+        <v>83</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>26</v>
+      </c>
+      <c r="B245" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D245" t="s">
+        <v>83</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D246" t="s">
+        <v>83</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>28</v>
+      </c>
+      <c r="B247" t="s">
+        <v>16</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D247" t="s">
+        <v>83</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248" t="s">
+        <v>16</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D248" t="s">
+        <v>83</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" t="s">
+        <v>16</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D249" t="s">
+        <v>83</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>30</v>
+      </c>
+      <c r="B250" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D250" t="s">
+        <v>83</v>
+      </c>
+      <c r="E250" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>31</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D251" t="s">
+        <v>83</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>61</v>
+      </c>
+      <c r="B252" t="s">
+        <v>16</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D252" t="s">
+        <v>83</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -5187,23 +5356,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="10.796875" customWidth="1"/>
+    <col min="2" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="42.75">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5253,7 +5422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -5298,7 +5467,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5345,7 +5514,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5390,7 +5559,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -5439,7 +5608,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5484,7 +5653,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5531,7 +5700,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5576,7 +5745,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -5623,7 +5792,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5668,7 +5837,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -5715,7 +5884,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5744,7 +5913,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5773,7 +5942,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5820,7 +5989,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -5867,7 +6036,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5914,7 +6083,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -5959,7 +6128,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -6004,7 +6173,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -6049,9 +6218,9 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1">
         <v>0.64100000000000001</v>
@@ -6098,9 +6267,9 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1">
         <v>0.64400000000000002</v>
@@ -6145,9 +6314,9 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1">
         <v>0.71599999999999997</v>
@@ -6192,27 +6361,27 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>15</v>
       </c>
@@ -6253,7 +6422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/ProjectDir/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_3F0B10B738445A2349E55591072AFD6EEF2C4A61" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DA498D43-ECD6-4387-BF1D-55DE8C264275}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="22000" windowHeight="13380"/>
+    <workbookView xWindow="3204" yWindow="456" windowWidth="21996" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="89">
   <si>
     <t>ModelType</t>
   </si>
@@ -308,11 +309,14 @@
   <si>
     <t>Coiflet2 Wavelet w/4 levels, T2 second, Variance, Subbands, and entropy</t>
   </si>
+  <si>
+    <t>WaveletsV2 (Coiflet2,  4 Level, T 2s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1181,23 +1185,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E240" sqref="E240:E252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1800,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2109,7 +2113,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2362,7 +2366,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2692,7 +2696,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3095,7 +3099,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3248,7 +3252,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3481,7 +3485,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3498,7 +3502,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -3862,7 +3866,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4027,7 +4031,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4061,7 +4065,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4095,7 +4099,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4197,7 +4201,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>75</v>
       </c>
@@ -4306,7 +4310,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>75</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>75</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>75</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>75</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>71</v>
       </c>
@@ -4439,12 +4443,12 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4478,7 +4482,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4546,7 +4550,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -4665,15 +4669,15 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4690,7 +4694,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4724,7 +4728,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4758,7 +4762,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -4809,7 +4813,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4826,7 +4830,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>61</v>
       </c>
@@ -4894,15 +4898,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -4970,7 +4974,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5055,7 +5059,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5106,7 +5110,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -5123,12 +5127,12 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5136,7 +5140,7 @@
         <v>16</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D240" t="s">
         <v>83</v>
@@ -5145,7 +5149,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>16</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D241" t="s">
         <v>83</v>
@@ -5162,7 +5166,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>16</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D242" t="s">
         <v>83</v>
@@ -5179,7 +5183,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>16</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D243" t="s">
         <v>83</v>
@@ -5196,7 +5200,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -5204,7 +5208,7 @@
         <v>16</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D244" t="s">
         <v>83</v>
@@ -5213,7 +5217,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>16</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D245" t="s">
         <v>83</v>
@@ -5230,7 +5234,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D246" t="s">
         <v>83</v>
@@ -5247,7 +5251,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -5255,7 +5259,7 @@
         <v>16</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D247" t="s">
         <v>83</v>
@@ -5264,7 +5268,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>16</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D248" t="s">
         <v>83</v>
@@ -5281,7 +5285,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>16</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D249" t="s">
         <v>83</v>
@@ -5298,7 +5302,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>16</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D250" t="s">
         <v>83</v>
@@ -5315,7 +5319,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>16</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D251" t="s">
         <v>83</v>
@@ -5332,7 +5336,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>61</v>
       </c>
@@ -5340,7 +5344,7 @@
         <v>16</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D252" t="s">
         <v>83</v>
@@ -5356,23 +5360,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="10.83203125" customWidth="1"/>
+    <col min="2" max="16" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5422,7 +5426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -5467,7 +5471,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5559,7 +5563,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5653,7 +5657,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5700,7 +5704,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5745,7 +5749,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5837,7 +5841,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5913,7 +5917,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5942,7 +5946,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5989,7 +5993,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -6036,7 +6040,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -6083,7 +6087,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -6128,7 +6132,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -6173,7 +6177,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -6218,7 +6222,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
@@ -6267,178 +6271,225 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>0.64400000000000002</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>0.86</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <v>0.80600000000000005</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="1">
         <v>0.81499999999999995</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N22" s="1">
         <v>0.71099999999999997</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.499</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.54100000000000004</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F31" t="s">
         <v>23</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G31" t="s">
         <v>26</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H31" t="s">
         <v>27</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I31" t="s">
         <v>28</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J31" t="s">
         <v>29</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K31" t="s">
         <v>22</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L31" t="s">
         <v>30</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M31" t="s">
         <v>31</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q22">
+  <conditionalFormatting sqref="B2:Q23">
     <cfRule type="top10" dxfId="0" priority="5" percent="1" rank="3"/>
     <cfRule type="colorScale" priority="6">
       <colorScale>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_3F0B10B738445A2349E55591072AFD6EEF2C4A61" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DA498D43-ECD6-4387-BF1D-55DE8C264275}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_3F0B10B738445A2349E55591072AFD6EEF2C4A61" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2D939E17-2C9A-402C-8FB0-D8CD806C28BB}"/>
   <bookViews>
     <workbookView xWindow="3204" yWindow="456" windowWidth="21996" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="89">
   <si>
     <t>ModelType</t>
   </si>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240:E252"/>
+    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5363,11 +5363,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6430,47 +6430,6 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,8 +6449,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q23">
-    <cfRule type="top10" dxfId="0" priority="5" percent="1" rank="3"/>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="top10" dxfId="0" priority="7" percent="1" rank="3"/>
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5367,7 +5367,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_3F0B10B738445A2349E55591072AFD6EEF2C4A61" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2D939E17-2C9A-402C-8FB0-D8CD806C28BB}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_3F0B10B738445A2349E55591072AFD6EEF2C4A61" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FCF857E5-3278-4A30-AEBB-8830F2DA8E2F}"/>
   <bookViews>
     <workbookView xWindow="3204" yWindow="456" windowWidth="21996" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="89">
   <si>
     <t>ModelType</t>
   </si>
@@ -1186,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A252" sqref="A252"/>
+    <sheetView topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5353,6 +5353,23 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>71</v>
+      </c>
+      <c r="B253" t="s">
+        <v>72</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D253" t="s">
+        <v>83</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5367,7 +5384,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6315,7 +6332,9 @@
         <v>0.7</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4">
+        <v>0.72099999999999997</v>
+      </c>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/EnvNoiseDetector/data/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_3F0B10B738445A2349E55591072AFD6EEF2C4A61" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FCF857E5-3278-4A30-AEBB-8830F2DA8E2F}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="456" windowWidth="21996" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="700" windowWidth="22000" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="93">
   <si>
     <t>ModelType</t>
   </si>
@@ -312,11 +311,23 @@
   <si>
     <t>WaveletsV2 (Coiflet2,  4 Level, T 2s)</t>
   </si>
+  <si>
+    <t>Haar Wavelet w/4 levels, T2 second, Variance, Subbands, and entropy</t>
+  </si>
+  <si>
+    <t>WaveletsV2 (Haar,  4 Level, T 2s)</t>
+  </si>
+  <si>
+    <t>not present</t>
+  </si>
+  <si>
+    <t>WaveletsV2(Haar, 4 Level, T 1s) Var,Sub,Entr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1185,23 +1196,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J269"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G259" sqref="G259"/>
+    <sheetView topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E256" sqref="E256:E268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1270,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1299,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1374,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1408,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1414,7 +1425,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1459,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1476,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1493,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1510,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1516,7 +1527,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1561,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1567,7 +1578,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1601,7 +1612,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1698,7 +1709,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1726,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1760,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1783,7 +1794,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1811,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1817,7 +1828,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +1857,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1863,7 +1874,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1880,7 +1891,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1897,7 +1908,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1914,7 +1925,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1931,7 +1942,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1965,7 +1976,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1982,7 +1993,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +2010,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +2027,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2033,7 +2044,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2062,7 +2073,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2079,7 +2090,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2096,7 +2107,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2113,7 +2124,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2130,7 +2141,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2181,7 +2192,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2198,7 +2209,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2215,7 +2226,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2232,7 +2243,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2295,7 +2306,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2329,7 +2340,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2349,7 +2360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2366,7 +2377,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2383,7 +2394,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2400,7 +2411,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2463,7 +2474,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2480,7 +2491,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2508,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2514,7 +2525,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2548,7 +2559,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2593,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2599,7 +2610,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2616,7 +2627,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2633,7 +2644,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2679,7 +2690,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2713,7 +2724,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2730,7 +2741,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2747,7 +2758,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2764,7 +2775,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2781,7 +2792,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2798,7 +2809,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2849,7 +2860,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2866,7 +2877,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2895,7 +2906,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2912,7 +2923,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -2929,7 +2940,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -2946,7 +2957,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -2963,7 +2974,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2980,7 +2991,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3031,7 +3042,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3048,7 +3059,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3065,7 +3076,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3099,7 +3110,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3116,7 +3127,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3133,7 +3144,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3150,7 +3161,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3167,7 +3178,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3184,7 +3195,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3201,7 +3212,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3218,7 +3229,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3235,7 +3246,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3252,7 +3263,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3269,7 +3280,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3286,7 +3297,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3303,7 +3314,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3320,7 +3331,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3337,7 +3348,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3366,7 +3377,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3383,7 +3394,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3400,7 +3411,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3417,7 +3428,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3451,7 +3462,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3468,7 +3479,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3485,7 +3496,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3502,7 +3513,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3536,7 +3547,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3570,7 +3581,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3616,7 +3627,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3633,7 +3644,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3650,7 +3661,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3667,7 +3678,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3701,7 +3712,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3718,7 +3729,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3735,7 +3746,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3752,7 +3763,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3769,7 +3780,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3798,7 +3809,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3832,7 +3843,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3849,7 +3860,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -3866,7 +3877,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3900,7 +3911,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -3934,7 +3945,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -3951,7 +3962,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -3968,7 +3979,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4014,7 +4025,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4031,7 +4042,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4048,7 +4059,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4065,7 +4076,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4082,7 +4093,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4099,7 +4110,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4116,7 +4127,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4133,7 +4144,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4150,7 +4161,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4167,7 +4178,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4184,7 +4195,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4247,7 +4258,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4264,7 +4275,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4281,7 +4292,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>75</v>
       </c>
@@ -4310,7 +4321,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>75</v>
       </c>
@@ -4339,7 +4350,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>75</v>
       </c>
@@ -4368,7 +4379,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>75</v>
       </c>
@@ -4397,7 +4408,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>75</v>
       </c>
@@ -4426,7 +4437,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>71</v>
       </c>
@@ -4443,12 +4454,12 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4465,7 +4476,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4482,7 +4493,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4499,7 +4510,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4516,7 +4527,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4550,7 +4561,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4567,7 +4578,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4584,7 +4595,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4601,7 +4612,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4618,7 +4629,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4635,7 +4646,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4652,7 +4663,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>61</v>
       </c>
@@ -4669,15 +4680,15 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C208" s="6"/>
     </row>
-    <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4694,7 +4705,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4711,7 +4722,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4728,7 +4739,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4745,7 +4756,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4762,7 +4773,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4779,7 +4790,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -4796,7 +4807,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4830,7 +4841,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -4847,7 +4858,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -4881,7 +4892,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>61</v>
       </c>
@@ -4898,15 +4909,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C223" s="6"/>
     </row>
-    <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -4923,7 +4934,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -4940,7 +4951,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -4957,7 +4968,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -4974,7 +4985,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -4991,7 +5002,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5008,7 +5019,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5025,7 +5036,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5042,7 +5053,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5059,7 +5070,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5076,7 +5087,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5093,7 +5104,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5110,7 +5121,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -5127,12 +5138,12 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5149,7 +5160,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -5166,7 +5177,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5183,7 +5194,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -5200,7 +5211,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -5217,7 +5228,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -5234,7 +5245,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -5251,7 +5262,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -5268,7 +5279,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -5285,7 +5296,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -5302,7 +5313,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5319,7 +5330,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -5336,7 +5347,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>61</v>
       </c>
@@ -5353,7 +5364,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>71</v>
       </c>
@@ -5369,6 +5380,235 @@
       <c r="E253" s="1">
         <v>0.72099999999999997</v>
       </c>
+    </row>
+    <row r="255" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>16</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D256" t="s">
+        <v>91</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>18</v>
+      </c>
+      <c r="B257" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D257" t="s">
+        <v>91</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D258" t="s">
+        <v>91</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D259" t="s">
+        <v>91</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D260" t="s">
+        <v>91</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>26</v>
+      </c>
+      <c r="B261" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D261" t="s">
+        <v>91</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D262" t="s">
+        <v>91</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>28</v>
+      </c>
+      <c r="B263" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D263" t="s">
+        <v>91</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>29</v>
+      </c>
+      <c r="B264" t="s">
+        <v>16</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D264" t="s">
+        <v>91</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" t="s">
+        <v>16</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D265" t="s">
+        <v>91</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>30</v>
+      </c>
+      <c r="B266" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D266" t="s">
+        <v>91</v>
+      </c>
+      <c r="E266" s="1">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D267" t="s">
+        <v>91</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>61</v>
+      </c>
+      <c r="B268" t="s">
+        <v>16</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D268" t="s">
+        <v>91</v>
+      </c>
+      <c r="E268" s="1">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C269" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5377,23 +5617,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="10.77734375" customWidth="1"/>
+    <col min="2" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5443,7 +5683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -5488,7 +5728,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5535,7 +5775,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5580,7 +5820,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -5629,7 +5869,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5674,7 +5914,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -5721,7 +5961,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5766,7 +6006,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -5813,7 +6053,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5858,7 +6098,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -5905,7 +6145,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5934,7 +6174,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5963,7 +6203,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -6010,7 +6250,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -6057,7 +6297,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -6104,7 +6344,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -6149,7 +6389,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -6194,7 +6434,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -6239,7 +6479,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
@@ -6288,7 +6528,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>88</v>
       </c>
@@ -6337,7 +6577,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
@@ -6384,90 +6624,140 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1">
-        <v>0.71599999999999997</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.77</v>
       </c>
       <c r="D23" s="1">
-        <v>0.85699999999999998</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.81599999999999995</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="F23" s="1">
-        <v>0.88300000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="H23" s="1">
-        <v>0.79200000000000004</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>0.57099999999999995</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.499</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="K23" s="1">
-        <v>0.76300000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="L23" s="1">
-        <v>0.67900000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>0.61</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q23">
+  <conditionalFormatting sqref="B2:Q24">
     <cfRule type="top10" dxfId="0" priority="7" percent="1" rank="3"/>
     <cfRule type="colorScale" priority="8">
       <colorScale>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="700" windowWidth="22000" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="7840" yWindow="760" windowWidth="19080" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="97">
   <si>
     <t>ModelType</t>
   </si>
@@ -323,6 +323,62 @@
   <si>
     <t>WaveletsV2(Haar, 4 Level, T 1s) Var,Sub,Entr</t>
   </si>
+  <si>
+    <t>Coiflet2 Wavelet w/2 levels, T2 second, Variance, Entropy, No subbands (as that only considers levels &gt; 2) (Total 7 Features)</t>
+  </si>
+  <si>
+    <t>FeaturesWavelets_coif2_Lvl2_T2.mat</t>
+  </si>
+  <si>
+    <t>WaveletsV2 (Coiflet2,  2 Level, T 2s)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WaveletsV2 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[7 Features]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Coiflet2, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Levels, T2s)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +533,15 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -825,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -835,6 +900,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -880,7 +948,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1197,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J269"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E256" sqref="E256:E268"/>
+    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271:E283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5610,6 +5690,232 @@
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C269" s="6"/>
     </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D271" t="s">
+        <v>94</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D272" t="s">
+        <v>94</v>
+      </c>
+      <c r="E272" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>19</v>
+      </c>
+      <c r="B273" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D273" t="s">
+        <v>94</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D274" t="s">
+        <v>94</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" t="s">
+        <v>16</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D275" t="s">
+        <v>94</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>26</v>
+      </c>
+      <c r="B276" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D276" t="s">
+        <v>94</v>
+      </c>
+      <c r="E276" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>27</v>
+      </c>
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D277" t="s">
+        <v>94</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>28</v>
+      </c>
+      <c r="B278" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D278" t="s">
+        <v>94</v>
+      </c>
+      <c r="E278" s="1">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D279" t="s">
+        <v>94</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D280" t="s">
+        <v>94</v>
+      </c>
+      <c r="E280" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>30</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D281" t="s">
+        <v>94</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>31</v>
+      </c>
+      <c r="B282" t="s">
+        <v>16</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" t="s">
+        <v>94</v>
+      </c>
+      <c r="E282" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>61</v>
+      </c>
+      <c r="B283" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D283" t="s">
+        <v>94</v>
+      </c>
+      <c r="E283" s="1">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5621,10 +5927,10 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6719,7 +7025,51 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -6758,8 +7108,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q24">
-    <cfRule type="top10" dxfId="0" priority="7" percent="1" rank="3"/>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="top10" dxfId="1" priority="9" percent="1" rank="3"/>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q25">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="760" windowWidth="19080" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="1400" yWindow="760" windowWidth="24200" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -948,19 +948,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -5926,11 +5914,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6879,9 +6867,11 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="4">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="Q21" s="1"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.88100000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -7108,7 +7098,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q24">
-    <cfRule type="top10" dxfId="1" priority="9" percent="1" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="9" percent="1" rank="3"/>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="760" windowWidth="24200" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="2440" yWindow="720" windowWidth="21720" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="98">
   <si>
     <t>ModelType</t>
   </si>
@@ -378,6 +378,9 @@
       </rPr>
       <t xml:space="preserve"> Levels, T2s)</t>
     </r>
+  </si>
+  <si>
+    <t>WaveletsV2 (Coiflet2,  4 Level, T 2s) with Hampel Filter</t>
   </si>
 </sst>
 </file>
@@ -5912,13 +5915,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6875,93 +6878,95 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1">
-        <v>0.64400000000000002</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>0.90100000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>0.86</v>
+        <v>0.875</v>
       </c>
       <c r="E22" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="L22" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="F22" s="1">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.77600000000000002</v>
-      </c>
       <c r="M22" s="1">
-        <v>0.66100000000000003</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>0.71099999999999997</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="1">
+        <v>0.93899999999999995</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
-        <v>0.53800000000000003</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>0.77</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>0.73099999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="E23" s="1">
-        <v>0.68700000000000006</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="F23" s="1">
-        <v>0.76400000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>0.71499999999999997</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>0.76400000000000001</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="J23" s="1">
-        <v>0.58699999999999997</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="K23" s="1">
-        <v>0.76100000000000001</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="L23" s="1">
-        <v>0.73899999999999999</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>0.70399999999999996</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>0.67100000000000004</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -6969,135 +6974,182 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1">
-        <v>0.71599999999999997</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.77</v>
       </c>
       <c r="D24" s="1">
-        <v>0.85699999999999998</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.81599999999999995</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="F24" s="1">
-        <v>0.88300000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="G24" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="H24" s="1">
-        <v>0.79200000000000004</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>0.57099999999999995</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.499</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="K24" s="1">
-        <v>0.76300000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="L24" s="1">
-        <v>0.67900000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>0.61</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.499</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>0.70099999999999996</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>0.89</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>0.84599999999999997</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="3">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>0.92300000000000004</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="3">
         <v>0.71799999999999997</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J26" s="3">
         <v>0.53900000000000003</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K26" s="3">
         <v>0.77700000000000002</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L26" s="3">
         <v>0.74</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M26" s="3">
         <v>0.61499999999999999</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N26" s="3">
         <v>0.73699999999999999</v>
       </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q24">
+  <conditionalFormatting sqref="B2:Q25">
     <cfRule type="top10" dxfId="0" priority="9" percent="1" rank="3"/>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -7108,7 +7160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q25">
+  <conditionalFormatting sqref="B2:Q26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_0F040333CFA77457E5572F2DD3C4CA04EA3661A9" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D8004AC1-B49B-4C85-A4A7-1346DC675666}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="720" windowWidth="21720" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="113">
   <si>
     <t>ModelType</t>
   </si>
@@ -170,9 +171,6 @@
   </si>
   <si>
     <t>featuresSNR6MFCC13featuresT1s.mat</t>
-  </si>
-  <si>
-    <t>SNR 6  1/3 Octaves T 1 s</t>
   </si>
   <si>
     <t>SNR6 FFT df 25 Hz</t>
@@ -382,11 +380,59 @@
   <si>
     <t>WaveletsV2 (Coiflet2,  4 Level, T 2s) with Hampel Filter</t>
   </si>
+  <si>
+    <t>Model Performance for SNR 6 dB</t>
+  </si>
+  <si>
+    <t>Cepstral 13 features T 1 s</t>
+  </si>
+  <si>
+    <t>Cepstral 13 features T 2 s</t>
+  </si>
+  <si>
+    <t>Cepstral 26 features T 1 s</t>
+  </si>
+  <si>
+    <t>Cepstral 26 features T 2 s</t>
+  </si>
+  <si>
+    <t>1/3 Octaves T 1 s</t>
+  </si>
+  <si>
+    <t>1/3 octaves T 2 s</t>
+  </si>
+  <si>
+    <t>Octaves T 1 s</t>
+  </si>
+  <si>
+    <t>Octaves T 2 s</t>
+  </si>
+  <si>
+    <t>MFCC 13 features</t>
+  </si>
+  <si>
+    <t>MFCC 13 features T 1 s</t>
+  </si>
+  <si>
+    <t>FFT df 25 Hz</t>
+  </si>
+  <si>
+    <t>FFT df 100 Hz</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram Bag of Features - 1s</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram Bag of Features - 3s</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram Bag of Features - 5s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -893,19 +939,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -951,7 +1007,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1267,23 +1329,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E271" sqref="E271:E283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="1"/>
+    <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1403,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1432,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1469,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1416,7 +1478,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1445,7 +1507,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1453,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1462,7 +1524,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1479,7 +1541,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1496,7 +1558,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1504,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1513,7 +1575,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1530,7 +1592,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1547,7 +1609,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +1626,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1581,7 +1643,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1660,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1677,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +1694,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1649,7 +1711,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1666,7 +1728,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1745,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1712,7 +1774,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1729,7 +1791,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1808,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1763,7 +1825,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1842,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1859,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1814,7 +1876,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1831,7 +1893,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1848,7 +1910,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1927,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1944,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1961,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +1990,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1945,7 +2007,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1962,7 +2024,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1979,7 +2041,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2058,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2013,7 +2075,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2092,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2109,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2126,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2081,7 +2143,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +2160,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2177,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2144,7 +2206,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2223,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2178,7 +2240,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2195,7 +2257,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2212,7 +2274,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2229,7 +2291,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2246,7 +2308,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2263,7 +2325,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2342,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2297,7 +2359,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2314,7 +2376,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2393,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +2422,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2377,7 +2439,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2394,7 +2456,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2411,12 +2473,12 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
         <v>71</v>
-      </c>
-      <c r="B67" t="s">
-        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -2428,10 +2490,10 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2510,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2465,7 +2527,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +2544,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2499,7 +2561,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2516,7 +2578,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2545,7 +2607,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +2624,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2579,7 +2641,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2596,7 +2658,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2613,7 +2675,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2630,7 +2692,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2647,7 +2709,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2726,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2681,7 +2743,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2698,7 +2760,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2715,7 +2777,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2732,7 +2794,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2761,7 +2823,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +2840,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2795,7 +2857,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2812,7 +2874,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2829,7 +2891,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2846,7 +2908,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2925,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2880,7 +2942,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2897,7 +2959,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2914,7 +2976,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +2993,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2948,7 +3010,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2977,7 +3039,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +3056,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3011,7 +3073,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3028,7 +3090,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3045,7 +3107,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3062,7 +3124,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +3141,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3096,7 +3158,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3175,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3130,7 +3192,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3147,7 +3209,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3164,7 +3226,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3181,7 +3243,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3198,7 +3260,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3215,7 +3277,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3232,7 +3294,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3249,7 +3311,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3266,7 +3328,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3283,7 +3345,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3300,7 +3362,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3317,7 +3379,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3334,7 +3396,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3351,7 +3413,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +3430,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3385,7 +3447,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3402,7 +3464,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3419,7 +3481,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3448,7 +3510,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3465,7 +3527,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3482,7 +3544,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3499,7 +3561,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +3578,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3533,7 +3595,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3550,7 +3612,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3567,7 +3629,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3584,7 +3646,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3601,7 +3663,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3618,7 +3680,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3697,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3652,7 +3714,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3669,7 +3731,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3698,7 +3760,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3715,7 +3777,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3723,16 +3785,16 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147" t="s">
         <v>63</v>
-      </c>
-      <c r="D147" t="s">
-        <v>64</v>
       </c>
       <c r="E147" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3740,16 +3802,16 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" t="s">
         <v>63</v>
-      </c>
-      <c r="D148" t="s">
-        <v>64</v>
       </c>
       <c r="E148" s="1">
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3757,16 +3819,16 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
+        <v>62</v>
+      </c>
+      <c r="D149" t="s">
         <v>63</v>
-      </c>
-      <c r="D149" t="s">
-        <v>64</v>
       </c>
       <c r="E149" s="1">
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3774,16 +3836,16 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" t="s">
         <v>63</v>
-      </c>
-      <c r="D150" t="s">
-        <v>64</v>
       </c>
       <c r="E150" s="1">
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3791,16 +3853,16 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" t="s">
         <v>63</v>
-      </c>
-      <c r="D151" t="s">
-        <v>64</v>
       </c>
       <c r="E151" s="1">
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3808,16 +3870,16 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D152" t="s">
         <v>63</v>
-      </c>
-      <c r="D152" t="s">
-        <v>64</v>
       </c>
       <c r="E152" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3825,16 +3887,16 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
+        <v>62</v>
+      </c>
+      <c r="D153" t="s">
         <v>63</v>
-      </c>
-      <c r="D153" t="s">
-        <v>64</v>
       </c>
       <c r="E153" s="1">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3842,16 +3904,16 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
+        <v>62</v>
+      </c>
+      <c r="D154" t="s">
         <v>63</v>
-      </c>
-      <c r="D154" t="s">
-        <v>64</v>
       </c>
       <c r="E154" s="1">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3859,10 +3921,10 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
+        <v>62</v>
+      </c>
+      <c r="D155" t="s">
         <v>63</v>
-      </c>
-      <c r="D155" t="s">
-        <v>64</v>
       </c>
       <c r="E155" s="1">
         <v>0.871</v>
@@ -3880,7 +3942,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3888,16 +3950,16 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
+        <v>62</v>
+      </c>
+      <c r="D156" t="s">
         <v>63</v>
-      </c>
-      <c r="D156" t="s">
-        <v>64</v>
       </c>
       <c r="E156" s="1">
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3905,16 +3967,16 @@
         <v>16</v>
       </c>
       <c r="C157" t="s">
+        <v>62</v>
+      </c>
+      <c r="D157" t="s">
         <v>63</v>
-      </c>
-      <c r="D157" t="s">
-        <v>64</v>
       </c>
       <c r="E157" s="1">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3922,16 +3984,16 @@
         <v>16</v>
       </c>
       <c r="C158" t="s">
+        <v>62</v>
+      </c>
+      <c r="D158" t="s">
         <v>63</v>
-      </c>
-      <c r="D158" t="s">
-        <v>64</v>
       </c>
       <c r="E158" s="1">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -3939,16 +4001,16 @@
         <v>16</v>
       </c>
       <c r="C160" t="s">
+        <v>64</v>
+      </c>
+      <c r="D160" t="s">
         <v>65</v>
-      </c>
-      <c r="D160" t="s">
-        <v>66</v>
       </c>
       <c r="E160" s="1">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -3956,16 +4018,16 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161" t="s">
         <v>65</v>
-      </c>
-      <c r="D161" t="s">
-        <v>66</v>
       </c>
       <c r="E161" s="1">
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3973,16 +4035,16 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
         <v>65</v>
-      </c>
-      <c r="D162" t="s">
-        <v>66</v>
       </c>
       <c r="E162" s="1">
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -3990,16 +4052,16 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" t="s">
         <v>65</v>
-      </c>
-      <c r="D163" t="s">
-        <v>66</v>
       </c>
       <c r="E163" s="1">
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -4007,16 +4069,16 @@
         <v>16</v>
       </c>
       <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" t="s">
         <v>65</v>
-      </c>
-      <c r="D164" t="s">
-        <v>66</v>
       </c>
       <c r="E164" s="1">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4024,16 +4086,16 @@
         <v>16</v>
       </c>
       <c r="C165" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" t="s">
         <v>65</v>
-      </c>
-      <c r="D165" t="s">
-        <v>66</v>
       </c>
       <c r="E165" s="1">
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4041,16 +4103,16 @@
         <v>16</v>
       </c>
       <c r="C166" t="s">
+        <v>64</v>
+      </c>
+      <c r="D166" t="s">
         <v>65</v>
-      </c>
-      <c r="D166" t="s">
-        <v>66</v>
       </c>
       <c r="E166" s="1">
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4058,16 +4120,16 @@
         <v>16</v>
       </c>
       <c r="C167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167" t="s">
         <v>65</v>
-      </c>
-      <c r="D167" t="s">
-        <v>66</v>
       </c>
       <c r="E167" s="1">
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4075,10 +4137,10 @@
         <v>16</v>
       </c>
       <c r="C168" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" t="s">
         <v>65</v>
-      </c>
-      <c r="D168" t="s">
-        <v>66</v>
       </c>
       <c r="E168" s="1">
         <v>0.88600000000000001</v>
@@ -4096,7 +4158,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4104,16 +4166,16 @@
         <v>16</v>
       </c>
       <c r="C169" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" t="s">
         <v>65</v>
-      </c>
-      <c r="D169" t="s">
-        <v>66</v>
       </c>
       <c r="E169" s="1">
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4121,16 +4183,16 @@
         <v>16</v>
       </c>
       <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" t="s">
         <v>65</v>
-      </c>
-      <c r="D170" t="s">
-        <v>66</v>
       </c>
       <c r="E170" s="1">
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4138,16 +4200,16 @@
         <v>16</v>
       </c>
       <c r="C171" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" t="s">
         <v>65</v>
-      </c>
-      <c r="D171" t="s">
-        <v>66</v>
       </c>
       <c r="E171" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4155,16 +4217,16 @@
         <v>16</v>
       </c>
       <c r="C173" t="s">
+        <v>66</v>
+      </c>
+      <c r="D173" t="s">
         <v>67</v>
-      </c>
-      <c r="D173" t="s">
-        <v>68</v>
       </c>
       <c r="E173" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4172,16 +4234,16 @@
         <v>16</v>
       </c>
       <c r="C174" t="s">
+        <v>66</v>
+      </c>
+      <c r="D174" t="s">
         <v>67</v>
-      </c>
-      <c r="D174" t="s">
-        <v>68</v>
       </c>
       <c r="E174" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4189,16 +4251,16 @@
         <v>16</v>
       </c>
       <c r="C175" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175" t="s">
         <v>67</v>
-      </c>
-      <c r="D175" t="s">
-        <v>68</v>
       </c>
       <c r="E175" s="1">
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4206,16 +4268,16 @@
         <v>16</v>
       </c>
       <c r="C176" t="s">
+        <v>66</v>
+      </c>
+      <c r="D176" t="s">
         <v>67</v>
-      </c>
-      <c r="D176" t="s">
-        <v>68</v>
       </c>
       <c r="E176" s="1">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4223,16 +4285,16 @@
         <v>16</v>
       </c>
       <c r="C177" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" t="s">
         <v>67</v>
-      </c>
-      <c r="D177" t="s">
-        <v>68</v>
       </c>
       <c r="E177" s="1">
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4240,16 +4302,16 @@
         <v>16</v>
       </c>
       <c r="C178" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" t="s">
         <v>67</v>
-      </c>
-      <c r="D178" t="s">
-        <v>68</v>
       </c>
       <c r="E178" s="1">
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4257,16 +4319,16 @@
         <v>16</v>
       </c>
       <c r="C179" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179" t="s">
         <v>67</v>
-      </c>
-      <c r="D179" t="s">
-        <v>68</v>
       </c>
       <c r="E179" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4274,16 +4336,16 @@
         <v>16</v>
       </c>
       <c r="C180" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" t="s">
         <v>67</v>
-      </c>
-      <c r="D180" t="s">
-        <v>68</v>
       </c>
       <c r="E180" s="1">
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4291,10 +4353,10 @@
         <v>16</v>
       </c>
       <c r="C181" t="s">
+        <v>66</v>
+      </c>
+      <c r="D181" t="s">
         <v>67</v>
-      </c>
-      <c r="D181" t="s">
-        <v>68</v>
       </c>
       <c r="E181" s="1">
         <v>0.90900000000000003</v>
@@ -4312,7 +4374,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4320,16 +4382,16 @@
         <v>16</v>
       </c>
       <c r="C182" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" t="s">
         <v>67</v>
-      </c>
-      <c r="D182" t="s">
-        <v>68</v>
       </c>
       <c r="E182" s="1">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4337,16 +4399,16 @@
         <v>16</v>
       </c>
       <c r="C183" t="s">
+        <v>66</v>
+      </c>
+      <c r="D183" t="s">
         <v>67</v>
-      </c>
-      <c r="D183" t="s">
-        <v>68</v>
       </c>
       <c r="E183" s="1">
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4354,18 +4416,18 @@
         <v>16</v>
       </c>
       <c r="C184" t="s">
+        <v>66</v>
+      </c>
+      <c r="D184" t="s">
         <v>67</v>
-      </c>
-      <c r="D184" t="s">
-        <v>68</v>
       </c>
       <c r="E184" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
@@ -4392,9 +4454,9 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -4421,9 +4483,9 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -4450,9 +4512,9 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -4479,9 +4541,9 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -4508,1400 +4570,1400 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" t="s">
         <v>71</v>
       </c>
-      <c r="B192" t="s">
-        <v>72</v>
-      </c>
       <c r="C192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E192" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A194" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>78</v>
+      <c r="C195" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D195" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E195" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>18</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>78</v>
+      <c r="C196" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D196" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E196" s="1">
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>19</v>
       </c>
       <c r="B197" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>78</v>
+      <c r="C197" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D197" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E197" s="1">
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>20</v>
       </c>
       <c r="B198" t="s">
         <v>16</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>78</v>
+      <c r="C198" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D198" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E198" s="1">
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>23</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>78</v>
+      <c r="C199" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D199" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E199" s="1">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>26</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>78</v>
+      <c r="C200" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D200" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E200" s="1">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>27</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>78</v>
+      <c r="C201" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D201" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E201" s="1">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>28</v>
       </c>
       <c r="B202" t="s">
         <v>16</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>78</v>
+      <c r="C202" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D202" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E202" s="1">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>29</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>78</v>
+      <c r="C203" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D203" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E203" s="1">
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>22</v>
       </c>
       <c r="B204" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>78</v>
+      <c r="C204" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D204" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E204" s="1">
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>30</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>78</v>
+      <c r="C205" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D205" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E205" s="1">
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>31</v>
       </c>
       <c r="B206" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>78</v>
+      <c r="C206" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D206" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E206" s="1">
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>78</v>
+      <c r="C207" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D207" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E207" s="1">
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C208" s="6"/>
-    </row>
-    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A209" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>15</v>
       </c>
       <c r="B210" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D210" t="s">
         <v>80</v>
-      </c>
-      <c r="D210" t="s">
-        <v>81</v>
       </c>
       <c r="E210" s="1">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>18</v>
       </c>
       <c r="B211" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D211" t="s">
         <v>80</v>
-      </c>
-      <c r="D211" t="s">
-        <v>81</v>
       </c>
       <c r="E211" s="1">
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>19</v>
       </c>
       <c r="B212" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D212" t="s">
         <v>80</v>
-      </c>
-      <c r="D212" t="s">
-        <v>81</v>
       </c>
       <c r="E212" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>20</v>
       </c>
       <c r="B213" t="s">
         <v>16</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D213" t="s">
         <v>80</v>
-      </c>
-      <c r="D213" t="s">
-        <v>81</v>
       </c>
       <c r="E213" s="1">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>23</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D214" t="s">
         <v>80</v>
-      </c>
-      <c r="D214" t="s">
-        <v>81</v>
       </c>
       <c r="E214" s="1">
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>26</v>
       </c>
       <c r="B215" t="s">
         <v>16</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D215" t="s">
         <v>80</v>
-      </c>
-      <c r="D215" t="s">
-        <v>81</v>
       </c>
       <c r="E215" s="1">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>27</v>
       </c>
       <c r="B216" t="s">
         <v>16</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D216" t="s">
         <v>80</v>
-      </c>
-      <c r="D216" t="s">
-        <v>81</v>
       </c>
       <c r="E216" s="1">
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>28</v>
       </c>
       <c r="B217" t="s">
         <v>16</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D217" t="s">
         <v>80</v>
-      </c>
-      <c r="D217" t="s">
-        <v>81</v>
       </c>
       <c r="E217" s="1">
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>29</v>
       </c>
       <c r="B218" t="s">
         <v>16</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D218" t="s">
         <v>80</v>
-      </c>
-      <c r="D218" t="s">
-        <v>81</v>
       </c>
       <c r="E218" s="1">
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>22</v>
       </c>
       <c r="B219" t="s">
         <v>16</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D219" t="s">
         <v>80</v>
-      </c>
-      <c r="D219" t="s">
-        <v>81</v>
       </c>
       <c r="E219" s="1">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>30</v>
       </c>
       <c r="B220" t="s">
         <v>16</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D220" t="s">
         <v>80</v>
-      </c>
-      <c r="D220" t="s">
-        <v>81</v>
       </c>
       <c r="E220" s="1">
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>31</v>
       </c>
       <c r="B221" t="s">
         <v>16</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D221" t="s">
         <v>80</v>
-      </c>
-      <c r="D221" t="s">
-        <v>81</v>
       </c>
       <c r="E221" s="1">
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B222" t="s">
         <v>16</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D222" t="s">
         <v>80</v>
-      </c>
-      <c r="D222" t="s">
-        <v>81</v>
       </c>
       <c r="E222" s="1">
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C223" s="6"/>
-    </row>
-    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A224" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>15</v>
       </c>
       <c r="B225" t="s">
         <v>16</v>
       </c>
-      <c r="C225" s="6" t="s">
-        <v>86</v>
+      <c r="C225" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D225" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E225" s="1">
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>18</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>86</v>
+      <c r="C226" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D226" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E226" s="1">
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>19</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>86</v>
+      <c r="C227" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D227" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E227" s="1">
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>20</v>
       </c>
       <c r="B228" t="s">
         <v>16</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>86</v>
+      <c r="C228" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D228" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E228" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>23</v>
       </c>
       <c r="B229" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>86</v>
+      <c r="C229" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D229" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E229" s="1">
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>26</v>
       </c>
       <c r="B230" t="s">
         <v>16</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>86</v>
+      <c r="C230" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D230" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E230" s="1">
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>27</v>
       </c>
       <c r="B231" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>86</v>
+      <c r="C231" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D231" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E231" s="1">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>28</v>
       </c>
       <c r="B232" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>86</v>
+      <c r="C232" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D232" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E232" s="1">
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>29</v>
       </c>
       <c r="B233" t="s">
         <v>16</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>86</v>
+      <c r="C233" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D233" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E233" s="1">
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>22</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>86</v>
+      <c r="C234" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D234" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E234" s="1">
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>30</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>86</v>
+      <c r="C235" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D235" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E235" s="1">
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>31</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="6" t="s">
-        <v>86</v>
+      <c r="C236" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D236" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E236" s="1">
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>86</v>
+      <c r="C237" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D237" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E237" s="1">
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A239" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>15</v>
       </c>
       <c r="B240" t="s">
         <v>16</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>88</v>
+      <c r="C240" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D240" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E240" s="1">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>18</v>
       </c>
       <c r="B241" t="s">
         <v>16</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>88</v>
+      <c r="C241" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D241" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E241" s="1">
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>19</v>
       </c>
       <c r="B242" t="s">
         <v>16</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>88</v>
+      <c r="C242" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D242" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E242" s="1">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>20</v>
       </c>
       <c r="B243" t="s">
         <v>16</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>88</v>
+      <c r="C243" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D243" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E243" s="1">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>23</v>
       </c>
       <c r="B244" t="s">
         <v>16</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>88</v>
+      <c r="C244" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D244" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E244" s="1">
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>26</v>
       </c>
       <c r="B245" t="s">
         <v>16</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>88</v>
+      <c r="C245" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D245" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E245" s="1">
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>27</v>
       </c>
       <c r="B246" t="s">
         <v>16</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>88</v>
+      <c r="C246" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D246" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E246" s="1">
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>28</v>
       </c>
       <c r="B247" t="s">
         <v>16</v>
       </c>
-      <c r="C247" s="6" t="s">
-        <v>88</v>
+      <c r="C247" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D247" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E247" s="1">
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>29</v>
       </c>
       <c r="B248" t="s">
         <v>16</v>
       </c>
-      <c r="C248" s="6" t="s">
-        <v>88</v>
+      <c r="C248" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D248" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E248" s="1">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>22</v>
       </c>
       <c r="B249" t="s">
         <v>16</v>
       </c>
-      <c r="C249" s="6" t="s">
-        <v>88</v>
+      <c r="C249" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D249" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E249" s="1">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>30</v>
       </c>
       <c r="B250" t="s">
         <v>16</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>88</v>
+      <c r="C250" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D250" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E250" s="1">
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>31</v>
       </c>
       <c r="B251" t="s">
         <v>16</v>
       </c>
-      <c r="C251" s="6" t="s">
-        <v>88</v>
+      <c r="C251" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D251" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E251" s="1">
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B252" t="s">
         <v>16</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>88</v>
+      <c r="C252" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D252" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E252" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
+        <v>70</v>
+      </c>
+      <c r="B253" t="s">
         <v>71</v>
       </c>
-      <c r="B253" t="s">
-        <v>72</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>88</v>
+      <c r="C253" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D253" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E253" s="1">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A255" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>15</v>
       </c>
       <c r="B256" t="s">
         <v>16</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C256" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D256" t="s">
         <v>90</v>
-      </c>
-      <c r="D256" t="s">
-        <v>91</v>
       </c>
       <c r="E256" s="1">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>18</v>
       </c>
       <c r="B257" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C257" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D257" t="s">
         <v>90</v>
-      </c>
-      <c r="D257" t="s">
-        <v>91</v>
       </c>
       <c r="E257" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>19</v>
       </c>
       <c r="B258" t="s">
         <v>16</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C258" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D258" t="s">
         <v>90</v>
-      </c>
-      <c r="D258" t="s">
-        <v>91</v>
       </c>
       <c r="E258" s="1">
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>20</v>
       </c>
       <c r="B259" t="s">
         <v>16</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C259" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D259" t="s">
         <v>90</v>
-      </c>
-      <c r="D259" t="s">
-        <v>91</v>
       </c>
       <c r="E259" s="1">
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>23</v>
       </c>
       <c r="B260" t="s">
         <v>16</v>
       </c>
-      <c r="C260" s="6" t="s">
+      <c r="C260" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D260" t="s">
         <v>90</v>
-      </c>
-      <c r="D260" t="s">
-        <v>91</v>
       </c>
       <c r="E260" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>26</v>
       </c>
       <c r="B261" t="s">
         <v>16</v>
       </c>
-      <c r="C261" s="6" t="s">
+      <c r="C261" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D261" t="s">
         <v>90</v>
-      </c>
-      <c r="D261" t="s">
-        <v>91</v>
       </c>
       <c r="E261" s="1">
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>27</v>
       </c>
       <c r="B262" t="s">
         <v>16</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C262" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D262" t="s">
         <v>90</v>
-      </c>
-      <c r="D262" t="s">
-        <v>91</v>
       </c>
       <c r="E262" s="1">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>28</v>
       </c>
       <c r="B263" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C263" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D263" t="s">
         <v>90</v>
-      </c>
-      <c r="D263" t="s">
-        <v>91</v>
       </c>
       <c r="E263" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>29</v>
       </c>
       <c r="B264" t="s">
         <v>16</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C264" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D264" t="s">
         <v>90</v>
-      </c>
-      <c r="D264" t="s">
-        <v>91</v>
       </c>
       <c r="E264" s="1">
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>22</v>
       </c>
       <c r="B265" t="s">
         <v>16</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C265" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D265" t="s">
         <v>90</v>
-      </c>
-      <c r="D265" t="s">
-        <v>91</v>
       </c>
       <c r="E265" s="1">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>30</v>
       </c>
       <c r="B266" t="s">
         <v>16</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C266" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D266" t="s">
         <v>90</v>
-      </c>
-      <c r="D266" t="s">
-        <v>91</v>
       </c>
       <c r="E266" s="1">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>31</v>
       </c>
       <c r="B267" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C267" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D267" t="s">
         <v>90</v>
-      </c>
-      <c r="D267" t="s">
-        <v>91</v>
       </c>
       <c r="E267" s="1">
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B268" t="s">
         <v>16</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C268" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D268" t="s">
         <v>90</v>
-      </c>
-      <c r="D268" t="s">
-        <v>91</v>
       </c>
       <c r="E268" s="1">
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C269" s="6"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A270" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>15</v>
       </c>
       <c r="B271" t="s">
         <v>16</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>95</v>
+      <c r="C271" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D271" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E271" s="1">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>18</v>
       </c>
       <c r="B272" t="s">
         <v>16</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>95</v>
+      <c r="C272" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D272" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E272" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>19</v>
       </c>
       <c r="B273" t="s">
         <v>16</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>95</v>
+      <c r="C273" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D273" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E273" s="1">
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>20</v>
       </c>
       <c r="B274" t="s">
         <v>16</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>95</v>
+      <c r="C274" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D274" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E274" s="1">
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>23</v>
       </c>
       <c r="B275" t="s">
         <v>16</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>95</v>
+      <c r="C275" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D275" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E275" s="1">
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>26</v>
       </c>
       <c r="B276" t="s">
         <v>16</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>95</v>
+      <c r="C276" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D276" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E276" s="1">
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>27</v>
       </c>
       <c r="B277" t="s">
         <v>16</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>95</v>
+      <c r="C277" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D277" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E277" s="1">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>28</v>
       </c>
       <c r="B278" t="s">
         <v>16</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>95</v>
+      <c r="C278" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D278" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E278" s="1">
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>29</v>
       </c>
       <c r="B279" t="s">
         <v>16</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>95</v>
+      <c r="C279" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D279" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E279" s="1">
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>22</v>
       </c>
       <c r="B280" t="s">
         <v>16</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>95</v>
+      <c r="C280" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D280" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E280" s="1">
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>30</v>
       </c>
       <c r="B281" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="6" t="s">
-        <v>95</v>
+      <c r="C281" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D281" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E281" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>31</v>
       </c>
       <c r="B282" t="s">
         <v>16</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>95</v>
+      <c r="C282" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D282" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E282" s="1">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B283" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>95</v>
+      <c r="C283" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D283" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E283" s="1">
         <v>0.73699999999999999</v>
@@ -5914,23 +5976,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="10.83203125" customWidth="1"/>
+    <col min="2" max="16" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5965,1175 +6030,1193 @@
         <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.873</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.874</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.755</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.755</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="8">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.499</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="2" t="s">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.873</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="1">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.754</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="1">
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.874</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.755</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.879</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.755</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.879</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="4">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="4">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="1">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.499</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -7150,15 +7233,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q25">
-    <cfRule type="top10" dxfId="0" priority="9" percent="1" rank="3"/>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+    <cfRule type="top10" dxfId="1" priority="9" percent="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q26">
     <cfRule type="colorScale" priority="1">
@@ -7166,7 +7241,7 @@
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color theme="7" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1007,13 +1007,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -5980,10 +5974,10 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7233,7 +7227,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q25">
-    <cfRule type="top10" dxfId="1" priority="9" percent="1" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="9" percent="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q26">
     <cfRule type="colorScale" priority="1">

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pe782d\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_0F040333CFA77457E5572F2DD3C4CA04EA3661A9" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D8004AC1-B49B-4C85-A4A7-1346DC675666}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="13080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="114">
   <si>
     <t>ModelType</t>
   </si>
@@ -230,9 +229,6 @@
     <t>LSTM NN</t>
   </si>
   <si>
-    <t>* LSTM NN = long stort term memory neural net (extremely senstive to hyperparameters and initial trainig set selection)</t>
-  </si>
-  <si>
     <t>LSTM</t>
   </si>
   <si>
@@ -240,9 +236,6 @@
   </si>
   <si>
     <t>*Highly sensitive to hyperparamters and initial training set</t>
-  </si>
-  <si>
-    <t>Neural Net (GUI)</t>
   </si>
   <si>
     <t>Neural Net</t>
@@ -428,11 +421,20 @@
   <si>
     <t>Wavelet Scalogram Bag of Features - 5s</t>
   </si>
+  <si>
+    <t>* LSTM NN = long stort term memory neural net (extremely senstive to hyperparameters and initial training set selection)</t>
+  </si>
+  <si>
+    <t># Features</t>
+  </si>
+  <si>
+    <t>Block length (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1007,7 +1009,81 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1323,23 +1399,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E271" sqref="E271:E283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1473,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1426,7 +1502,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1472,7 +1548,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1501,7 +1577,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1594,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1535,7 +1611,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1628,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1645,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1586,7 +1662,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1603,7 +1679,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1620,7 +1696,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1713,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1654,7 +1730,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1671,7 +1747,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1764,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1705,7 +1781,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1798,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1739,7 +1815,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1768,7 +1844,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1785,7 +1861,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1802,7 +1878,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1819,7 +1895,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1912,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1929,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1870,7 +1946,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +1963,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1904,7 +1980,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1997,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1938,7 +2014,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +2031,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1984,7 +2060,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2001,7 +2077,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2018,7 +2094,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2035,7 +2111,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2052,7 +2128,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2069,7 +2145,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2162,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2103,7 +2179,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2120,7 +2196,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2137,7 +2213,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2154,7 +2230,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2171,7 +2247,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2200,7 +2276,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2293,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2234,7 +2310,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2251,7 +2327,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2268,7 +2344,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2285,7 +2361,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2302,7 +2378,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2395,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2336,7 +2412,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2353,7 +2429,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2370,7 +2446,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2387,7 +2463,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2416,7 +2492,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2433,7 +2509,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2450,7 +2526,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2467,12 +2543,12 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
         <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -2484,10 +2560,10 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2504,7 +2580,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2521,7 +2597,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2614,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2555,7 +2631,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2572,7 +2648,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2677,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +2694,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2635,7 +2711,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2652,7 +2728,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2669,7 +2745,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2686,7 +2762,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2779,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2720,7 +2796,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2737,7 +2813,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2754,7 +2830,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2771,7 +2847,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2788,7 +2864,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2817,7 +2893,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2834,7 +2910,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2927,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2868,7 +2944,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2885,7 +2961,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2902,7 +2978,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2919,7 +2995,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2936,7 +3012,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2953,7 +3029,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2970,7 +3046,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2987,7 +3063,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -3004,7 +3080,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3033,7 +3109,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -3050,7 +3126,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3067,7 +3143,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3084,7 +3160,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3101,7 +3177,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3118,7 +3194,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3135,7 +3211,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3152,7 +3228,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3169,7 +3245,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3262,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3203,7 +3279,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3220,7 +3296,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3237,7 +3313,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3254,7 +3330,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3271,7 +3347,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3288,7 +3364,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3305,7 +3381,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3322,7 +3398,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3339,7 +3415,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3432,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3373,7 +3449,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3390,7 +3466,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3407,7 +3483,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3424,7 +3500,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3441,7 +3517,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3458,7 +3534,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3475,7 +3551,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3504,7 +3580,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3521,7 +3597,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3538,7 +3614,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3555,7 +3631,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +3648,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3589,7 +3665,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3606,7 +3682,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3623,7 +3699,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3640,7 +3716,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3657,7 +3733,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3674,7 +3750,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3691,7 +3767,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3708,7 +3784,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3725,7 +3801,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3754,7 +3830,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3771,7 +3847,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3788,7 +3864,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3805,7 +3881,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3822,7 +3898,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3839,7 +3915,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3856,7 +3932,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3873,7 +3949,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3890,7 +3966,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3907,7 +3983,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3936,7 +4012,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3953,7 +4029,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3970,7 +4046,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3987,7 +4063,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4080,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -4021,7 +4097,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -4038,7 +4114,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4131,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -4072,7 +4148,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4089,7 +4165,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4106,7 +4182,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4123,7 +4199,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4152,7 +4228,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4169,7 +4245,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4186,7 +4262,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4203,7 +4279,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4220,7 +4296,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4237,7 +4313,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4254,7 +4330,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4271,7 +4347,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4288,7 +4364,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4305,7 +4381,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4322,7 +4398,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4339,7 +4415,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4368,7 +4444,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4385,7 +4461,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4402,7 +4478,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4419,9 +4495,9 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
@@ -4448,9 +4524,9 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -4477,9 +4553,9 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -4506,9 +4582,9 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -4535,9 +4611,9 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -4564,29 +4640,29 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>69</v>
+      </c>
+      <c r="B192" t="s">
         <v>70</v>
-      </c>
-      <c r="B192" t="s">
-        <v>71</v>
       </c>
       <c r="C192" t="s">
         <v>61</v>
       </c>
       <c r="D192" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E192" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4594,16 +4670,16 @@
         <v>16</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D195" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E195" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4611,16 +4687,16 @@
         <v>16</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D196" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E196" s="1">
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4628,16 +4704,16 @@
         <v>16</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D197" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E197" s="1">
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4645,16 +4721,16 @@
         <v>16</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E198" s="1">
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4662,16 +4738,16 @@
         <v>16</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E199" s="1">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4679,16 +4755,16 @@
         <v>16</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D200" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E200" s="1">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4696,16 +4772,16 @@
         <v>16</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D201" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E201" s="1">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4713,16 +4789,16 @@
         <v>16</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D202" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E202" s="1">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4730,16 +4806,16 @@
         <v>16</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D203" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E203" s="1">
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4747,16 +4823,16 @@
         <v>16</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D204" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E204" s="1">
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4764,16 +4840,16 @@
         <v>16</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D205" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E205" s="1">
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4781,16 +4857,16 @@
         <v>16</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D206" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E206" s="1">
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>60</v>
       </c>
@@ -4798,24 +4874,24 @@
         <v>16</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D207" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E207" s="1">
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4823,16 +4899,16 @@
         <v>16</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D210" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E210" s="1">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4840,16 +4916,16 @@
         <v>16</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D211" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E211" s="1">
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4857,16 +4933,16 @@
         <v>16</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D212" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E212" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4874,16 +4950,16 @@
         <v>16</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D213" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E213" s="1">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4891,16 +4967,16 @@
         <v>16</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D214" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E214" s="1">
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4908,16 +4984,16 @@
         <v>16</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D215" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E215" s="1">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -4925,16 +5001,16 @@
         <v>16</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D216" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E216" s="1">
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -4942,16 +5018,16 @@
         <v>16</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D217" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E217" s="1">
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4959,16 +5035,16 @@
         <v>16</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D218" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E218" s="1">
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -4976,16 +5052,16 @@
         <v>16</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D219" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E219" s="1">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -4993,16 +5069,16 @@
         <v>16</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D220" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E220" s="1">
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -5010,16 +5086,16 @@
         <v>16</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D221" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E221" s="1">
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -5027,24 +5103,24 @@
         <v>16</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D222" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E222" s="1">
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -5052,16 +5128,16 @@
         <v>16</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D225" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E225" s="1">
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -5069,16 +5145,16 @@
         <v>16</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D226" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E226" s="1">
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -5086,16 +5162,16 @@
         <v>16</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D227" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E227" s="1">
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -5103,16 +5179,16 @@
         <v>16</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D228" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E228" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -5120,16 +5196,16 @@
         <v>16</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D229" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E229" s="1">
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5137,16 +5213,16 @@
         <v>16</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D230" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E230" s="1">
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5154,16 +5230,16 @@
         <v>16</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D231" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E231" s="1">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5171,16 +5247,16 @@
         <v>16</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D232" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E232" s="1">
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5188,16 +5264,16 @@
         <v>16</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D233" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E233" s="1">
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5205,16 +5281,16 @@
         <v>16</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D234" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E234" s="1">
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5222,16 +5298,16 @@
         <v>16</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D235" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E235" s="1">
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5239,16 +5315,16 @@
         <v>16</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D236" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E236" s="1">
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>60</v>
       </c>
@@ -5256,21 +5332,21 @@
         <v>16</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D237" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E237" s="1">
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5278,16 +5354,16 @@
         <v>16</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D240" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E240" s="1">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -5295,16 +5371,16 @@
         <v>16</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D241" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E241" s="1">
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5312,16 +5388,16 @@
         <v>16</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D242" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E242" s="1">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -5329,16 +5405,16 @@
         <v>16</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D243" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E243" s="1">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -5346,16 +5422,16 @@
         <v>16</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D244" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E244" s="1">
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -5363,16 +5439,16 @@
         <v>16</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D245" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E245" s="1">
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -5380,16 +5456,16 @@
         <v>16</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D246" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E246" s="1">
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -5397,16 +5473,16 @@
         <v>16</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D247" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E247" s="1">
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -5414,16 +5490,16 @@
         <v>16</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D248" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E248" s="1">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -5431,16 +5507,16 @@
         <v>16</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D249" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E249" s="1">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5448,16 +5524,16 @@
         <v>16</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D250" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E250" s="1">
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -5465,16 +5541,16 @@
         <v>16</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D251" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E251" s="1">
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -5482,38 +5558,38 @@
         <v>16</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D252" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E252" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>69</v>
+      </c>
+      <c r="B253" t="s">
         <v>70</v>
       </c>
-      <c r="B253" t="s">
-        <v>71</v>
-      </c>
       <c r="C253" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D253" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E253" s="1">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -5521,16 +5597,16 @@
         <v>16</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D256" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E256" s="1">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -5538,16 +5614,16 @@
         <v>16</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D257" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E257" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -5555,16 +5631,16 @@
         <v>16</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D258" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E258" s="1">
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -5572,16 +5648,16 @@
         <v>16</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D259" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E259" s="1">
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -5589,16 +5665,16 @@
         <v>16</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D260" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E260" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -5606,16 +5682,16 @@
         <v>16</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D261" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E261" s="1">
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -5623,16 +5699,16 @@
         <v>16</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D262" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E262" s="1">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>28</v>
       </c>
@@ -5640,16 +5716,16 @@
         <v>16</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D263" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E263" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>29</v>
       </c>
@@ -5657,16 +5733,16 @@
         <v>16</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D264" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E264" s="1">
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -5674,16 +5750,16 @@
         <v>16</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D265" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E265" s="1">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -5691,16 +5767,16 @@
         <v>16</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D266" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E266" s="1">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -5708,16 +5784,16 @@
         <v>16</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D267" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E267" s="1">
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -5725,24 +5801,24 @@
         <v>16</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D268" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E268" s="1">
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -5750,16 +5826,16 @@
         <v>16</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D271" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E271" s="1">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -5767,16 +5843,16 @@
         <v>16</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D272" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E272" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -5784,16 +5860,16 @@
         <v>16</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D273" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E273" s="1">
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -5801,16 +5877,16 @@
         <v>16</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D274" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E274" s="1">
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -5818,16 +5894,16 @@
         <v>16</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D275" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E275" s="1">
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>26</v>
       </c>
@@ -5835,16 +5911,16 @@
         <v>16</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D276" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E276" s="1">
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -5852,16 +5928,16 @@
         <v>16</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D277" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E277" s="1">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -5869,16 +5945,16 @@
         <v>16</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D278" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E278" s="1">
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -5886,16 +5962,16 @@
         <v>16</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D279" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E279" s="1">
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -5903,16 +5979,16 @@
         <v>16</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D280" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E280" s="1">
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -5920,16 +5996,16 @@
         <v>16</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D281" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E281" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -5937,16 +6013,16 @@
         <v>16</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D282" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E282" s="1">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -5954,10 +6030,10 @@
         <v>16</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D283" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E283" s="1">
         <v>0.73699999999999999</v>
@@ -5970,555 +6046,626 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="10.796875" customWidth="1"/>
+    <col min="4" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="8">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <v>0.75800000000000001</v>
       </c>
-      <c r="C2" s="8">
+      <c r="E2" s="8">
         <v>0.83099999999999996</v>
       </c>
-      <c r="D2" s="8">
+      <c r="F2" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E2" s="8">
+      <c r="G2" s="8">
         <v>0.75600000000000001</v>
       </c>
-      <c r="F2" s="8">
+      <c r="H2" s="8">
         <v>0.85</v>
       </c>
-      <c r="G2" s="8">
+      <c r="I2" s="8">
         <v>0.86799999999999999</v>
       </c>
-      <c r="H2" s="8">
+      <c r="J2" s="8">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I2" s="8">
+      <c r="K2" s="8">
         <v>0.873</v>
       </c>
-      <c r="J2" s="8">
+      <c r="L2" s="8">
         <v>0.89100000000000001</v>
       </c>
-      <c r="K2" s="8">
+      <c r="M2" s="8">
         <v>0.85699999999999998</v>
       </c>
-      <c r="L2" s="8">
+      <c r="N2" s="8">
         <v>0.88</v>
       </c>
-      <c r="M2" s="8">
+      <c r="O2" s="8">
         <v>0.80400000000000005</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="8">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
         <v>0.78300000000000003</v>
       </c>
-      <c r="C3" s="8">
+      <c r="E3" s="8">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D3" s="8">
+      <c r="F3" s="8">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E3" s="8">
+      <c r="G3" s="8">
         <v>0.76300000000000001</v>
       </c>
-      <c r="F3" s="8">
+      <c r="H3" s="8">
         <v>0.86299999999999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H3" s="8">
+      <c r="J3" s="8">
         <v>0.79</v>
       </c>
-      <c r="I3" s="8">
+      <c r="K3" s="8">
         <v>0.89500000000000002</v>
       </c>
-      <c r="J3" s="8">
+      <c r="L3" s="8">
         <v>0.91900000000000004</v>
       </c>
-      <c r="K3" s="8">
+      <c r="M3" s="8">
         <v>0.88600000000000001</v>
       </c>
-      <c r="L3" s="8">
+      <c r="N3" s="8">
         <v>0.89300000000000002</v>
       </c>
-      <c r="M3" s="8">
+      <c r="O3" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="9">
         <v>0.86699999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="8">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.78</v>
       </c>
-      <c r="C4" s="8">
+      <c r="E4" s="8">
         <v>0.81799999999999995</v>
       </c>
-      <c r="D4" s="8">
+      <c r="F4" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E4" s="8">
+      <c r="G4" s="8">
         <v>0.75600000000000001</v>
       </c>
-      <c r="F4" s="8">
+      <c r="H4" s="8">
         <v>0.85</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>0.85499999999999998</v>
       </c>
-      <c r="H4" s="8">
+      <c r="J4" s="8">
         <v>0.79</v>
       </c>
-      <c r="I4" s="8">
+      <c r="K4" s="8">
         <v>0.88800000000000001</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>0.89700000000000002</v>
       </c>
-      <c r="K4" s="8">
+      <c r="M4" s="8">
         <v>0.76300000000000001</v>
       </c>
-      <c r="L4" s="8">
+      <c r="N4" s="8">
         <v>0.88100000000000001</v>
       </c>
-      <c r="M4" s="8">
+      <c r="O4" s="8">
         <v>0.79700000000000004</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="8">
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C5" s="8">
+      <c r="E5" s="8">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D5" s="8">
+      <c r="F5" s="8">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E5" s="8">
+      <c r="G5" s="8">
         <v>0.74299999999999999</v>
       </c>
-      <c r="F5" s="8">
+      <c r="H5" s="8">
         <v>0.85899999999999999</v>
       </c>
-      <c r="G5" s="8">
+      <c r="I5" s="8">
         <v>0.88300000000000001</v>
       </c>
-      <c r="H5" s="8">
+      <c r="J5" s="8">
         <v>0.80400000000000005</v>
       </c>
-      <c r="I5" s="8">
+      <c r="K5" s="8">
         <v>0.90700000000000003</v>
       </c>
-      <c r="J5" s="8">
+      <c r="L5" s="8">
         <v>0.92800000000000005</v>
       </c>
-      <c r="K5" s="8">
+      <c r="M5" s="8">
         <v>0.80900000000000005</v>
       </c>
-      <c r="L5" s="8">
+      <c r="N5" s="8">
         <v>0.90300000000000002</v>
       </c>
-      <c r="M5" s="8">
+      <c r="O5" s="8">
         <v>0.79700000000000004</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
-        <v>0.61799999999999999</v>
-      </c>
+      <c r="P5" s="8"/>
       <c r="Q5" s="9">
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R5" s="8"/>
+      <c r="S5" s="8">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="8">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="C6" s="8">
+      <c r="E6" s="8">
         <v>0.83699999999999997</v>
       </c>
-      <c r="D6" s="8">
+      <c r="F6" s="8">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E6" s="8">
+      <c r="G6" s="8">
         <v>0.753</v>
       </c>
-      <c r="F6" s="8">
+      <c r="H6" s="8">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G6" s="8">
+      <c r="I6" s="8">
         <v>0.89</v>
       </c>
-      <c r="H6" s="8">
+      <c r="J6" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I6" s="8">
+      <c r="K6" s="8">
         <v>0.77500000000000002</v>
       </c>
-      <c r="J6" s="8">
+      <c r="L6" s="8">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K6" s="8">
+      <c r="M6" s="8">
         <v>0.71899999999999997</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="8">
         <v>0.754</v>
       </c>
-      <c r="M6" s="8">
+      <c r="O6" s="8">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="8">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.72799999999999998</v>
       </c>
-      <c r="C7" s="8">
+      <c r="E7" s="8">
         <v>0.875</v>
       </c>
-      <c r="D7" s="8">
+      <c r="F7" s="8">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E7" s="8">
+      <c r="G7" s="8">
         <v>0.77300000000000002</v>
       </c>
-      <c r="F7" s="8">
+      <c r="H7" s="8">
         <v>0.875</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H7" s="8">
+      <c r="J7" s="8">
         <v>0.71699999999999997</v>
       </c>
-      <c r="I7" s="8">
+      <c r="K7" s="8">
         <v>0.79700000000000004</v>
       </c>
-      <c r="J7" s="8">
+      <c r="L7" s="8">
         <v>0.83799999999999997</v>
       </c>
-      <c r="K7" s="8">
+      <c r="M7" s="8">
         <v>0.76600000000000001</v>
       </c>
-      <c r="L7" s="8">
+      <c r="N7" s="8">
         <v>0.76500000000000001</v>
       </c>
-      <c r="M7" s="8">
+      <c r="O7" s="8">
         <v>0.71499999999999997</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="9">
         <v>0.71499999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="8">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <v>0.67300000000000004</v>
       </c>
-      <c r="C8" s="8">
+      <c r="E8" s="8">
         <v>0.82</v>
       </c>
-      <c r="D8" s="8">
+      <c r="F8" s="8">
         <v>0.79400000000000004</v>
       </c>
-      <c r="E8" s="8">
+      <c r="G8" s="8">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F8" s="8">
+      <c r="H8" s="8">
         <v>0.82199999999999995</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="8">
         <v>0.86299999999999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="J8" s="8">
         <v>0.66600000000000004</v>
       </c>
-      <c r="I8" s="8">
+      <c r="K8" s="8">
         <v>0.76400000000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="L8" s="8">
         <v>0.8</v>
       </c>
-      <c r="K8" s="8">
+      <c r="M8" s="8">
         <v>0.78</v>
       </c>
-      <c r="L8" s="8">
+      <c r="N8" s="8">
         <v>0.75600000000000001</v>
       </c>
-      <c r="M8" s="8">
+      <c r="O8" s="8">
         <v>0.66800000000000004</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="8">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
         <v>0.67800000000000005</v>
       </c>
-      <c r="C9" s="8">
+      <c r="E9" s="8">
         <v>0.84699999999999998</v>
       </c>
-      <c r="D9" s="8">
+      <c r="F9" s="8">
         <v>0.80600000000000005</v>
       </c>
-      <c r="E9" s="8">
+      <c r="G9" s="8">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F9" s="8">
+      <c r="H9" s="8">
         <v>0.84199999999999997</v>
       </c>
-      <c r="G9" s="8">
+      <c r="I9" s="8">
         <v>0.89</v>
       </c>
-      <c r="H9" s="8">
+      <c r="J9" s="8">
         <v>0.66500000000000004</v>
       </c>
-      <c r="I9" s="8">
+      <c r="K9" s="8">
         <v>0.77</v>
       </c>
-      <c r="J9" s="8">
+      <c r="L9" s="8">
         <v>0.81200000000000006</v>
       </c>
-      <c r="K9" s="8">
+      <c r="M9" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="L9" s="8">
+      <c r="N9" s="8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="M9" s="8">
+      <c r="O9" s="8">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="9">
         <v>0.77400000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="8">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
         <v>0.76300000000000001</v>
       </c>
-      <c r="C10" s="8">
+      <c r="E10" s="8">
         <v>0.82</v>
       </c>
-      <c r="D10" s="8">
+      <c r="F10" s="8">
         <v>0.78200000000000003</v>
       </c>
-      <c r="E10" s="8">
+      <c r="G10" s="8">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F10" s="8">
+      <c r="H10" s="8">
         <v>0.83499999999999996</v>
       </c>
-      <c r="G10" s="8">
+      <c r="I10" s="8">
         <v>0.85299999999999998</v>
       </c>
-      <c r="H10" s="8">
+      <c r="J10" s="8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="I10" s="8">
+      <c r="K10" s="8">
         <v>0.85199999999999998</v>
       </c>
-      <c r="J10" s="8">
+      <c r="L10" s="8">
         <v>0.874</v>
       </c>
-      <c r="K10" s="8">
+      <c r="M10" s="8">
         <v>0.83799999999999997</v>
       </c>
-      <c r="L10" s="8">
+      <c r="N10" s="8">
         <v>0.87</v>
       </c>
-      <c r="M10" s="8">
+      <c r="O10" s="8">
         <v>0.77</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="8">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
         <v>0.74099999999999999</v>
       </c>
-      <c r="C11" s="8">
+      <c r="E11" s="8">
         <v>0.80400000000000005</v>
       </c>
-      <c r="D11" s="8">
+      <c r="F11" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E11" s="8">
+      <c r="G11" s="8">
         <v>0.68799999999999994</v>
       </c>
-      <c r="F11" s="8">
+      <c r="H11" s="8">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G11" s="8">
+      <c r="I11" s="8">
         <v>0.82899999999999996</v>
       </c>
-      <c r="H11" s="8">
+      <c r="J11" s="8">
         <v>0.753</v>
       </c>
-      <c r="I11" s="8">
+      <c r="K11" s="8">
         <v>0.83</v>
       </c>
-      <c r="J11" s="8">
+      <c r="L11" s="8">
         <v>0.84599999999999997</v>
       </c>
-      <c r="K11" s="8">
+      <c r="M11" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="L11" s="8">
+      <c r="N11" s="8">
         <v>0.84799999999999998</v>
       </c>
-      <c r="M11" s="8">
+      <c r="O11" s="8">
         <v>0.76400000000000001</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="9">
         <v>0.77500000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="8">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <v>799</v>
+      </c>
+      <c r="C12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.61299999999999999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="E12" s="8">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D12" s="8">
+      <c r="F12" s="8">
         <v>0.75800000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="G12" s="8">
         <v>0.7</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -6529,25 +6676,31 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="8">
+        <v>107</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="8">
         <v>0.68300000000000005</v>
       </c>
-      <c r="C13" s="8">
+      <c r="E13" s="8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="D13" s="8">
+      <c r="F13" s="8">
         <v>0.74</v>
       </c>
-      <c r="E13" s="8">
+      <c r="G13" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -6558,623 +6711,680 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="8">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <v>0.81</v>
       </c>
-      <c r="C14" s="8">
+      <c r="E14" s="8">
         <v>0.755</v>
       </c>
-      <c r="D14" s="8">
+      <c r="F14" s="8">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="G14" s="8">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F14" s="8">
+      <c r="H14" s="8">
         <v>0.82099999999999995</v>
       </c>
-      <c r="G14" s="8">
+      <c r="I14" s="8">
         <v>0.82</v>
       </c>
-      <c r="H14" s="8">
+      <c r="J14" s="8">
         <v>0.83099999999999996</v>
       </c>
-      <c r="I14" s="8">
+      <c r="K14" s="8">
         <v>0.86399999999999999</v>
       </c>
-      <c r="J14" s="8">
+      <c r="L14" s="8">
         <v>0.871</v>
       </c>
-      <c r="K14" s="8">
+      <c r="M14" s="8">
         <v>0.60499999999999998</v>
       </c>
-      <c r="L14" s="8">
+      <c r="N14" s="8">
         <v>0.86099999999999999</v>
       </c>
-      <c r="M14" s="8">
+      <c r="O14" s="8">
         <v>0.79900000000000004</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8">
-        <v>0.92900000000000005</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R14" s="8">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.80700000000000005</v>
       </c>
-      <c r="C15" s="8">
+      <c r="E15" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="D15" s="8">
+      <c r="F15" s="8">
         <v>0.73699999999999999</v>
       </c>
-      <c r="E15" s="8">
+      <c r="G15" s="8">
         <v>0.753</v>
       </c>
-      <c r="F15" s="8">
+      <c r="H15" s="8">
         <v>0.84799999999999998</v>
       </c>
-      <c r="G15" s="8">
+      <c r="I15" s="8">
         <v>0.82699999999999996</v>
       </c>
-      <c r="H15" s="8">
+      <c r="J15" s="8">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I15" s="8">
+      <c r="K15" s="8">
         <v>0.877</v>
       </c>
-      <c r="J15" s="8">
+      <c r="L15" s="8">
         <v>0.88600000000000001</v>
       </c>
-      <c r="K15" s="8">
+      <c r="M15" s="8">
         <v>0.59099999999999997</v>
       </c>
-      <c r="L15" s="8">
+      <c r="N15" s="8">
         <v>0.879</v>
       </c>
-      <c r="M15" s="8">
+      <c r="O15" s="8">
         <v>0.81599999999999995</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8">
-        <v>0.85099999999999998</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R15" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="8">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C16" s="8">
+      <c r="E16" s="8">
         <v>0.73</v>
       </c>
-      <c r="D16" s="8">
+      <c r="F16" s="8">
         <v>0.74099999999999999</v>
       </c>
-      <c r="E16" s="8">
+      <c r="G16" s="8">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F16" s="8">
+      <c r="H16" s="8">
         <v>0.82299999999999995</v>
       </c>
-      <c r="G16" s="8">
+      <c r="I16" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H16" s="8">
+      <c r="J16" s="8">
         <v>0.88</v>
       </c>
-      <c r="I16" s="8">
+      <c r="K16" s="8">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J16" s="8">
+      <c r="L16" s="8">
         <v>0.90900000000000003</v>
       </c>
-      <c r="K16" s="8">
+      <c r="M16" s="8">
         <v>0.60199999999999998</v>
       </c>
-      <c r="L16" s="8">
+      <c r="N16" s="8">
         <v>0.877</v>
       </c>
-      <c r="M16" s="8">
+      <c r="O16" s="8">
         <v>0.81599999999999995</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8">
-        <v>0.83299999999999996</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R16" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="8">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
         <v>0.81</v>
       </c>
-      <c r="C17" s="8">
+      <c r="E17" s="8">
         <v>0.755</v>
       </c>
-      <c r="D17" s="8">
+      <c r="F17" s="8">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E17" s="8">
+      <c r="G17" s="8">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F17" s="8">
+      <c r="H17" s="8">
         <v>0.82099999999999995</v>
       </c>
-      <c r="G17" s="8">
+      <c r="I17" s="8">
         <v>0.82</v>
       </c>
-      <c r="H17" s="8">
+      <c r="J17" s="8">
         <v>0.83099999999999996</v>
       </c>
-      <c r="I17" s="8">
+      <c r="K17" s="8">
         <v>0.86399999999999999</v>
       </c>
-      <c r="J17" s="8">
+      <c r="L17" s="8">
         <v>0.871</v>
       </c>
-      <c r="K17" s="8">
+      <c r="M17" s="8">
         <v>0.60499999999999998</v>
       </c>
-      <c r="L17" s="8">
+      <c r="N17" s="8">
         <v>0.86099999999999999</v>
       </c>
-      <c r="M17" s="8">
+      <c r="O17" s="8">
         <v>0.79900000000000004</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="8">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
         <v>0.80700000000000005</v>
       </c>
-      <c r="C18" s="8">
+      <c r="E18" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="D18" s="8">
+      <c r="F18" s="8">
         <v>0.73699999999999999</v>
       </c>
-      <c r="E18" s="8">
+      <c r="G18" s="8">
         <v>0.753</v>
       </c>
-      <c r="F18" s="8">
+      <c r="H18" s="8">
         <v>0.84799999999999998</v>
       </c>
-      <c r="G18" s="8">
+      <c r="I18" s="8">
         <v>0.82699999999999996</v>
       </c>
-      <c r="H18" s="8">
+      <c r="J18" s="8">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I18" s="8">
+      <c r="K18" s="8">
         <v>0.877</v>
       </c>
-      <c r="J18" s="8">
+      <c r="L18" s="8">
         <v>0.88600000000000001</v>
       </c>
-      <c r="K18" s="8">
+      <c r="M18" s="8">
         <v>0.59099999999999997</v>
       </c>
-      <c r="L18" s="8">
+      <c r="N18" s="8">
         <v>0.879</v>
       </c>
-      <c r="M18" s="8">
+      <c r="O18" s="8">
         <v>0.81599999999999995</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="8">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C19" s="8">
+      <c r="E19" s="8">
         <v>0.73</v>
       </c>
-      <c r="D19" s="8">
+      <c r="F19" s="8">
         <v>0.74099999999999999</v>
       </c>
-      <c r="E19" s="8">
+      <c r="G19" s="8">
         <v>0.70599999999999996</v>
       </c>
-      <c r="F19" s="8">
+      <c r="H19" s="8">
         <v>0.82299999999999995</v>
       </c>
-      <c r="G19" s="8">
+      <c r="I19" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="H19" s="8">
+      <c r="J19" s="8">
         <v>0.88</v>
       </c>
-      <c r="I19" s="8">
+      <c r="K19" s="8">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J19" s="8">
+      <c r="L19" s="8">
         <v>0.90900000000000003</v>
       </c>
-      <c r="K19" s="8">
+      <c r="M19" s="8">
         <v>0.60199999999999998</v>
       </c>
-      <c r="L19" s="8">
+      <c r="N19" s="8">
         <v>0.877</v>
       </c>
-      <c r="M19" s="8">
+      <c r="O19" s="8">
         <v>0.81599999999999995</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="9">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
         <v>0.64100000000000001</v>
       </c>
-      <c r="C20" s="9">
+      <c r="E20" s="9">
         <v>0.90300000000000002</v>
       </c>
-      <c r="D20" s="9">
+      <c r="F20" s="9">
         <v>0.86499999999999999</v>
       </c>
-      <c r="E20" s="9">
+      <c r="G20" s="9">
         <v>0.81299999999999994</v>
       </c>
-      <c r="F20" s="9">
+      <c r="H20" s="9">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G20" s="9">
+      <c r="I20" s="9">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H20" s="9">
+      <c r="J20" s="9">
         <v>0.77100000000000002</v>
       </c>
-      <c r="I20" s="9">
+      <c r="K20" s="9">
         <v>0.81100000000000005</v>
       </c>
-      <c r="J20" s="9">
+      <c r="L20" s="9">
         <v>0.51600000000000001</v>
       </c>
-      <c r="K20" s="9">
+      <c r="M20" s="9">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L20" s="9">
+      <c r="N20" s="9">
         <v>0.77600000000000002</v>
       </c>
-      <c r="M20" s="9">
+      <c r="O20" s="9">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N20" s="9">
+      <c r="P20" s="9">
         <v>0.70699999999999996</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="8">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="8">
         <v>0.76400000000000001</v>
       </c>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="9">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
         <v>0.65800000000000003</v>
       </c>
-      <c r="C21" s="9">
+      <c r="E21" s="9">
         <v>0.90200000000000002</v>
       </c>
-      <c r="D21" s="9">
+      <c r="F21" s="9">
         <v>0.85199999999999998</v>
       </c>
-      <c r="E21" s="9">
+      <c r="G21" s="9">
         <v>0.80700000000000005</v>
       </c>
-      <c r="F21" s="9">
+      <c r="H21" s="9">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G21" s="9">
+      <c r="I21" s="9">
         <v>0.92600000000000005</v>
       </c>
-      <c r="H21" s="9">
+      <c r="J21" s="9">
         <v>0.78</v>
       </c>
-      <c r="I21" s="9">
+      <c r="K21" s="9">
         <v>0.82899999999999996</v>
       </c>
-      <c r="J21" s="9">
+      <c r="L21" s="9">
         <v>0.60699999999999998</v>
       </c>
-      <c r="K21" s="9">
+      <c r="M21" s="9">
         <v>0.81399999999999995</v>
       </c>
-      <c r="L21" s="9">
+      <c r="N21" s="9">
         <v>0.78800000000000003</v>
       </c>
-      <c r="M21" s="9">
+      <c r="O21" s="9">
         <v>0.73499999999999999</v>
       </c>
-      <c r="N21" s="9">
+      <c r="P21" s="9">
         <v>0.7</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="8">
-        <v>0.78200000000000003</v>
       </c>
       <c r="Q21" s="9">
         <v>0.88100000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R21" s="9"/>
+      <c r="S21" s="8">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="9">
+        <v>94</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9">
         <v>0.67100000000000004</v>
       </c>
-      <c r="C22" s="9">
+      <c r="E22" s="9">
         <v>0.89700000000000002</v>
       </c>
-      <c r="D22" s="9">
+      <c r="F22" s="9">
         <v>0.875</v>
       </c>
-      <c r="E22" s="9">
+      <c r="G22" s="9">
         <v>0.78100000000000003</v>
       </c>
-      <c r="F22" s="9">
+      <c r="H22" s="9">
         <v>0.89600000000000002</v>
       </c>
-      <c r="G22" s="9">
+      <c r="I22" s="9">
         <v>0.92900000000000005</v>
       </c>
-      <c r="H22" s="9">
+      <c r="J22" s="9">
         <v>0.79</v>
       </c>
-      <c r="I22" s="9">
+      <c r="K22" s="9">
         <v>0.84399999999999997</v>
       </c>
-      <c r="J22" s="9">
+      <c r="L22" s="9">
         <v>0.52</v>
       </c>
-      <c r="K22" s="9">
+      <c r="M22" s="9">
         <v>0.85899999999999999</v>
       </c>
-      <c r="L22" s="9">
+      <c r="N22" s="9">
         <v>0.81100000000000005</v>
       </c>
-      <c r="M22" s="9">
+      <c r="O22" s="9">
         <v>0.76500000000000001</v>
       </c>
-      <c r="N22" s="9">
+      <c r="P22" s="9">
         <v>0.81299999999999994</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="8"/>
       <c r="Q22" s="9">
         <v>0.93899999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R22" s="9"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="9">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
         <v>0.64400000000000002</v>
       </c>
-      <c r="C23" s="9">
+      <c r="E23" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D23" s="9">
+      <c r="F23" s="9">
         <v>0.86</v>
       </c>
-      <c r="E23" s="9">
+      <c r="G23" s="9">
         <v>0.81100000000000005</v>
       </c>
-      <c r="F23" s="9">
+      <c r="H23" s="9">
         <v>0.88900000000000001</v>
       </c>
-      <c r="G23" s="9">
+      <c r="I23" s="9">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H23" s="9">
+      <c r="J23" s="9">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I23" s="9">
+      <c r="K23" s="9">
         <v>0.80600000000000005</v>
       </c>
-      <c r="J23" s="9">
+      <c r="L23" s="9">
         <v>0.51400000000000001</v>
       </c>
-      <c r="K23" s="9">
+      <c r="M23" s="9">
         <v>0.81499999999999995</v>
       </c>
-      <c r="L23" s="9">
+      <c r="N23" s="9">
         <v>0.77600000000000002</v>
       </c>
-      <c r="M23" s="9">
+      <c r="O23" s="9">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N23" s="9">
+      <c r="P23" s="9">
         <v>0.71099999999999997</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="9">
+        <v>89</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
         <v>0.53800000000000003</v>
       </c>
-      <c r="C24" s="9">
+      <c r="E24" s="9">
         <v>0.77</v>
       </c>
-      <c r="D24" s="9">
+      <c r="F24" s="9">
         <v>0.73099999999999998</v>
       </c>
-      <c r="E24" s="9">
+      <c r="G24" s="9">
         <v>0.68700000000000006</v>
       </c>
-      <c r="F24" s="9">
+      <c r="H24" s="9">
         <v>0.76400000000000001</v>
       </c>
-      <c r="G24" s="9">
+      <c r="I24" s="9">
         <v>0.80500000000000005</v>
       </c>
-      <c r="H24" s="9">
+      <c r="J24" s="9">
         <v>0.71499999999999997</v>
       </c>
-      <c r="I24" s="9">
+      <c r="K24" s="9">
         <v>0.76400000000000001</v>
       </c>
-      <c r="J24" s="9">
+      <c r="L24" s="9">
         <v>0.58699999999999997</v>
       </c>
-      <c r="K24" s="9">
+      <c r="M24" s="9">
         <v>0.76100000000000001</v>
       </c>
-      <c r="L24" s="9">
+      <c r="N24" s="9">
         <v>0.73899999999999999</v>
       </c>
-      <c r="M24" s="9">
+      <c r="O24" s="9">
         <v>0.70399999999999996</v>
       </c>
-      <c r="N24" s="9">
+      <c r="P24" s="9">
         <v>0.67100000000000004</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="9">
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9">
         <v>0.71599999999999997</v>
       </c>
-      <c r="C25" s="9">
+      <c r="E25" s="9">
         <v>0.90600000000000003</v>
       </c>
-      <c r="D25" s="9">
+      <c r="F25" s="9">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E25" s="9">
+      <c r="G25" s="9">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F25" s="9">
+      <c r="H25" s="9">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G25" s="9">
+      <c r="I25" s="9">
         <v>0.92100000000000004</v>
       </c>
-      <c r="H25" s="9">
+      <c r="J25" s="9">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I25" s="9">
+      <c r="K25" s="9">
         <v>0.57099999999999995</v>
       </c>
-      <c r="J25" s="9">
+      <c r="L25" s="9">
         <v>0.499</v>
       </c>
-      <c r="K25" s="9">
+      <c r="M25" s="9">
         <v>0.76300000000000001</v>
       </c>
-      <c r="L25" s="9">
+      <c r="N25" s="9">
         <v>0.67900000000000005</v>
       </c>
-      <c r="M25" s="9">
+      <c r="O25" s="9">
         <v>0.61</v>
       </c>
-      <c r="N25" s="9">
+      <c r="P25" s="9">
         <v>0.54100000000000004</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="9">
+        <v>93</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
         <v>0.70099999999999996</v>
       </c>
-      <c r="C26" s="9">
+      <c r="E26" s="9">
         <v>0.89</v>
       </c>
-      <c r="D26" s="9">
+      <c r="F26" s="9">
         <v>0.84599999999999997</v>
       </c>
-      <c r="E26" s="9">
+      <c r="G26" s="9">
         <v>0.78900000000000003</v>
       </c>
-      <c r="F26" s="9">
+      <c r="H26" s="9">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G26" s="10">
+      <c r="I26" s="10">
         <v>0.92300000000000004</v>
       </c>
-      <c r="H26" s="9">
+      <c r="J26" s="9">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I26" s="9">
+      <c r="K26" s="9">
         <v>0.71799999999999997</v>
       </c>
-      <c r="J26" s="9">
+      <c r="L26" s="9">
         <v>0.53900000000000003</v>
       </c>
-      <c r="K26" s="9">
+      <c r="M26" s="9">
         <v>0.77700000000000002</v>
       </c>
-      <c r="L26" s="9">
+      <c r="N26" s="9">
         <v>0.74</v>
       </c>
-      <c r="M26" s="9">
+      <c r="O26" s="9">
         <v>0.61499999999999999</v>
       </c>
-      <c r="N26" s="9">
+      <c r="P26" s="9">
         <v>0.73699999999999999</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7189,30 +7399,30 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7224,16 +7434,16 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q25">
-    <cfRule type="top10" dxfId="0" priority="9" percent="1" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q26">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D2:S26">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+    <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="percent" val="95"/>
+        <cfvo type="percent" val="100"/>
         <color rgb="FFFCFCFF"/>
         <color theme="7" tint="0.39997558519241921"/>
       </colorScale>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pe782d\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_3F086AA34A84638E21E1772C784AEA49CDEA746B" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3507679D-A75E-44EC-82B3-02EC07897062}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="13080" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1009,81 +1018,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1399,23 +1334,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E271" sqref="E271:E283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.73046875" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="1"/>
+    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1408,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1437,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1483,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1512,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1594,7 +1529,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1611,7 +1546,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1628,7 +1563,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1645,7 +1580,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1662,7 +1597,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1679,7 +1614,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1696,7 +1631,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1713,7 +1648,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +1665,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1682,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1764,7 +1699,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1781,7 +1716,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1798,7 +1733,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1815,7 +1750,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1844,7 +1779,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1796,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1878,7 +1813,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1895,7 +1830,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1912,7 +1847,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1929,7 +1864,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1946,7 +1881,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1963,7 +1898,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1980,7 +1915,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +1932,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2014,7 +1949,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2031,7 +1966,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +1995,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2077,7 +2012,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2094,7 +2029,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2111,7 +2046,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2128,7 +2063,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +2080,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2162,7 +2097,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2114,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2196,7 +2131,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2213,7 +2148,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2230,7 +2165,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2247,7 +2182,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2276,7 +2211,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2293,7 +2228,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2245,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2262,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2344,7 +2279,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2361,7 +2296,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2378,7 +2313,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2330,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2412,7 +2347,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2429,7 +2364,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2446,7 +2381,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2463,7 +2398,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2492,7 +2427,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2444,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2526,7 +2461,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2543,7 +2478,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2563,7 +2498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2515,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2597,7 +2532,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2614,7 +2549,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2631,7 +2566,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2648,7 +2583,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2677,7 +2612,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2694,7 +2629,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2711,7 +2646,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2728,7 +2663,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2745,7 +2680,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2762,7 +2697,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2779,7 +2714,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2796,7 +2731,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2813,7 +2748,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2830,7 +2765,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2847,7 +2782,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2864,7 +2799,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2893,7 +2828,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +2845,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2927,7 +2862,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2944,7 +2879,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2961,7 +2896,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2978,7 +2913,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2995,7 +2930,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3012,7 +2947,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -3029,7 +2964,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -3046,7 +2981,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -3063,7 +2998,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -3080,7 +3015,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3109,7 +3044,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -3126,7 +3061,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3143,7 +3078,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3160,7 +3095,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3177,7 +3112,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3194,7 +3129,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3211,7 +3146,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3163,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3245,7 +3180,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3262,7 +3197,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3279,7 +3214,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3296,7 +3231,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3313,7 +3248,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3330,7 +3265,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3347,7 +3282,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3364,7 +3299,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3381,7 +3316,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3398,7 +3333,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3415,7 +3350,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3432,7 +3367,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3449,7 +3384,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3466,7 +3401,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3483,7 +3418,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3500,7 +3435,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3517,7 +3452,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3534,7 +3469,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3551,7 +3486,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3580,7 +3515,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3597,7 +3532,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3614,7 +3549,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3631,7 +3566,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3583,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3665,7 +3600,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3682,7 +3617,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3699,7 +3634,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3716,7 +3651,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3733,7 +3668,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3750,7 +3685,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3767,7 +3702,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3784,7 +3719,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3801,7 +3736,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3830,7 +3765,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3847,7 +3782,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3864,7 +3799,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3881,7 +3816,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3898,7 +3833,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3915,7 +3850,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3932,7 +3867,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3949,7 +3884,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3966,7 +3901,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3983,7 +3918,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -4012,7 +3947,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -4029,7 +3964,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -4046,7 +3981,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -4063,7 +3998,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4080,7 +4015,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -4097,7 +4032,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -4114,7 +4049,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -4131,7 +4066,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -4148,7 +4083,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4165,7 +4100,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4182,7 +4117,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4199,7 +4134,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4228,7 +4163,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4245,7 +4180,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4262,7 +4197,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4279,7 +4214,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4296,7 +4231,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4313,7 +4248,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4330,7 +4265,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4347,7 +4282,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4364,7 +4299,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4381,7 +4316,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4398,7 +4333,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4415,7 +4350,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4444,7 +4379,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4461,7 +4396,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4478,7 +4413,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4495,7 +4430,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>72</v>
       </c>
@@ -4524,7 +4459,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>72</v>
       </c>
@@ -4553,7 +4488,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>72</v>
       </c>
@@ -4582,7 +4517,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>72</v>
       </c>
@@ -4611,7 +4546,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>72</v>
       </c>
@@ -4640,7 +4575,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -4657,12 +4592,12 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A194" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4614,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4696,7 +4631,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4713,7 +4648,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4730,7 +4665,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4747,7 +4682,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4764,7 +4699,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4781,7 +4716,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4798,7 +4733,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4815,7 +4750,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4832,7 +4767,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4849,7 +4784,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4866,7 +4801,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>60</v>
       </c>
@@ -4883,15 +4818,15 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A209" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4908,7 +4843,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4925,7 +4860,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4942,7 +4877,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4959,7 +4894,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4976,7 +4911,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4993,7 +4928,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -5010,7 +4945,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -5027,7 +4962,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -5044,7 +4979,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -5061,7 +4996,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -5078,7 +5013,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -5095,7 +5030,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -5112,15 +5047,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A224" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -5137,7 +5072,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -5154,7 +5089,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -5171,7 +5106,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -5188,7 +5123,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -5205,7 +5140,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5222,7 +5157,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5239,7 +5174,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5256,7 +5191,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5273,7 +5208,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5290,7 +5225,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5307,7 +5242,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5324,7 +5259,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>60</v>
       </c>
@@ -5341,12 +5276,12 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A239" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5363,7 +5298,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -5380,7 +5315,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5397,7 +5332,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -5414,7 +5349,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -5431,7 +5366,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -5448,7 +5383,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -5465,7 +5400,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5417,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -5499,7 +5434,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -5516,7 +5451,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5533,7 +5468,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -5550,7 +5485,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -5567,7 +5502,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>69</v>
       </c>
@@ -5584,12 +5519,12 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A255" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -5606,7 +5541,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -5623,7 +5558,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -5640,7 +5575,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -5657,7 +5592,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -5674,7 +5609,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -5691,7 +5626,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -5708,7 +5643,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>28</v>
       </c>
@@ -5725,7 +5660,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>29</v>
       </c>
@@ -5742,7 +5677,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -5759,7 +5694,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -5776,7 +5711,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -5793,7 +5728,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -5810,15 +5745,15 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -5835,7 +5770,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -5852,7 +5787,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -5869,7 +5804,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -5886,7 +5821,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -5903,7 +5838,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>26</v>
       </c>
@@ -5920,7 +5855,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -5937,7 +5872,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -5954,7 +5889,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -5971,7 +5906,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -5988,7 +5923,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -6005,7 +5940,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -6022,7 +5957,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -6046,24 +5981,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="10.85546875" customWidth="1"/>
-    <col min="18" max="19" width="10.85546875" customWidth="1"/>
+    <col min="4" max="16" width="10.86328125" customWidth="1"/>
+    <col min="18" max="19" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
@@ -6122,7 +6057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -6173,7 +6108,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -6226,7 +6161,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -6277,7 +6212,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -6332,7 +6267,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -6383,7 +6318,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -6436,7 +6371,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6487,7 +6422,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -6540,7 +6475,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -6591,7 +6526,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -6644,7 +6579,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -6679,7 +6614,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -6714,7 +6649,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6764,7 +6699,7 @@
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -6814,7 +6749,7 @@
       </c>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6864,7 +6799,7 @@
       </c>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -6915,7 +6850,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -6966,7 +6901,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -7017,7 +6952,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -7072,7 +7007,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -7129,7 +7064,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
@@ -7181,7 +7116,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -7231,7 +7166,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -7281,7 +7216,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -7331,7 +7266,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
@@ -7384,7 +7319,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7402,27 +7337,27 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todds\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/EnvNoiseDetector/data/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3F086AA34A84638E21E1772C784AEA49CDEA746B" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3507679D-A75E-44EC-82B3-02EC07897062}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19400" windowHeight="12200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -380,9 +379,6 @@
     </r>
   </si>
   <si>
-    <t>WaveletsV2 (Coiflet2,  4 Level, T 2s) with Hampel Filter</t>
-  </si>
-  <si>
     <t>Model Performance for SNR 6 dB</t>
   </si>
   <si>
@@ -438,16 +434,19 @@
   </si>
   <si>
     <t>Block length (s)</t>
+  </si>
+  <si>
+    <t>WaveletsV2 (Coiflet2,  3 Level, T 2s) with Hampel Filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,23 +1333,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271:E283"/>
+    <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.73046875" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" style="1"/>
-    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2182,7 +2181,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2313,7 +2312,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3401,7 +3400,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3486,7 +3485,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>72</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>72</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>72</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>72</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -4592,12 +4591,12 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:5" ht="16">
       <c r="A194" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4631,7 +4630,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4665,7 +4664,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>60</v>
       </c>
@@ -4818,15 +4817,15 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:5" ht="16">
       <c r="A209" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -5047,15 +5046,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5">
       <c r="C223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:5" ht="16">
       <c r="A224" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>60</v>
       </c>
@@ -5276,12 +5275,12 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:5" ht="16">
       <c r="A239" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>69</v>
       </c>
@@ -5519,12 +5518,12 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:5" ht="16">
       <c r="A255" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>28</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>29</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -5745,15 +5744,15 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5">
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5">
       <c r="A270" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>26</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -5923,7 +5922,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -5981,32 +5980,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="10.86328125" customWidth="1"/>
-    <col min="18" max="19" width="10.86328125" customWidth="1"/>
+    <col min="4" max="16" width="10.83203125" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="45">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
@@ -6057,9 +6056,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -6108,9 +6107,9 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -6161,9 +6160,9 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>26</v>
@@ -6212,9 +6211,9 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -6267,9 +6266,9 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -6318,9 +6317,9 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -6371,9 +6370,9 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -6422,9 +6421,9 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -6475,9 +6474,9 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -6526,9 +6525,9 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -6579,9 +6578,9 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <v>799</v>
@@ -6614,9 +6613,9 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -6649,7 +6648,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6699,7 +6698,7 @@
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -6749,7 +6748,7 @@
       </c>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6799,9 +6798,9 @@
       </c>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>500</v>
@@ -6850,9 +6849,9 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18">
         <v>500</v>
@@ -6901,9 +6900,9 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19">
         <v>500</v>
@@ -6952,7 +6951,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -7064,9 +7063,9 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19">
       <c r="A22" s="5" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -7116,7 +7115,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -7166,7 +7165,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -7216,7 +7215,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -7266,7 +7265,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19">
       <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
@@ -7319,7 +7318,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19">
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7337,27 +7336,27 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19">
       <c r="D29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19">
       <c r="D30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19">
       <c r="D31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_5F065D4B4EAE7E97249E4868FBFE291EF964507C" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEF26420-CFEE-4A10-B803-738417336F10}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19400" windowHeight="12200" activeTab="1"/>
+    <workbookView xWindow="2364" yWindow="1368" windowWidth="18444" windowHeight="14376" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -442,11 +435,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1333,23 +1326,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1465,7 +1458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1475,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1504,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1528,7 +1521,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1538,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1562,7 +1555,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1572,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1589,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1606,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1630,7 +1623,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +1640,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +1657,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1674,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1698,7 +1691,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1715,7 +1708,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1732,7 +1725,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1749,7 +1742,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1778,7 +1771,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1788,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1812,7 +1805,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1829,7 +1822,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1846,7 +1839,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1863,7 +1856,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1880,7 +1873,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1897,7 +1890,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1914,7 +1907,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1924,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1948,7 +1941,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1965,7 +1958,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1994,7 +1987,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2011,7 +2004,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2028,7 +2021,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2045,7 +2038,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2062,7 +2055,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2079,7 +2072,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2096,7 +2089,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2113,7 +2106,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2130,7 +2123,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2147,7 +2140,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2164,7 +2157,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2181,7 +2174,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2210,7 +2203,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2227,7 +2220,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2244,7 +2237,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2261,7 +2254,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2278,7 +2271,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2288,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2312,7 +2305,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +2322,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2346,7 +2339,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2363,7 +2356,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2373,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2397,7 +2390,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2426,7 +2419,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2443,7 +2436,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2453,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2477,7 +2470,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2497,7 +2490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +2507,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +2524,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2541,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2565,7 +2558,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2582,7 +2575,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2611,7 +2604,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2628,7 +2621,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2662,7 +2655,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2679,7 +2672,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2696,7 +2689,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2713,7 +2706,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2730,7 +2723,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2747,7 +2740,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +2757,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2781,7 +2774,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2798,7 +2791,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2827,7 +2820,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2844,7 +2837,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2861,7 +2854,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2878,7 +2871,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2895,7 +2888,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2912,7 +2905,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2929,7 +2922,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2946,7 +2939,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2963,7 +2956,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2980,7 +2973,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2997,7 +2990,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -3014,7 +3007,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3043,7 +3036,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3077,7 +3070,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3094,7 +3087,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3111,7 +3104,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3128,7 +3121,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3145,7 +3138,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3162,7 +3155,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3179,7 +3172,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3196,7 +3189,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3206,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3230,7 +3223,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3281,7 +3274,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3298,7 +3291,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3332,7 +3325,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3349,7 +3342,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3366,7 +3359,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3383,7 +3376,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3400,7 +3393,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3417,7 +3410,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3434,7 +3427,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3444,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3485,7 +3478,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3514,7 +3507,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3531,7 +3524,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3548,7 +3541,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3565,7 +3558,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3582,7 +3575,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3599,7 +3592,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3616,7 +3609,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3633,7 +3626,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3650,7 +3643,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3667,7 +3660,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3684,7 +3677,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3701,7 +3694,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3735,7 +3728,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3764,7 +3757,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3781,7 +3774,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3798,7 +3791,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3815,7 +3808,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3832,7 +3825,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3849,7 +3842,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3866,7 +3859,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3883,7 +3876,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3900,7 +3893,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3917,7 +3910,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3946,7 +3939,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3963,7 +3956,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3980,7 +3973,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3997,7 +3990,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4014,7 +4007,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -4031,7 +4024,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -4048,7 +4041,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -4065,7 +4058,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -4082,7 +4075,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4099,7 +4092,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4116,7 +4109,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4133,7 +4126,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4162,7 +4155,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4179,7 +4172,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4196,7 +4189,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4213,7 +4206,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4230,7 +4223,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4247,7 +4240,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4264,7 +4257,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4281,7 +4274,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4298,7 +4291,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4315,7 +4308,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4332,7 +4325,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4349,7 +4342,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4378,7 +4371,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4395,7 +4388,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4412,7 +4405,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4429,7 +4422,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>72</v>
       </c>
@@ -4458,7 +4451,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>72</v>
       </c>
@@ -4487,7 +4480,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>72</v>
       </c>
@@ -4516,7 +4509,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>72</v>
       </c>
@@ -4545,7 +4538,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>72</v>
       </c>
@@ -4574,7 +4567,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -4591,12 +4584,12 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16">
+    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4613,7 +4606,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4630,7 +4623,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4647,7 +4640,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4664,7 +4657,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4681,7 +4674,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4698,7 +4691,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4715,7 +4708,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4732,7 +4725,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4749,7 +4742,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4766,7 +4759,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4783,7 +4776,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4800,7 +4793,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>60</v>
       </c>
@@ -4817,15 +4810,15 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="16">
+    <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4842,7 +4835,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4859,7 +4852,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4876,7 +4869,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4893,7 +4886,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4910,7 +4903,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4927,7 +4920,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -4944,7 +4937,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -4961,7 +4954,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4978,7 +4971,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -4995,7 +4988,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -5012,7 +5005,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -5029,7 +5022,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -5046,15 +5039,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="16">
+    <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -5071,7 +5064,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -5088,7 +5081,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -5105,7 +5098,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -5122,7 +5115,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -5139,7 +5132,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5156,7 +5149,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5173,7 +5166,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5190,7 +5183,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5207,7 +5200,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5224,7 +5217,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5241,7 +5234,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>60</v>
       </c>
@@ -5275,12 +5268,12 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16">
+    <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5297,7 +5290,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -5314,7 +5307,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5331,7 +5324,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -5348,7 +5341,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -5365,7 +5358,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -5382,7 +5375,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -5399,7 +5392,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -5416,7 +5409,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -5433,7 +5426,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -5450,7 +5443,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -5484,7 +5477,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -5501,7 +5494,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>69</v>
       </c>
@@ -5518,12 +5511,12 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16">
+    <row r="255" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -5540,7 +5533,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -5557,7 +5550,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -5574,7 +5567,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -5591,7 +5584,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -5608,7 +5601,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -5625,7 +5618,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -5642,7 +5635,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>28</v>
       </c>
@@ -5659,7 +5652,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>29</v>
       </c>
@@ -5676,7 +5669,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -5693,7 +5686,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -5710,7 +5703,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -5727,7 +5720,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -5744,15 +5737,15 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -5769,7 +5762,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -5786,7 +5779,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -5803,7 +5796,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -5820,7 +5813,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -5837,7 +5830,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>26</v>
       </c>
@@ -5854,7 +5847,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -5871,7 +5864,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -5888,7 +5881,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -5905,7 +5898,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -5922,7 +5915,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -5939,7 +5932,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -5956,7 +5949,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -5980,24 +5973,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="10.83203125" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" customWidth="1"/>
+    <col min="4" max="16" width="10.77734375" customWidth="1"/>
+    <col min="18" max="19" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -6056,7 +6049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6100,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -6160,7 +6153,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -6211,7 +6204,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -6266,7 +6259,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -6317,7 +6310,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -6370,7 +6363,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -6421,7 +6414,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6474,7 +6467,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -6525,7 +6518,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -6578,7 +6571,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -6613,7 +6606,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -6648,7 +6641,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6698,7 +6691,7 @@
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -6748,7 +6741,7 @@
       </c>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6798,7 +6791,7 @@
       </c>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -6849,7 +6842,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -6900,7 +6893,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -6951,7 +6944,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -7006,7 +6999,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -7063,10 +7056,13 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
       <c r="C22">
         <v>2</v>
       </c>
@@ -7115,9 +7111,12 @@
       <c r="R22" s="9"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>82</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7165,9 +7164,12 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -7215,9 +7217,12 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -7265,7 +7270,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
@@ -7318,7 +7323,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7336,27 +7341,27 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="4:16">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\OneDrive\Documents\Sandbox\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_5F065D4B4EAE7E97249E4868FBFE291EF964507C" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FEF26420-CFEE-4A10-B803-738417336F10}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_5F065D4B4EAE7E97249E4868FBFE291EF964507C" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A469D133-28AD-4570-AAF1-544927852B9E}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="1368" windowWidth="18444" windowHeight="14376" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="864" windowWidth="19056" windowHeight="14448" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="109">
   <si>
     <t>ModelType</t>
   </si>
@@ -179,15 +179,6 @@
     <t>SNR 6 FFT df 100 Hz</t>
   </si>
   <si>
-    <t>Wavelet Scalogram 1 s</t>
-  </si>
-  <si>
-    <t>Wavelet Scalogram 3 s</t>
-  </si>
-  <si>
-    <t>Wavelet Scalogram 5 s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coarse Gaussian SVM </t>
   </si>
   <si>
@@ -264,12 +255,6 @@
   </si>
   <si>
     <t>FeaturesWavelets_coif2_Lvl4_T2.mat</t>
-  </si>
-  <si>
-    <t>WaveletsV2 (Coiflet2,  4 Level, T 1s) Var, Sub, Entr</t>
-  </si>
-  <si>
-    <t>WaveletsV2 (Debauchies4,  4 Level, T 1s) Var, Sub, Entr</t>
   </si>
   <si>
     <r>
@@ -313,9 +298,6 @@
     <t>not present</t>
   </si>
   <si>
-    <t>WaveletsV2(Haar, 4 Level, T 1s) Var,Sub,Entr</t>
-  </si>
-  <si>
     <t>Coiflet2 Wavelet w/2 levels, T2 second, Variance, Entropy, No subbands (as that only considers levels &gt; 2) (Total 7 Features)</t>
   </si>
   <si>
@@ -325,29 +307,47 @@
     <t>WaveletsV2 (Coiflet2,  2 Level, T 2s)</t>
   </si>
   <si>
+    <t>Model Performance for SNR 6 dB</t>
+  </si>
+  <si>
+    <t>* LSTM NN = long stort term memory neural net (extremely senstive to hyperparameters and initial training set selection)</t>
+  </si>
+  <si>
+    <t># Features</t>
+  </si>
+  <si>
+    <t>Block length (s)</t>
+  </si>
+  <si>
+    <t>Cepstral</t>
+  </si>
+  <si>
+    <t>1/3 Octaves</t>
+  </si>
+  <si>
+    <t>1/3 octaves</t>
+  </si>
+  <si>
+    <t>Octaves</t>
+  </si>
+  <si>
+    <t>MFCC</t>
+  </si>
+  <si>
+    <t>FFT df=25 Hz</t>
+  </si>
+  <si>
+    <t>FFT df=100 Hz</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram</t>
+  </si>
+  <si>
+    <t>DWT (Coiflet2, 4 lvl)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WaveletsV2 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[7 Features]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Coiflet2, </t>
+      <t xml:space="preserve">DWT (Coiflet2, </t>
     </r>
     <r>
       <rPr>
@@ -368,68 +368,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Levels, T2s)</t>
+      <t xml:space="preserve"> lvl)</t>
     </r>
   </si>
   <si>
-    <t>Model Performance for SNR 6 dB</t>
-  </si>
-  <si>
-    <t>Cepstral 13 features T 1 s</t>
-  </si>
-  <si>
-    <t>Cepstral 13 features T 2 s</t>
-  </si>
-  <si>
-    <t>Cepstral 26 features T 1 s</t>
-  </si>
-  <si>
-    <t>Cepstral 26 features T 2 s</t>
-  </si>
-  <si>
-    <t>1/3 Octaves T 1 s</t>
-  </si>
-  <si>
-    <t>1/3 octaves T 2 s</t>
-  </si>
-  <si>
-    <t>Octaves T 1 s</t>
-  </si>
-  <si>
-    <t>Octaves T 2 s</t>
-  </si>
-  <si>
-    <t>MFCC 13 features</t>
-  </si>
-  <si>
-    <t>MFCC 13 features T 1 s</t>
-  </si>
-  <si>
-    <t>FFT df 25 Hz</t>
-  </si>
-  <si>
-    <t>FFT df 100 Hz</t>
-  </si>
-  <si>
-    <t>Wavelet Scalogram Bag of Features - 1s</t>
-  </si>
-  <si>
-    <t>Wavelet Scalogram Bag of Features - 3s</t>
-  </si>
-  <si>
-    <t>Wavelet Scalogram Bag of Features - 5s</t>
-  </si>
-  <si>
-    <t>* LSTM NN = long stort term memory neural net (extremely senstive to hyperparameters and initial training set selection)</t>
-  </si>
-  <si>
-    <t># Features</t>
-  </si>
-  <si>
-    <t>Block length (s)</t>
-  </si>
-  <si>
-    <t>WaveletsV2 (Coiflet2,  3 Level, T 2s) with Hampel Filter</t>
+    <t>DWT (Coiflet2, 3 lvl), Hampel filter</t>
+  </si>
+  <si>
+    <t>* DWT = discrete wavelet transform</t>
+  </si>
+  <si>
+    <t>* All DWT features used wavelet variance, Shannon entropy, and subband statistics unless noted otherwise</t>
+  </si>
+  <si>
+    <t>DWT (Haar, 4 lvl)</t>
+  </si>
+  <si>
+    <t>DWT (Debauchies4, 4 lvl)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DWT (Coiflet2, 4 lvl) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no entr</t>
+    </r>
+  </si>
+  <si>
+    <t>Scalogram Bag of Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalogram Bag of Features </t>
   </si>
 </sst>
 </file>
@@ -782,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -897,6 +874,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -942,7 +948,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,7 +958,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -965,6 +970,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2472,10 +2486,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -2487,7 +2501,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3782,10 +3796,10 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D147" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E147" s="1">
         <v>0.81</v>
@@ -3799,10 +3813,10 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D148" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E148" s="1">
         <v>0.755</v>
@@ -3816,10 +3830,10 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D149" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E149" s="1">
         <v>0.74199999999999999</v>
@@ -3833,10 +3847,10 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D150" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E150" s="1">
         <v>0.73299999999999998</v>
@@ -3850,10 +3864,10 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D151" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E151" s="1">
         <v>0.82099999999999995</v>
@@ -3867,10 +3881,10 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D152" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E152" s="1">
         <v>0.82</v>
@@ -3884,10 +3898,10 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D153" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E153" s="1">
         <v>0.83099999999999996</v>
@@ -3901,10 +3915,10 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D154" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E154" s="1">
         <v>0.86399999999999999</v>
@@ -3918,10 +3932,10 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D155" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E155" s="1">
         <v>0.871</v>
@@ -3947,10 +3961,10 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D156" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E156" s="1">
         <v>0.60499999999999998</v>
@@ -3964,10 +3978,10 @@
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D157" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E157" s="1">
         <v>0.86099999999999999</v>
@@ -3981,10 +3995,10 @@
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D158" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E158" s="1">
         <v>0.79900000000000004</v>
@@ -3998,10 +4012,10 @@
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D160" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E160" s="1">
         <v>0.80700000000000005</v>
@@ -4015,10 +4029,10 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D161" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E161" s="1">
         <v>0.73199999999999998</v>
@@ -4032,10 +4046,10 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D162" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E162" s="1">
         <v>0.73699999999999999</v>
@@ -4049,10 +4063,10 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D163" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E163" s="1">
         <v>0.753</v>
@@ -4066,10 +4080,10 @@
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D164" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E164" s="1">
         <v>0.84799999999999998</v>
@@ -4083,10 +4097,10 @@
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D165" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E165" s="1">
         <v>0.82699999999999996</v>
@@ -4100,10 +4114,10 @@
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D166" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E166" s="1">
         <v>0.86699999999999999</v>
@@ -4117,10 +4131,10 @@
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D167" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E167" s="1">
         <v>0.877</v>
@@ -4134,10 +4148,10 @@
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D168" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E168" s="1">
         <v>0.88600000000000001</v>
@@ -4163,10 +4177,10 @@
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D169" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E169" s="1">
         <v>0.59099999999999997</v>
@@ -4180,10 +4194,10 @@
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D170" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E170" s="1">
         <v>0.879</v>
@@ -4197,10 +4211,10 @@
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D171" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E171" s="1">
         <v>0.81599999999999995</v>
@@ -4214,10 +4228,10 @@
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D173" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E173" s="1">
         <v>0.55000000000000004</v>
@@ -4231,10 +4245,10 @@
         <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D174" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E174" s="1">
         <v>0.73</v>
@@ -4248,10 +4262,10 @@
         <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D175" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E175" s="1">
         <v>0.74099999999999999</v>
@@ -4265,10 +4279,10 @@
         <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D176" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E176" s="1">
         <v>0.70599999999999996</v>
@@ -4282,10 +4296,10 @@
         <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D177" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E177" s="1">
         <v>0.82299999999999995</v>
@@ -4299,10 +4313,10 @@
         <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D178" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E178" s="1">
         <v>0.81699999999999995</v>
@@ -4316,10 +4330,10 @@
         <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D179" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E179" s="1">
         <v>0.88</v>
@@ -4333,10 +4347,10 @@
         <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D180" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E180" s="1">
         <v>0.89400000000000002</v>
@@ -4350,10 +4364,10 @@
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D181" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E181" s="1">
         <v>0.90900000000000003</v>
@@ -4379,10 +4393,10 @@
         <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E182" s="1">
         <v>0.60199999999999998</v>
@@ -4396,10 +4410,10 @@
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D183" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E183" s="1">
         <v>0.877</v>
@@ -4413,10 +4427,10 @@
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D184" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E184" s="1">
         <v>0.81599999999999995</v>
@@ -4424,7 +4438,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
@@ -4453,7 +4467,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -4482,7 +4496,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -4511,7 +4525,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -4540,7 +4554,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -4569,16 +4583,16 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B192" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" t="s">
         <v>70</v>
-      </c>
-      <c r="C192" t="s">
-        <v>61</v>
-      </c>
-      <c r="D192" t="s">
-        <v>73</v>
       </c>
       <c r="E192" s="1">
         <v>0.76400000000000001</v>
@@ -4586,7 +4600,7 @@
     </row>
     <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -4597,10 +4611,10 @@
         <v>16</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D195" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E195" s="1">
         <v>0.64100000000000001</v>
@@ -4614,10 +4628,10 @@
         <v>16</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D196" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E196" s="1">
         <v>0.90300000000000002</v>
@@ -4631,10 +4645,10 @@
         <v>16</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D197" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E197" s="1">
         <v>0.86499999999999999</v>
@@ -4648,10 +4662,10 @@
         <v>16</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D198" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E198" s="1">
         <v>0.81299999999999994</v>
@@ -4665,10 +4679,10 @@
         <v>16</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D199" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E199" s="1">
         <v>0.89500000000000002</v>
@@ -4682,10 +4696,10 @@
         <v>16</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D200" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E200" s="1">
         <v>0.91900000000000004</v>
@@ -4699,10 +4713,10 @@
         <v>16</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D201" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E201" s="1">
         <v>0.77100000000000002</v>
@@ -4716,10 +4730,10 @@
         <v>16</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D202" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E202" s="1">
         <v>0.81100000000000005</v>
@@ -4733,10 +4747,10 @@
         <v>16</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D203" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E203" s="1">
         <v>0.51600000000000001</v>
@@ -4750,10 +4764,10 @@
         <v>16</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D204" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E204" s="1">
         <v>0.81200000000000006</v>
@@ -4767,10 +4781,10 @@
         <v>16</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D205" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E205" s="1">
         <v>0.77600000000000002</v>
@@ -4784,10 +4798,10 @@
         <v>16</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D206" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E206" s="1">
         <v>0.66100000000000003</v>
@@ -4795,16 +4809,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D207" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E207" s="1">
         <v>0.70699999999999996</v>
@@ -4815,7 +4829,7 @@
     </row>
     <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -4826,10 +4840,10 @@
         <v>16</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D210" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E210" s="1">
         <v>0.64400000000000002</v>
@@ -4843,10 +4857,10 @@
         <v>16</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D211" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E211" s="1">
         <v>0.90100000000000002</v>
@@ -4860,10 +4874,10 @@
         <v>16</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D212" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E212" s="1">
         <v>0.86</v>
@@ -4877,10 +4891,10 @@
         <v>16</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D213" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E213" s="1">
         <v>0.81100000000000005</v>
@@ -4894,10 +4908,10 @@
         <v>16</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D214" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E214" s="1">
         <v>0.88900000000000001</v>
@@ -4911,10 +4925,10 @@
         <v>16</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D215" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E215" s="1">
         <v>0.91600000000000004</v>
@@ -4928,10 +4942,10 @@
         <v>16</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D216" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E216" s="1">
         <v>0.77200000000000002</v>
@@ -4945,10 +4959,10 @@
         <v>16</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D217" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E217" s="1">
         <v>0.80600000000000005</v>
@@ -4962,10 +4976,10 @@
         <v>16</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D218" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E218" s="1">
         <v>0.51400000000000001</v>
@@ -4979,10 +4993,10 @@
         <v>16</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D219" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E219" s="1">
         <v>0.81499999999999995</v>
@@ -4996,10 +5010,10 @@
         <v>16</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D220" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E220" s="1">
         <v>0.77600000000000002</v>
@@ -5013,10 +5027,10 @@
         <v>16</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D221" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E221" s="1">
         <v>0.66100000000000003</v>
@@ -5024,16 +5038,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B222" t="s">
         <v>16</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D222" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E222" s="1">
         <v>0.71099999999999997</v>
@@ -5044,7 +5058,7 @@
     </row>
     <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -5055,10 +5069,10 @@
         <v>16</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D225" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E225" s="1">
         <v>0.71599999999999997</v>
@@ -5072,10 +5086,10 @@
         <v>16</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D226" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E226" s="1">
         <v>0.90600000000000003</v>
@@ -5089,10 +5103,10 @@
         <v>16</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D227" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E227" s="1">
         <v>0.85699999999999998</v>
@@ -5106,10 +5120,10 @@
         <v>16</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D228" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E228" s="1">
         <v>0.81599999999999995</v>
@@ -5123,10 +5137,10 @@
         <v>16</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D229" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E229" s="1">
         <v>0.88300000000000001</v>
@@ -5140,10 +5154,10 @@
         <v>16</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D230" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E230" s="1">
         <v>0.92100000000000004</v>
@@ -5157,10 +5171,10 @@
         <v>16</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D231" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E231" s="1">
         <v>0.79200000000000004</v>
@@ -5174,10 +5188,10 @@
         <v>16</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D232" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E232" s="1">
         <v>0.57099999999999995</v>
@@ -5191,10 +5205,10 @@
         <v>16</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D233" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E233" s="1">
         <v>0.499</v>
@@ -5208,10 +5222,10 @@
         <v>16</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D234" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E234" s="1">
         <v>0.76300000000000001</v>
@@ -5225,10 +5239,10 @@
         <v>16</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D235" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E235" s="1">
         <v>0.67900000000000005</v>
@@ -5242,10 +5256,10 @@
         <v>16</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D236" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E236" s="1">
         <v>0.61</v>
@@ -5253,16 +5267,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D237" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E237" s="1">
         <v>0.54100000000000004</v>
@@ -5270,7 +5284,7 @@
     </row>
     <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -5281,10 +5295,10 @@
         <v>16</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D240" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E240" s="1">
         <v>0.65800000000000003</v>
@@ -5298,10 +5312,10 @@
         <v>16</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D241" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E241" s="1">
         <v>0.90200000000000002</v>
@@ -5315,10 +5329,10 @@
         <v>16</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D242" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E242" s="1">
         <v>0.85199999999999998</v>
@@ -5332,10 +5346,10 @@
         <v>16</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D243" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E243" s="1">
         <v>0.80700000000000005</v>
@@ -5349,10 +5363,10 @@
         <v>16</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D244" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E244" s="1">
         <v>0.89700000000000002</v>
@@ -5366,10 +5380,10 @@
         <v>16</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D245" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E245" s="1">
         <v>0.92600000000000005</v>
@@ -5383,10 +5397,10 @@
         <v>16</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D246" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E246" s="1">
         <v>0.78</v>
@@ -5400,10 +5414,10 @@
         <v>16</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D247" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E247" s="1">
         <v>0.82899999999999996</v>
@@ -5417,10 +5431,10 @@
         <v>16</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D248" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E248" s="1">
         <v>0.60699999999999998</v>
@@ -5434,10 +5448,10 @@
         <v>16</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D249" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E249" s="1">
         <v>0.81399999999999995</v>
@@ -5451,10 +5465,10 @@
         <v>16</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D250" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E250" s="1">
         <v>0.78800000000000003</v>
@@ -5468,10 +5482,10 @@
         <v>16</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D251" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E251" s="1">
         <v>0.73499999999999999</v>
@@ -5479,16 +5493,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B252" t="s">
         <v>16</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D252" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E252" s="1">
         <v>0.7</v>
@@ -5496,16 +5510,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B253" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E253" s="1">
         <v>0.72099999999999997</v>
@@ -5513,7 +5527,7 @@
     </row>
     <row r="255" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -5524,10 +5538,10 @@
         <v>16</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D256" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E256" s="1">
         <v>0.53800000000000003</v>
@@ -5541,10 +5555,10 @@
         <v>16</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D257" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E257" s="1">
         <v>0.77</v>
@@ -5558,10 +5572,10 @@
         <v>16</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D258" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E258" s="1">
         <v>0.73099999999999998</v>
@@ -5575,10 +5589,10 @@
         <v>16</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D259" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E259" s="1">
         <v>0.68700000000000006</v>
@@ -5592,10 +5606,10 @@
         <v>16</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D260" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E260" s="1">
         <v>0.76400000000000001</v>
@@ -5609,10 +5623,10 @@
         <v>16</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D261" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E261" s="1">
         <v>0.80500000000000005</v>
@@ -5626,10 +5640,10 @@
         <v>16</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D262" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E262" s="1">
         <v>0.71499999999999997</v>
@@ -5643,10 +5657,10 @@
         <v>16</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D263" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E263" s="1">
         <v>0.76400000000000001</v>
@@ -5660,10 +5674,10 @@
         <v>16</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D264" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E264" s="1">
         <v>0.58699999999999997</v>
@@ -5677,10 +5691,10 @@
         <v>16</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D265" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E265" s="1">
         <v>0.76100000000000001</v>
@@ -5694,10 +5708,10 @@
         <v>16</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D266" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E266" s="1">
         <v>0.73899999999999999</v>
@@ -5711,10 +5725,10 @@
         <v>16</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D267" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E267" s="1">
         <v>0.70399999999999996</v>
@@ -5722,16 +5736,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B268" t="s">
         <v>16</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D268" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E268" s="1">
         <v>0.67100000000000004</v>
@@ -5742,7 +5756,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -5753,10 +5767,10 @@
         <v>16</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D271" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E271" s="1">
         <v>0.70099999999999996</v>
@@ -5770,10 +5784,10 @@
         <v>16</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D272" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E272" s="1">
         <v>0.89</v>
@@ -5787,10 +5801,10 @@
         <v>16</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D273" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E273" s="1">
         <v>0.84599999999999997</v>
@@ -5804,10 +5818,10 @@
         <v>16</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D274" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E274" s="1">
         <v>0.78900000000000003</v>
@@ -5821,10 +5835,10 @@
         <v>16</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D275" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E275" s="1">
         <v>0.88200000000000001</v>
@@ -5838,10 +5852,10 @@
         <v>16</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D276" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E276" s="1">
         <v>0.92300000000000004</v>
@@ -5855,10 +5869,10 @@
         <v>16</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D277" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E277" s="1">
         <v>0.68799999999999994</v>
@@ -5872,10 +5886,10 @@
         <v>16</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D278" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E278" s="1">
         <v>0.71799999999999997</v>
@@ -5889,10 +5903,10 @@
         <v>16</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D279" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E279" s="1">
         <v>0.53900000000000003</v>
@@ -5906,10 +5920,10 @@
         <v>16</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D280" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E280" s="1">
         <v>0.77700000000000002</v>
@@ -5923,10 +5937,10 @@
         <v>16</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D281" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E281" s="1">
         <v>0.74</v>
@@ -5940,10 +5954,10 @@
         <v>16</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D282" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E282" s="1">
         <v>0.61499999999999999</v>
@@ -5951,16 +5965,16 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B283" t="s">
         <v>16</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D283" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E283" s="1">
         <v>0.73699999999999999</v>
@@ -5977,1388 +5991,1398 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="16" width="10.77734375" customWidth="1"/>
     <col min="18" max="19" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>68</v>
+      <c r="O1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.75800000000000001</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0.83099999999999996</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0.81100000000000005</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0.75600000000000001</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0.85</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>0.86799999999999999</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>0.77200000000000002</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>0.873</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>0.89100000000000001</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>0.85699999999999998</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>0.88</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>0.80400000000000005</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>96</v>
+      <c r="A3" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B3">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.78300000000000003</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0.76300000000000001</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0.86299999999999999</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.88200000000000001</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>0.79</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0.89500000000000002</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>0.91900000000000004</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>0.88600000000000001</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>0.89300000000000002</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>0.80500000000000005</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8">
         <v>0.86699999999999999</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>97</v>
+      <c r="A4" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B4">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.78</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.81799999999999995</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.78900000000000003</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>0.75600000000000001</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.85</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0.85499999999999998</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.79</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.88800000000000001</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.89700000000000002</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>0.76300000000000001</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>0.88100000000000001</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>0.79700000000000004</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>98</v>
+      <c r="A5" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="B5">
         <v>26</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.85199999999999998</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.81399999999999995</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.74299999999999999</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.88300000000000001</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0.80400000000000005</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.90700000000000003</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>0.92800000000000005</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>0.80900000000000005</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>0.90300000000000002</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>0.79700000000000004</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8">
         <v>0.92500000000000004</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7">
         <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>99</v>
+      <c r="A6" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="B6">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.753</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.85099999999999998</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>0.89</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>0.77500000000000002</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>0.81200000000000006</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>0.71899999999999997</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>0.754</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>0.70099999999999996</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>100</v>
+      <c r="A7" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="B7">
         <v>29</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.72799999999999998</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.875</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.82799999999999996</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.77300000000000002</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.875</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>0.91900000000000004</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>0.71699999999999997</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>0.79700000000000004</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>0.83799999999999997</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>0.76600000000000001</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>0.76500000000000001</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>0.71499999999999997</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8">
         <v>0.71499999999999997</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>101</v>
+      <c r="A8" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.82</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>0.79400000000000004</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0.72699999999999998</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0.82199999999999995</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>0.86299999999999999</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>0.66600000000000004</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>0.76400000000000001</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>0.8</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>0.78</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>0.75600000000000001</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>0.66800000000000004</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>102</v>
+      <c r="A9" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.67800000000000005</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.84699999999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0.80600000000000005</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.73699999999999999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>0.89</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>0.66500000000000004</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.77</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>0.81200000000000006</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>0.81100000000000005</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>0.76800000000000002</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>0.66900000000000004</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8">
         <v>0.77400000000000002</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>103</v>
+      <c r="A10" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="13">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.76300000000000001</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.82</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.78200000000000003</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.72099999999999997</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0.83499999999999996</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.85299999999999998</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>0.76800000000000002</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>0.85199999999999998</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>0.874</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>0.83799999999999997</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>0.87</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>0.77</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>104</v>
+      <c r="A11" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.74099999999999999</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.78900000000000003</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.81599999999999995</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>0.82899999999999996</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>0.753</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0.83</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>0.80500000000000005</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>0.84799999999999998</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>0.76400000000000001</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8">
         <v>0.77500000000000002</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>105</v>
+      <c r="A12" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="B12">
         <v>799</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.61299999999999999</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0.75800000000000001</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>0.7</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>106</v>
+      <c r="A13" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="B13">
         <v>200</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>0.01</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0.68300000000000005</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.76800000000000002</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>0.74</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
+      <c r="A14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.81</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>0.755</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0.74199999999999999</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>0.73299999999999998</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>0.82</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>0.83099999999999996</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>0.86399999999999999</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>0.871</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>0.60499999999999998</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>0.86099999999999999</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>0.79900000000000004</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="7">
         <v>0.92900000000000005</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15">
+      <c r="A15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="13">
         <v>3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>0.80700000000000005</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>0.73699999999999999</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>0.753</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>0.82699999999999996</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0.86699999999999999</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>0.877</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>0.88600000000000001</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>0.879</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>0.81599999999999995</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="8">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="7">
         <v>0.85099999999999998</v>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16">
+      <c r="A16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="13">
         <v>5</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>0.73</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>0.74099999999999999</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>0.82299999999999995</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>0.88</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0.89400000000000002</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>0.90900000000000003</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>0.60199999999999998</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>0.877</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>0.81599999999999995</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="7">
         <v>0.83299999999999996</v>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>107</v>
+      <c r="A17" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="B17">
         <v>500</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>1</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0.81</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>0.755</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>0.74199999999999999</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0.73299999999999998</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>0.82099999999999995</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>0.82</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>0.83099999999999996</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>0.86399999999999999</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>0.871</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>0.60499999999999998</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>0.86099999999999999</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>0.79900000000000004</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>108</v>
+      <c r="A18" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="B18">
         <v>500</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.80700000000000005</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>0.73699999999999999</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>0.753</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>0.82699999999999996</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>0.86699999999999999</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>0.877</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>0.88600000000000001</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>0.59099999999999997</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>0.879</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>0.81599999999999995</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>109</v>
+      <c r="A19" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="B19">
         <v>500</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>0.73</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>0.74099999999999999</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.82299999999999995</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>0.88</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>0.89400000000000002</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>0.90900000000000003</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>0.60199999999999998</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>0.877</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>0.81599999999999995</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>81</v>
+      <c r="A20" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.64100000000000001</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0.90300000000000002</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>0.86499999999999999</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>0.81299999999999994</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.89500000000000002</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>0.91900000000000004</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>0.77100000000000002</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>0.51600000000000001</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>0.81200000000000006</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>0.77600000000000002</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <v>0.66100000000000003</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="8">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="7">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>85</v>
+      <c r="A21" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.65800000000000003</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>0.85199999999999998</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>0.80700000000000005</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>0.89700000000000002</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0.92600000000000005</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>0.78</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>0.82899999999999996</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>0.60699999999999998</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>0.81399999999999995</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>0.78800000000000003</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>0.73499999999999999</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <v>0.7</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="8">
         <v>0.88100000000000001</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="8">
+      <c r="R21" s="8"/>
+      <c r="S21" s="7">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>113</v>
+      <c r="A22" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="B22">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
         <v>2</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>0.67100000000000004</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>0.875</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>0.78100000000000003</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>0.79</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>0.52</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>0.85899999999999999</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <v>0.76500000000000001</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <v>0.81299999999999994</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="8">
         <v>0.93899999999999995</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="7"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>82</v>
+      <c r="A23" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="B23">
         <v>17</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>0.64400000000000002</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>0.90100000000000002</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>0.86</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>0.88900000000000001</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>0.77200000000000002</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>0.80600000000000005</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>0.51400000000000001</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>0.81499999999999995</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>0.77600000000000002</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <v>0.66100000000000003</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <v>0.71099999999999997</v>
       </c>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>89</v>
+      <c r="A24" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="B24">
         <v>17</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>0.77</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>0.73099999999999998</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0.68700000000000006</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>0.76400000000000001</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>0.71499999999999997</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>0.76400000000000001</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>0.58699999999999997</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>0.76100000000000001</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>0.73899999999999999</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="8">
         <v>0.70399999999999996</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="8">
         <v>0.67100000000000004</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>83</v>
+      <c r="A25" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="B25">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="13">
         <v>2</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.71599999999999997</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>0.90600000000000003</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>0.85699999999999998</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>0.81599999999999995</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>0.92100000000000004</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>0.57099999999999995</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>0.499</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>0.76300000000000001</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <v>0.67900000000000005</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <v>0.61</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <v>0.54100000000000004</v>
       </c>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>93</v>
+      <c r="A26" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="13">
         <v>2</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.70099999999999996</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>0.89</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>0.84599999999999997</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>0.92300000000000004</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>0.68799999999999994</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>0.71799999999999997</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>0.53900000000000003</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <v>0.77700000000000002</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <v>0.74</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="8">
         <v>0.61499999999999999</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="8">
         <v>0.73699999999999999</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.3">

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -9,18 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="720" windowWidth="21720" windowHeight="13380" activeTab="1"/>
+    <workbookView xWindow="1280" yWindow="5180" windowWidth="22100" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="116">
   <si>
     <t>ModelType</t>
   </si>
@@ -172,9 +181,6 @@
     <t>featuresSNR6MFCC13featuresT1s.mat</t>
   </si>
   <si>
-    <t>SNR 6  1/3 Octaves T 1 s</t>
-  </si>
-  <si>
     <t>SNR6 FFT df 25 Hz</t>
   </si>
   <si>
@@ -232,9 +238,6 @@
     <t>LSTM NN</t>
   </si>
   <si>
-    <t>* LSTM NN = long stort term memory neural net (extremely senstive to hyperparameters and initial trainig set selection)</t>
-  </si>
-  <si>
     <t>LSTM</t>
   </si>
   <si>
@@ -242,9 +245,6 @@
   </si>
   <si>
     <t>*Highly sensitive to hyperparamters and initial training set</t>
-  </si>
-  <si>
-    <t>Neural Net (GUI)</t>
   </si>
   <si>
     <t>Neural Net</t>
@@ -380,7 +380,70 @@
     </r>
   </si>
   <si>
-    <t>WaveletsV2 (Coiflet2,  4 Level, T 2s) with Hampel Filter</t>
+    <t>Model Performance for SNR 6 dB</t>
+  </si>
+  <si>
+    <t>Cepstral 13 features T 1 s</t>
+  </si>
+  <si>
+    <t>Cepstral 13 features T 2 s</t>
+  </si>
+  <si>
+    <t>Cepstral 26 features T 1 s</t>
+  </si>
+  <si>
+    <t>Cepstral 26 features T 2 s</t>
+  </si>
+  <si>
+    <t>1/3 Octaves T 1 s</t>
+  </si>
+  <si>
+    <t>1/3 octaves T 2 s</t>
+  </si>
+  <si>
+    <t>Octaves T 1 s</t>
+  </si>
+  <si>
+    <t>Octaves T 2 s</t>
+  </si>
+  <si>
+    <t>MFCC 13 features</t>
+  </si>
+  <si>
+    <t>MFCC 13 features T 1 s</t>
+  </si>
+  <si>
+    <t>FFT df 25 Hz</t>
+  </si>
+  <si>
+    <t>FFT df 100 Hz</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram Bag of Features - 1s</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram Bag of Features - 3s</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram Bag of Features - 5s</t>
+  </si>
+  <si>
+    <t>* LSTM NN = long stort term memory neural net (extremely senstive to hyperparameters and initial training set selection)</t>
+  </si>
+  <si>
+    <t># Features</t>
+  </si>
+  <si>
+    <t>Block length (s)</t>
+  </si>
+  <si>
+    <t>WaveletsV2 (Coiflet2,  3 Level, T 2s) with Hampel Filter</t>
+  </si>
+  <si>
+    <t>WaveletsV2 (Coiflet2,  5 Level, T 2s) with Hampel Filter</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -390,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,19 +956,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1270,20 +1346,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271:E283"/>
+    <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
     <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1446,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1407,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1416,7 +1492,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1445,7 +1521,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1453,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1462,7 +1538,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1546,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1479,7 +1555,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1496,7 +1572,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1504,7 +1580,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1513,7 +1589,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1597,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1530,7 +1606,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1547,7 +1623,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +1640,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1581,7 +1657,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1674,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1691,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +1708,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1649,7 +1725,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1666,7 +1742,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1759,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1712,7 +1788,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1729,7 +1805,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1822,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1763,7 +1839,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1856,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1873,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1814,7 +1890,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1831,7 +1907,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1848,7 +1924,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1865,7 +1941,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1958,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1975,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +2004,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1945,7 +2021,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1962,7 +2038,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1979,7 +2055,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2072,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2013,7 +2089,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2106,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2123,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2064,7 +2140,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2081,7 +2157,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +2174,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2191,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2144,7 +2220,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2237,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2178,7 +2254,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2195,7 +2271,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2212,7 +2288,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2229,7 +2305,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2246,7 +2322,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2263,7 +2339,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2356,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2297,7 +2373,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2314,7 +2390,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2407,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +2436,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2377,7 +2453,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2394,7 +2470,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2411,12 +2487,12 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -2428,10 +2504,10 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2524,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2465,7 +2541,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +2558,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2499,7 +2575,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2516,7 +2592,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2545,7 +2621,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +2638,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2579,7 +2655,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2596,7 +2672,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2613,7 +2689,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2630,7 +2706,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2647,7 +2723,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2740,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2681,7 +2757,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2698,7 +2774,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2715,7 +2791,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2732,7 +2808,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2761,7 +2837,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2778,7 +2854,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2795,7 +2871,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2812,7 +2888,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2829,7 +2905,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2846,7 +2922,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2863,7 +2939,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2880,7 +2956,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2897,7 +2973,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2914,7 +2990,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +3007,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -2948,7 +3024,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2977,7 +3053,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +3070,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3011,7 +3087,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3028,7 +3104,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3045,7 +3121,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3062,7 +3138,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +3155,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3096,7 +3172,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3189,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3130,7 +3206,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3147,7 +3223,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3164,7 +3240,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3181,7 +3257,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3198,7 +3274,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3215,7 +3291,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3232,7 +3308,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3249,7 +3325,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3266,7 +3342,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3283,7 +3359,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3300,7 +3376,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3317,7 +3393,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3334,7 +3410,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3351,7 +3427,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +3444,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3385,7 +3461,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3402,7 +3478,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3419,7 +3495,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3448,7 +3524,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3465,7 +3541,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3482,7 +3558,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3499,7 +3575,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +3592,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3533,7 +3609,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3550,7 +3626,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3567,7 +3643,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3584,7 +3660,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3601,7 +3677,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3618,7 +3694,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3635,7 +3711,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3652,7 +3728,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3669,7 +3745,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3698,7 +3774,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3715,7 +3791,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3723,16 +3799,16 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147" t="s">
         <v>63</v>
-      </c>
-      <c r="D147" t="s">
-        <v>64</v>
       </c>
       <c r="E147" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3740,16 +3816,16 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" t="s">
         <v>63</v>
-      </c>
-      <c r="D148" t="s">
-        <v>64</v>
       </c>
       <c r="E148" s="1">
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3757,16 +3833,16 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
+        <v>62</v>
+      </c>
+      <c r="D149" t="s">
         <v>63</v>
-      </c>
-      <c r="D149" t="s">
-        <v>64</v>
       </c>
       <c r="E149" s="1">
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3774,16 +3850,16 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
+        <v>62</v>
+      </c>
+      <c r="D150" t="s">
         <v>63</v>
-      </c>
-      <c r="D150" t="s">
-        <v>64</v>
       </c>
       <c r="E150" s="1">
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3791,16 +3867,16 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" t="s">
         <v>63</v>
-      </c>
-      <c r="D151" t="s">
-        <v>64</v>
       </c>
       <c r="E151" s="1">
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3808,16 +3884,16 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D152" t="s">
         <v>63</v>
-      </c>
-      <c r="D152" t="s">
-        <v>64</v>
       </c>
       <c r="E152" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3825,16 +3901,16 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
+        <v>62</v>
+      </c>
+      <c r="D153" t="s">
         <v>63</v>
-      </c>
-      <c r="D153" t="s">
-        <v>64</v>
       </c>
       <c r="E153" s="1">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3842,16 +3918,16 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
+        <v>62</v>
+      </c>
+      <c r="D154" t="s">
         <v>63</v>
-      </c>
-      <c r="D154" t="s">
-        <v>64</v>
       </c>
       <c r="E154" s="1">
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3859,10 +3935,10 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
+        <v>62</v>
+      </c>
+      <c r="D155" t="s">
         <v>63</v>
-      </c>
-      <c r="D155" t="s">
-        <v>64</v>
       </c>
       <c r="E155" s="1">
         <v>0.871</v>
@@ -3880,7 +3956,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3888,16 +3964,16 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
+        <v>62</v>
+      </c>
+      <c r="D156" t="s">
         <v>63</v>
-      </c>
-      <c r="D156" t="s">
-        <v>64</v>
       </c>
       <c r="E156" s="1">
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3905,16 +3981,16 @@
         <v>16</v>
       </c>
       <c r="C157" t="s">
+        <v>62</v>
+      </c>
+      <c r="D157" t="s">
         <v>63</v>
-      </c>
-      <c r="D157" t="s">
-        <v>64</v>
       </c>
       <c r="E157" s="1">
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -3922,16 +3998,16 @@
         <v>16</v>
       </c>
       <c r="C158" t="s">
+        <v>62</v>
+      </c>
+      <c r="D158" t="s">
         <v>63</v>
-      </c>
-      <c r="D158" t="s">
-        <v>64</v>
       </c>
       <c r="E158" s="1">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -3939,16 +4015,16 @@
         <v>16</v>
       </c>
       <c r="C160" t="s">
+        <v>64</v>
+      </c>
+      <c r="D160" t="s">
         <v>65</v>
-      </c>
-      <c r="D160" t="s">
-        <v>66</v>
       </c>
       <c r="E160" s="1">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -3956,16 +4032,16 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161" t="s">
         <v>65</v>
-      </c>
-      <c r="D161" t="s">
-        <v>66</v>
       </c>
       <c r="E161" s="1">
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3973,16 +4049,16 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
         <v>65</v>
-      </c>
-      <c r="D162" t="s">
-        <v>66</v>
       </c>
       <c r="E162" s="1">
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -3990,16 +4066,16 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" t="s">
         <v>65</v>
-      </c>
-      <c r="D163" t="s">
-        <v>66</v>
       </c>
       <c r="E163" s="1">
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -4007,16 +4083,16 @@
         <v>16</v>
       </c>
       <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" t="s">
         <v>65</v>
-      </c>
-      <c r="D164" t="s">
-        <v>66</v>
       </c>
       <c r="E164" s="1">
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4024,16 +4100,16 @@
         <v>16</v>
       </c>
       <c r="C165" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" t="s">
         <v>65</v>
-      </c>
-      <c r="D165" t="s">
-        <v>66</v>
       </c>
       <c r="E165" s="1">
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4041,16 +4117,16 @@
         <v>16</v>
       </c>
       <c r="C166" t="s">
+        <v>64</v>
+      </c>
+      <c r="D166" t="s">
         <v>65</v>
-      </c>
-      <c r="D166" t="s">
-        <v>66</v>
       </c>
       <c r="E166" s="1">
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4058,16 +4134,16 @@
         <v>16</v>
       </c>
       <c r="C167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167" t="s">
         <v>65</v>
-      </c>
-      <c r="D167" t="s">
-        <v>66</v>
       </c>
       <c r="E167" s="1">
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4075,10 +4151,10 @@
         <v>16</v>
       </c>
       <c r="C168" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" t="s">
         <v>65</v>
-      </c>
-      <c r="D168" t="s">
-        <v>66</v>
       </c>
       <c r="E168" s="1">
         <v>0.88600000000000001</v>
@@ -4096,7 +4172,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4104,16 +4180,16 @@
         <v>16</v>
       </c>
       <c r="C169" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" t="s">
         <v>65</v>
-      </c>
-      <c r="D169" t="s">
-        <v>66</v>
       </c>
       <c r="E169" s="1">
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4121,16 +4197,16 @@
         <v>16</v>
       </c>
       <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" t="s">
         <v>65</v>
-      </c>
-      <c r="D170" t="s">
-        <v>66</v>
       </c>
       <c r="E170" s="1">
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4138,16 +4214,16 @@
         <v>16</v>
       </c>
       <c r="C171" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" t="s">
         <v>65</v>
-      </c>
-      <c r="D171" t="s">
-        <v>66</v>
       </c>
       <c r="E171" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4155,16 +4231,16 @@
         <v>16</v>
       </c>
       <c r="C173" t="s">
+        <v>66</v>
+      </c>
+      <c r="D173" t="s">
         <v>67</v>
-      </c>
-      <c r="D173" t="s">
-        <v>68</v>
       </c>
       <c r="E173" s="1">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4172,16 +4248,16 @@
         <v>16</v>
       </c>
       <c r="C174" t="s">
+        <v>66</v>
+      </c>
+      <c r="D174" t="s">
         <v>67</v>
-      </c>
-      <c r="D174" t="s">
-        <v>68</v>
       </c>
       <c r="E174" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4189,16 +4265,16 @@
         <v>16</v>
       </c>
       <c r="C175" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175" t="s">
         <v>67</v>
-      </c>
-      <c r="D175" t="s">
-        <v>68</v>
       </c>
       <c r="E175" s="1">
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4206,16 +4282,16 @@
         <v>16</v>
       </c>
       <c r="C176" t="s">
+        <v>66</v>
+      </c>
+      <c r="D176" t="s">
         <v>67</v>
-      </c>
-      <c r="D176" t="s">
-        <v>68</v>
       </c>
       <c r="E176" s="1">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4223,16 +4299,16 @@
         <v>16</v>
       </c>
       <c r="C177" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" t="s">
         <v>67</v>
-      </c>
-      <c r="D177" t="s">
-        <v>68</v>
       </c>
       <c r="E177" s="1">
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4240,16 +4316,16 @@
         <v>16</v>
       </c>
       <c r="C178" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" t="s">
         <v>67</v>
-      </c>
-      <c r="D178" t="s">
-        <v>68</v>
       </c>
       <c r="E178" s="1">
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4257,16 +4333,16 @@
         <v>16</v>
       </c>
       <c r="C179" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179" t="s">
         <v>67</v>
-      </c>
-      <c r="D179" t="s">
-        <v>68</v>
       </c>
       <c r="E179" s="1">
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4274,16 +4350,16 @@
         <v>16</v>
       </c>
       <c r="C180" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" t="s">
         <v>67</v>
-      </c>
-      <c r="D180" t="s">
-        <v>68</v>
       </c>
       <c r="E180" s="1">
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4291,10 +4367,10 @@
         <v>16</v>
       </c>
       <c r="C181" t="s">
+        <v>66</v>
+      </c>
+      <c r="D181" t="s">
         <v>67</v>
-      </c>
-      <c r="D181" t="s">
-        <v>68</v>
       </c>
       <c r="E181" s="1">
         <v>0.90900000000000003</v>
@@ -4312,7 +4388,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4320,16 +4396,16 @@
         <v>16</v>
       </c>
       <c r="C182" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" t="s">
         <v>67</v>
-      </c>
-      <c r="D182" t="s">
-        <v>68</v>
       </c>
       <c r="E182" s="1">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4337,16 +4413,16 @@
         <v>16</v>
       </c>
       <c r="C183" t="s">
+        <v>66</v>
+      </c>
+      <c r="D183" t="s">
         <v>67</v>
-      </c>
-      <c r="D183" t="s">
-        <v>68</v>
       </c>
       <c r="E183" s="1">
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4354,18 +4430,18 @@
         <v>16</v>
       </c>
       <c r="C184" t="s">
+        <v>66</v>
+      </c>
+      <c r="D184" t="s">
         <v>67</v>
-      </c>
-      <c r="D184" t="s">
-        <v>68</v>
       </c>
       <c r="E184" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
@@ -4392,9 +4468,9 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -4421,9 +4497,9 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -4450,9 +4526,9 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -4479,9 +4555,9 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -4508,1400 +4584,1400 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B192" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C192" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D192" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E192" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="16">
+      <c r="A194" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>78</v>
+      <c r="C195" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D195" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E195" s="1">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>18</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>78</v>
+      <c r="C196" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D196" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E196" s="1">
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>19</v>
       </c>
       <c r="B197" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>78</v>
+      <c r="C197" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D197" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E197" s="1">
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>20</v>
       </c>
       <c r="B198" t="s">
         <v>16</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>78</v>
+      <c r="C198" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D198" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E198" s="1">
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>23</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>78</v>
+      <c r="C199" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D199" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E199" s="1">
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>26</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>78</v>
+      <c r="C200" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D200" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E200" s="1">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>27</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>78</v>
+      <c r="C201" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D201" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E201" s="1">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>28</v>
       </c>
       <c r="B202" t="s">
         <v>16</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>78</v>
+      <c r="C202" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D202" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E202" s="1">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>29</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>78</v>
+      <c r="C203" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D203" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E203" s="1">
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>22</v>
       </c>
       <c r="B204" t="s">
         <v>16</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>78</v>
+      <c r="C204" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D204" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E204" s="1">
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>30</v>
       </c>
       <c r="B205" t="s">
         <v>16</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>78</v>
+      <c r="C205" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D205" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E205" s="1">
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>31</v>
       </c>
       <c r="B206" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>78</v>
+      <c r="C206" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D206" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E206" s="1">
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>78</v>
+      <c r="C207" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D207" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E207" s="1">
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C208" s="6"/>
-    </row>
-    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="209" spans="1:5" ht="16">
+      <c r="A209" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>15</v>
       </c>
       <c r="B210" t="s">
         <v>16</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>80</v>
+      <c r="C210" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D210" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E210" s="1">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>18</v>
       </c>
       <c r="B211" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>80</v>
+      <c r="C211" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D211" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E211" s="1">
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>19</v>
       </c>
       <c r="B212" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>80</v>
+      <c r="C212" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D212" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E212" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>20</v>
       </c>
       <c r="B213" t="s">
         <v>16</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>80</v>
+      <c r="C213" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D213" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E213" s="1">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>23</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>80</v>
+      <c r="C214" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D214" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E214" s="1">
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>26</v>
       </c>
       <c r="B215" t="s">
         <v>16</v>
       </c>
-      <c r="C215" s="6" t="s">
-        <v>80</v>
+      <c r="C215" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D215" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E215" s="1">
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>27</v>
       </c>
       <c r="B216" t="s">
         <v>16</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>80</v>
+      <c r="C216" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D216" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E216" s="1">
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>28</v>
       </c>
       <c r="B217" t="s">
         <v>16</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>80</v>
+      <c r="C217" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D217" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E217" s="1">
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>29</v>
       </c>
       <c r="B218" t="s">
         <v>16</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>80</v>
+      <c r="C218" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D218" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E218" s="1">
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>22</v>
       </c>
       <c r="B219" t="s">
         <v>16</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>80</v>
+      <c r="C219" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D219" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E219" s="1">
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>30</v>
       </c>
       <c r="B220" t="s">
         <v>16</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>80</v>
+      <c r="C220" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D220" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E220" s="1">
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>31</v>
       </c>
       <c r="B221" t="s">
         <v>16</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>80</v>
+      <c r="C221" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D221" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E221" s="1">
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B222" t="s">
         <v>16</v>
       </c>
-      <c r="C222" s="6" t="s">
-        <v>80</v>
+      <c r="C222" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D222" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E222" s="1">
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C223" s="6"/>
-    </row>
-    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" spans="1:5" ht="16">
+      <c r="A224" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>15</v>
       </c>
       <c r="B225" t="s">
         <v>16</v>
       </c>
-      <c r="C225" s="6" t="s">
-        <v>86</v>
+      <c r="C225" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D225" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E225" s="1">
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>18</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>86</v>
+      <c r="C226" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D226" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E226" s="1">
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>19</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>86</v>
+      <c r="C227" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D227" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E227" s="1">
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>20</v>
       </c>
       <c r="B228" t="s">
         <v>16</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>86</v>
+      <c r="C228" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D228" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E228" s="1">
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>23</v>
       </c>
       <c r="B229" t="s">
         <v>16</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>86</v>
+      <c r="C229" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D229" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E229" s="1">
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>26</v>
       </c>
       <c r="B230" t="s">
         <v>16</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>86</v>
+      <c r="C230" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D230" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E230" s="1">
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>27</v>
       </c>
       <c r="B231" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>86</v>
+      <c r="C231" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D231" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E231" s="1">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>28</v>
       </c>
       <c r="B232" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>86</v>
+      <c r="C232" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D232" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E232" s="1">
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>29</v>
       </c>
       <c r="B233" t="s">
         <v>16</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>86</v>
+      <c r="C233" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D233" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E233" s="1">
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>22</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>86</v>
+      <c r="C234" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D234" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E234" s="1">
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>30</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>86</v>
+      <c r="C235" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D235" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E235" s="1">
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>31</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="6" t="s">
-        <v>86</v>
+      <c r="C236" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D236" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E236" s="1">
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>86</v>
+      <c r="C237" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D237" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E237" s="1">
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="16">
+      <c r="A239" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>15</v>
       </c>
       <c r="B240" t="s">
         <v>16</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>88</v>
+      <c r="C240" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D240" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E240" s="1">
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>18</v>
       </c>
       <c r="B241" t="s">
         <v>16</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>88</v>
+      <c r="C241" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D241" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E241" s="1">
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>19</v>
       </c>
       <c r="B242" t="s">
         <v>16</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>88</v>
+      <c r="C242" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D242" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E242" s="1">
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>20</v>
       </c>
       <c r="B243" t="s">
         <v>16</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>88</v>
+      <c r="C243" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D243" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E243" s="1">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>23</v>
       </c>
       <c r="B244" t="s">
         <v>16</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>88</v>
+      <c r="C244" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D244" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E244" s="1">
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>26</v>
       </c>
       <c r="B245" t="s">
         <v>16</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>88</v>
+      <c r="C245" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D245" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E245" s="1">
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>27</v>
       </c>
       <c r="B246" t="s">
         <v>16</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>88</v>
+      <c r="C246" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D246" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E246" s="1">
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>28</v>
       </c>
       <c r="B247" t="s">
         <v>16</v>
       </c>
-      <c r="C247" s="6" t="s">
-        <v>88</v>
+      <c r="C247" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D247" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E247" s="1">
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>29</v>
       </c>
       <c r="B248" t="s">
         <v>16</v>
       </c>
-      <c r="C248" s="6" t="s">
-        <v>88</v>
+      <c r="C248" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D248" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E248" s="1">
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>22</v>
       </c>
       <c r="B249" t="s">
         <v>16</v>
       </c>
-      <c r="C249" s="6" t="s">
-        <v>88</v>
+      <c r="C249" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D249" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E249" s="1">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>30</v>
       </c>
       <c r="B250" t="s">
         <v>16</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>88</v>
+      <c r="C250" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D250" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E250" s="1">
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>31</v>
       </c>
       <c r="B251" t="s">
         <v>16</v>
       </c>
-      <c r="C251" s="6" t="s">
-        <v>88</v>
+      <c r="C251" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D251" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E251" s="1">
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B252" t="s">
         <v>16</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>88</v>
+      <c r="C252" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D252" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E252" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B253" t="s">
-        <v>72</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D253" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E253" s="1">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="16">
+      <c r="A255" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>15</v>
       </c>
       <c r="B256" t="s">
         <v>16</v>
       </c>
-      <c r="C256" s="6" t="s">
-        <v>90</v>
+      <c r="C256" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D256" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E256" s="1">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>18</v>
       </c>
       <c r="B257" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>90</v>
+      <c r="C257" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D257" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E257" s="1">
         <v>0.77</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>19</v>
       </c>
       <c r="B258" t="s">
         <v>16</v>
       </c>
-      <c r="C258" s="6" t="s">
-        <v>90</v>
+      <c r="C258" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D258" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E258" s="1">
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>20</v>
       </c>
       <c r="B259" t="s">
         <v>16</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>90</v>
+      <c r="C259" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D259" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E259" s="1">
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>23</v>
       </c>
       <c r="B260" t="s">
         <v>16</v>
       </c>
-      <c r="C260" s="6" t="s">
-        <v>90</v>
+      <c r="C260" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D260" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E260" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>26</v>
       </c>
       <c r="B261" t="s">
         <v>16</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>90</v>
+      <c r="C261" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D261" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E261" s="1">
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>27</v>
       </c>
       <c r="B262" t="s">
         <v>16</v>
       </c>
-      <c r="C262" s="6" t="s">
-        <v>90</v>
+      <c r="C262" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D262" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E262" s="1">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>28</v>
       </c>
       <c r="B263" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>90</v>
+      <c r="C263" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D263" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E263" s="1">
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>29</v>
       </c>
       <c r="B264" t="s">
         <v>16</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>90</v>
+      <c r="C264" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D264" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E264" s="1">
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>22</v>
       </c>
       <c r="B265" t="s">
         <v>16</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>90</v>
+      <c r="C265" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D265" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E265" s="1">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>30</v>
       </c>
       <c r="B266" t="s">
         <v>16</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>90</v>
+      <c r="C266" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D266" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E266" s="1">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>31</v>
       </c>
       <c r="B267" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>90</v>
+      <c r="C267" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D267" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E267" s="1">
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B268" t="s">
         <v>16</v>
       </c>
-      <c r="C268" s="6" t="s">
-        <v>90</v>
+      <c r="C268" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D268" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E268" s="1">
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C269" s="6"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>15</v>
       </c>
       <c r="B271" t="s">
         <v>16</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>95</v>
+      <c r="C271" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D271" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E271" s="1">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>18</v>
       </c>
       <c r="B272" t="s">
         <v>16</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>95</v>
+      <c r="C272" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D272" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E272" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>19</v>
       </c>
       <c r="B273" t="s">
         <v>16</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>95</v>
+      <c r="C273" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D273" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E273" s="1">
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>20</v>
       </c>
       <c r="B274" t="s">
         <v>16</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>95</v>
+      <c r="C274" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D274" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E274" s="1">
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>23</v>
       </c>
       <c r="B275" t="s">
         <v>16</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>95</v>
+      <c r="C275" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D275" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E275" s="1">
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>26</v>
       </c>
       <c r="B276" t="s">
         <v>16</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>95</v>
+      <c r="C276" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D276" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E276" s="1">
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>27</v>
       </c>
       <c r="B277" t="s">
         <v>16</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>95</v>
+      <c r="C277" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D277" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E277" s="1">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>28</v>
       </c>
       <c r="B278" t="s">
         <v>16</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>95</v>
+      <c r="C278" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D278" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E278" s="1">
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>29</v>
       </c>
       <c r="B279" t="s">
         <v>16</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>95</v>
+      <c r="C279" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D279" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E279" s="1">
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>22</v>
       </c>
       <c r="B280" t="s">
         <v>16</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>95</v>
+      <c r="C280" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D280" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E280" s="1">
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>30</v>
       </c>
       <c r="B281" t="s">
         <v>16</v>
       </c>
-      <c r="C281" s="6" t="s">
-        <v>95</v>
+      <c r="C281" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D281" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E281" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>31</v>
       </c>
       <c r="B282" t="s">
         <v>16</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>95</v>
+      <c r="C282" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D282" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E282" s="1">
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B283" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>95</v>
+      <c r="C283" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D283" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E283" s="1">
         <v>0.73699999999999999</v>
@@ -5915,1258 +5991,1450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="10.83203125" customWidth="1"/>
+    <col min="4" max="16" width="10.83203125" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="45">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.873</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.754</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.874</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>799</v>
+      </c>
+      <c r="C12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.755</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="8">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.755</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.877</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="8">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.879</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.876</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.499</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.873</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="1">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.754</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="1">
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.874</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.755</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.879</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.755</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.871</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.753</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.879</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.877</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="4">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="4">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="1">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.499</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q25">
-    <cfRule type="top10" dxfId="0" priority="9" percent="1" rank="3"/>
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="D2:S27">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+    <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="percent" val="95"/>
+        <cfvo type="percent" val="100"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color theme="7" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -5996,7 +5996,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7089,7 +7089,9 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9">
+        <v>0.94</v>
+      </c>
       <c r="J22" s="9">
         <v>0.82</v>
       </c>

--- a/data/Models/ModelResults.xlsx
+++ b/data/Models/ModelResults.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulbirmiwal/Documents/UWMSDS/Capstone/EnvNoiseDetector/data/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UW\Project\EnvNoiseDetector\data\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51653FA-7F88-4420-86DE-487706BE7948}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="3620" windowWidth="22100" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
     <sheet name="Plot" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -448,11 +441,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,23 +1335,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1438,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1484,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1513,7 @@
         <v>782.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1537,7 +1530,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1547,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1564,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1581,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1598,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1632,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1656,7 +1649,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +1666,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1683,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1707,7 +1700,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1724,7 +1717,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1734,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1751,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1787,7 +1780,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1797,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1821,7 +1814,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1838,7 +1831,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1855,7 +1848,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1882,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +1899,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1923,7 +1916,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1940,7 +1933,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1957,7 +1950,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1974,7 +1967,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2003,7 +1996,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2020,7 +2013,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2037,7 +2030,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2054,7 +2047,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +2064,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2081,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2105,7 +2098,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2115,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2139,7 +2132,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2156,7 +2149,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +2166,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2190,7 +2183,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2219,7 +2212,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -2236,7 +2229,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2253,7 +2246,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2270,7 +2263,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2280,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2297,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2314,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2331,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2355,7 +2348,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2372,7 +2365,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -2389,7 +2382,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -2406,7 +2399,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -2435,7 +2428,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2452,7 +2445,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2469,7 +2462,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2486,7 +2479,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2506,7 +2499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2523,7 +2516,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2533,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +2550,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2574,7 +2567,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2591,7 +2584,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2620,7 +2613,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -2637,7 +2630,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2647,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -2671,7 +2664,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -2688,7 +2681,7 @@
         <v>0.71899999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2705,7 +2698,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
@@ -2722,7 +2715,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2739,7 +2732,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2756,7 +2749,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2773,7 +2766,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2790,7 +2783,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -2807,7 +2800,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2836,7 +2829,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -2853,7 +2846,7 @@
         <v>0.71699999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -2870,7 +2863,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -2887,7 +2880,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2904,7 +2897,7 @@
         <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2921,7 +2914,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -2938,7 +2931,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2948,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -2972,7 +2965,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2989,7 +2982,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -3006,7 +2999,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -3023,7 +3016,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -3052,7 +3045,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -3069,7 +3062,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -3086,7 +3079,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -3103,7 +3096,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -3120,7 +3113,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -3137,7 +3130,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -3154,7 +3147,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3164,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -3188,7 +3181,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3205,7 +3198,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -3222,7 +3215,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3239,7 +3232,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3256,7 +3249,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -3273,7 +3266,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3290,7 +3283,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -3307,7 +3300,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -3324,7 +3317,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -3341,7 +3334,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -3358,7 +3351,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3375,7 +3368,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3392,7 +3385,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3409,7 +3402,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3426,7 +3419,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -3443,7 +3436,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3460,7 +3453,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -3477,7 +3470,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3494,7 +3487,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3523,7 +3516,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3540,7 +3533,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -3557,7 +3550,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>31</v>
       </c>
@@ -3574,7 +3567,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -3591,7 +3584,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3608,7 +3601,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3618,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3642,7 +3635,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -3659,7 +3652,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3676,7 +3669,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3693,7 +3686,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -3710,7 +3703,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>29</v>
       </c>
@@ -3727,7 +3720,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3744,7 +3737,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3773,7 +3766,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3790,7 +3783,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -3807,7 +3800,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -3824,7 +3817,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3841,7 +3834,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -3858,7 +3851,7 @@
         <v>0.73299999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -3875,7 +3868,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3892,7 +3885,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -3909,7 +3902,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -3926,7 +3919,7 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>29</v>
       </c>
@@ -3955,7 +3948,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3972,7 +3965,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3989,7 +3982,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -4006,7 +3999,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4023,7 +4016,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -4040,7 +4033,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -4057,7 +4050,7 @@
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -4074,7 +4067,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -4091,7 +4084,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4108,7 +4101,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4125,7 +4118,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -4142,7 +4135,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -4171,7 +4164,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4188,7 +4181,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>30</v>
       </c>
@@ -4205,7 +4198,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -4222,7 +4215,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4239,7 +4232,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>18</v>
       </c>
@@ -4256,7 +4249,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -4273,7 +4266,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -4290,7 +4283,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4307,7 +4300,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4324,7 +4317,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4341,7 +4334,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -4358,7 +4351,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -4387,7 +4380,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -4404,7 +4397,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>30</v>
       </c>
@@ -4421,7 +4414,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -4438,7 +4431,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>72</v>
       </c>
@@ -4467,7 +4460,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>72</v>
       </c>
@@ -4496,7 +4489,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>72</v>
       </c>
@@ -4525,7 +4518,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>72</v>
       </c>
@@ -4554,7 +4547,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>72</v>
       </c>
@@ -4583,7 +4576,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -4600,12 +4593,12 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16">
+    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -4622,7 +4615,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -4639,7 +4632,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -4656,7 +4649,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -4673,7 +4666,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -4690,7 +4683,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -4707,7 +4700,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -4724,7 +4717,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4741,7 +4734,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -4758,7 +4751,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -4775,7 +4768,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>30</v>
       </c>
@@ -4792,7 +4785,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -4809,7 +4802,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>60</v>
       </c>
@@ -4826,15 +4819,15 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="16">
+    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -4851,7 +4844,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -4868,7 +4861,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4885,7 +4878,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -4902,7 +4895,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -4919,7 +4912,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4936,7 +4929,7 @@
         <v>0.91600000000000004</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -4953,7 +4946,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -4970,7 +4963,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4987,7 +4980,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -5004,7 +4997,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -5021,7 +5014,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -5038,7 +5031,7 @@
         <v>0.66100000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>60</v>
       </c>
@@ -5055,15 +5048,15 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="16">
+    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -5080,7 +5073,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -5097,7 +5090,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -5114,7 +5107,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -5131,7 +5124,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -5148,7 +5141,7 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -5165,7 +5158,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -5182,7 +5175,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -5199,7 +5192,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5216,7 +5209,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>22</v>
       </c>
@@ -5233,7 +5226,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>30</v>
       </c>
@@ -5250,7 +5243,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>31</v>
       </c>
@@ -5267,7 +5260,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>60</v>
       </c>
@@ -5284,12 +5277,12 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16">
+    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -5306,7 +5299,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -5323,7 +5316,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -5340,7 +5333,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -5357,7 +5350,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -5374,7 +5367,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -5391,7 +5384,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -5408,7 +5401,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -5425,7 +5418,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -5442,7 +5435,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -5459,7 +5452,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5476,7 +5469,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>31</v>
       </c>
@@ -5493,7 +5486,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -5510,7 +5503,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>69</v>
       </c>
@@ -5527,12 +5520,12 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16">
+    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5542,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -5566,7 +5559,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -5583,7 +5576,7 @@
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -5600,7 +5593,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -5617,7 +5610,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -5634,7 +5627,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -5651,7 +5644,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>28</v>
       </c>
@@ -5668,7 +5661,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>29</v>
       </c>
@@ -5685,7 +5678,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>22</v>
       </c>
@@ -5702,7 +5695,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>30</v>
       </c>
@@ -5719,7 +5712,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -5736,7 +5729,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -5753,15 +5746,15 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -5778,7 +5771,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -5795,7 +5788,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -5812,7 +5805,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -5829,7 +5822,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -5846,7 +5839,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>26</v>
       </c>
@@ -5863,7 +5856,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -5880,7 +5873,7 @@
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>28</v>
       </c>
@@ -5897,7 +5890,7 @@
         <v>0.71799999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -5914,7 +5907,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>22</v>
       </c>
@@ -5931,7 +5924,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -5948,7 +5941,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -5965,7 +5958,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -5989,24 +5982,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="10.83203125" customWidth="1"/>
-    <col min="18" max="19" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -6065,7 +6060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -6116,7 +6111,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -6169,7 +6164,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -6220,7 +6215,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -6275,7 +6270,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -6326,7 +6321,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -6379,7 +6374,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -6430,7 +6425,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6483,7 +6478,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -6534,7 +6529,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -6587,7 +6582,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -6622,7 +6617,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -6657,49 +6652,29 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
+      <c r="B14">
+        <f>224*224*3</f>
+        <v>150528</v>
+      </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
-        <v>0.81</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.755</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0.82</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.871</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0.79900000000000004</v>
-      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="8">
@@ -6707,49 +6682,29 @@
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
+      <c r="B15">
+        <f>224*224*3</f>
+        <v>150528</v>
+      </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="8">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.753</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.877</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0.879</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0.81599999999999995</v>
-      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="8">
@@ -6757,49 +6712,29 @@
       </c>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
+      <c r="B16">
+        <f>224*224*3</f>
+        <v>150528</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.73</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0.877</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.81599999999999995</v>
-      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="8">
@@ -6807,7 +6742,7 @@
       </c>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -6858,7 +6793,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -6909,7 +6844,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -6960,7 +6895,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -7015,7 +6950,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>85</v>
       </c>
@@ -7072,9 +7007,12 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>114</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
      